--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>バックアップと災害復旧</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1121,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1129,7 +1094,7 @@
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M8" s="25" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください。</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1167,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1175,7 +1140,7 @@
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M9" s="25" t="n"/>
@@ -1186,23 +1151,23 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>バックアップと災害復旧</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください。</t>
+          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1213,15 +1178,19 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
-        </is>
-      </c>
-      <c r="I10" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J10" s="22" t="n"/>
       <c r="K10" s="23" t="n"/>
       <c r="L10" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M10" s="25" t="n"/>
@@ -1242,7 +1211,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1259,19 +1228,19 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J11" s="22" t="n"/>
       <c r="K11" s="22" t="n"/>
       <c r="L11" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M11" s="25" t="n"/>
@@ -1292,13 +1261,13 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
       <c r="E12" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1309,19 +1278,19 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J12" s="22" t="n"/>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M12" s="25" t="n"/>
@@ -1342,13 +1311,13 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1359,19 +1328,19 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J13" s="22" t="n"/>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1392,13 +1361,13 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,19 +1378,19 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
         </is>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J14" s="22" t="n"/>
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1442,7 +1411,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
+          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1459,19 +1428,19 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J15" s="22" t="n"/>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1492,13 +1461,13 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
+          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
       <c r="E16" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1509,19 +1478,19 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J16" s="22" t="n"/>
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1542,13 +1511,13 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
+          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
       <c r="E17" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1559,19 +1528,19 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J17" s="22" t="n"/>
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1592,7 +1561,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1609,19 +1578,19 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J18" s="22" t="n"/>
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1642,7 +1611,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1659,19 +1628,19 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J19" s="22" t="n"/>
       <c r="K19" s="22" t="n"/>
       <c r="L19" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M19" s="25" t="n"/>
@@ -1692,7 +1661,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1709,19 +1678,19 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J20" s="22" t="n"/>
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1742,7 +1711,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
+          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1764,14 +1733,14 @@
       </c>
       <c r="I21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J21" s="22" t="n"/>
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1792,7 +1761,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
+          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1809,19 +1778,19 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J22" s="22" t="n"/>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1842,7 +1811,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
+          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1859,19 +1828,19 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J23" s="22" t="n"/>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1892,7 +1861,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1909,19 +1878,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1932,17 +1901,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ID とアクセス</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
+          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1959,19 +1928,19 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J25" s="22" t="n"/>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1992,7 +1961,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
+          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2009,19 +1978,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2042,7 +2011,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2059,19 +2028,19 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2092,7 +2061,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
+          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2121,7 +2090,7 @@
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2142,7 +2111,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
+          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2171,7 +2140,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2192,7 +2161,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2209,19 +2178,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2242,7 +2206,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2259,14 +2223,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2287,7 +2251,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
+          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2304,7 +2268,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2312,7 +2276,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2333,13 +2297,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2358,7 +2322,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2379,13 +2343,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2396,7 +2360,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2404,7 +2368,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2425,13 +2389,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
+          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2442,15 +2406,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
-        </is>
-      </c>
-      <c r="I35" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+        </is>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+        </is>
+      </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2471,7 +2439,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
+          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2488,19 +2456,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2521,13 +2489,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2538,19 +2506,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2571,13 +2539,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2588,19 +2556,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2621,13 +2589,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを適用する</t>
+          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2638,19 +2606,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2671,7 +2639,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
+          <t>タグが請求とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2688,19 +2656,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2711,23 +2679,23 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2738,19 +2706,15 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I41" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I41" s="15" t="n"/>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2771,13 +2735,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
+          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2788,7 +2752,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2796,7 +2760,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2812,12 +2776,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2834,15 +2798,19 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2863,7 +2831,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2878,21 +2846,13 @@
         </is>
       </c>
       <c r="G44" s="21" t="n"/>
-      <c r="H44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H44" s="15" t="n"/>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2913,7 +2873,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2928,12 +2888,21 @@
         </is>
       </c>
       <c r="G45" s="21" t="n"/>
-      <c r="H45" s="15" t="n"/>
+      <c r="H45" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2954,7 +2923,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2983,7 +2952,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3004,7 +2973,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -3021,19 +2990,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3054,7 +3023,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3071,19 +3040,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3104,7 +3073,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3121,19 +3090,19 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3154,7 +3123,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3171,19 +3140,19 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3204,13 +3173,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3221,19 +3190,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3254,13 +3219,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3271,7 +3236,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3279,7 +3244,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3300,7 +3265,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3317,14 +3282,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3345,7 +3310,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3362,7 +3327,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3370,7 +3335,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3391,7 +3356,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3408,14 +3373,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3436,7 +3401,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3453,14 +3418,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3481,7 +3446,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3498,14 +3463,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3526,7 +3491,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3543,14 +3508,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3571,7 +3536,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3588,14 +3553,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3616,7 +3581,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3633,14 +3598,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3661,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3678,14 +3643,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3706,7 +3671,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3723,14 +3688,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3751,7 +3716,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3768,7 +3733,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3776,7 +3741,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3787,17 +3752,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと自動化アカウントでサポートされているリージョンを検討する</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3814,7 +3779,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3822,7 +3787,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3943,7 +3908,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイは、IP プレフィックスが /26 以上のサブネットにデプロイする必要があります。</t>
+          <t>Azure ロード バランサーに標準 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3960,19 +3925,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3993,14 +3954,10 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
-        </is>
-      </c>
-      <c r="D68" s="21" t="inlineStr">
-        <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
-        </is>
-      </c>
+          <t>アプリケーション ゲートウェイは、IP プレフィックスが /26 以上のサブネットにデプロイする必要があります。</t>
+        </is>
+      </c>
+      <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4014,7 +3971,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I68" s="15" t="inlineStr">
@@ -4026,7 +3983,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4047,10 +4004,14 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
-        </is>
-      </c>
-      <c r="D69" s="21" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP(S) 接続のプロキシに使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+        </is>
+      </c>
+      <c r="D69" s="21" t="inlineStr">
+        <is>
+          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化することは、1 つのチームによって管理されている場合は問題ない可能性があります。</t>
+        </is>
+      </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4069,14 +4030,14 @@
       </c>
       <c r="I69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4097,7 +4058,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>WAF ポリシーで Azure Front Door を使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護するのに役立ちます。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -4126,7 +4087,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4147,7 +4108,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>WAF ポリシーで Azure Front Door を使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護するのに役立ちます。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4164,7 +4125,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
@@ -4176,7 +4137,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4197,13 +4158,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4214,7 +4175,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I72" s="15" t="inlineStr">
@@ -4226,7 +4187,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4247,13 +4208,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4264,19 +4225,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4297,13 +4258,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4319,14 +4280,14 @@
       </c>
       <c r="I74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4347,13 +4308,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,15 +4325,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4393,7 +4358,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Front Door の WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4410,7 +4375,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4418,7 +4383,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4439,7 +4404,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4456,7 +4421,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4464,7 +4429,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4485,13 +4450,13 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,7 +4467,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4510,7 +4475,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4531,13 +4496,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4548,7 +4513,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4556,7 +4521,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4577,13 +4542,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4594,7 +4559,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4602,7 +4567,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4623,13 +4588,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ロード バランサーのアウトバウンド規則の代わりに Azure NAT ゲートウェイを使用して、SNAT のスケーラビリティを向上させる</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4640,7 +4605,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4648,7 +4613,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4664,18 +4629,18 @@
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>ロード バランサーのアウトバウンド規則の代わりに Azure NAT ゲートウェイを使用して、SNAT のスケーラビリティを向上させる</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4686,7 +4651,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4694,7 +4659,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4715,13 +4680,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4732,19 +4697,15 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="n"/>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4760,18 +4721,18 @@
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>最大限の柔軟性を必要とするネットワーク シナリオ向けに、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4782,19 +4743,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4815,13 +4776,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>最大限の柔軟性を必要とするネットワーク シナリオ向けに、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4832,15 +4793,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4861,13 +4826,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4878,7 +4843,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4886,7 +4851,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4907,13 +4872,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4924,7 +4889,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4932,7 +4897,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4953,7 +4918,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>ルート サーバーを使用している場合は、ルート サーバー サブネットに /27 プレフィックスを使用します。</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4970,7 +4935,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4978,7 +4943,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4999,13 +4964,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合は、ハブ VNet 間でグローバル仮想ネットワーク ピアリングを使用してリージョンを相互に接続します。</t>
+          <t>ルート サーバーを使用している場合は、ルート サーバー サブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5016,19 +4981,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5049,7 +5010,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合は、ハブ VNet 間でグローバル仮想ネットワーク ピアリングを使用してリージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5066,19 +5027,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5099,7 +5060,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5116,15 +5077,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5145,13 +5110,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5162,7 +5127,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5170,7 +5135,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5186,18 +5151,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5208,19 +5173,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5241,14 +5202,10 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターのすべての BGP 属性を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5262,7 +5219,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
@@ -5274,7 +5231,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5295,10 +5252,14 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターのすべての BGP 属性を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5324,7 +5285,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5345,13 +5306,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線を使用しているのは、コストに見合う帯域幅に達した場合のみにしてください。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5362,15 +5323,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5391,7 +5356,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
+          <t>無制限のデータ ExpressRoute 回線を使用しているのは、コストに見合う帯域幅に達した場合のみにしてください。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5408,7 +5373,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5416,7 +5381,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5437,13 +5402,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5454,19 +5419,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5487,7 +5448,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5504,7 +5465,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5516,7 +5477,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5537,7 +5498,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5554,7 +5515,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5566,7 +5527,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5587,7 +5548,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5604,19 +5565,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5637,13 +5598,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5654,19 +5615,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5687,13 +5648,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5704,7 +5665,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
@@ -5716,7 +5677,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5737,7 +5698,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5754,7 +5715,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5766,7 +5727,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5787,7 +5748,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5804,7 +5765,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5816,7 +5777,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5837,7 +5798,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5854,7 +5815,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5866,7 +5827,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5887,7 +5848,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5904,15 +5865,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5933,13 +5898,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5950,7 +5915,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5958,7 +5923,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5974,12 +5939,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5996,19 +5961,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6029,13 +5990,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
+          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6058,7 +6019,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6079,13 +6040,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6108,7 +6069,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6129,7 +6090,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6146,19 +6107,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6179,13 +6140,13 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6196,7 +6157,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
@@ -6208,7 +6169,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6229,7 +6190,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
+          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6246,19 +6207,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6279,13 +6240,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6296,14 +6257,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6324,13 +6290,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6341,19 +6307,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6369,18 +6330,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6391,14 +6352,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6419,7 +6385,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6436,7 +6402,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6444,7 +6410,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6465,13 +6431,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6482,19 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6515,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6532,7 +6493,7 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
@@ -6544,7 +6505,7 @@
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6565,13 +6526,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6594,7 +6555,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6615,13 +6576,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6632,19 +6593,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6665,13 +6626,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6682,7 +6643,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
@@ -6694,7 +6655,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6715,13 +6676,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6737,14 +6698,14 @@
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6765,7 +6726,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6782,19 +6743,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6815,7 +6776,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6832,14 +6793,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6860,7 +6826,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6877,14 +6843,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6905,7 +6871,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
+          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6929,7 +6895,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6950,7 +6916,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
+          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6967,14 +6933,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6995,7 +6961,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
+          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7012,14 +6978,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7035,12 +7001,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
+          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7057,19 +7023,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7090,13 +7051,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7107,19 +7068,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7140,7 +7101,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7162,14 +7123,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7190,7 +7151,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7212,14 +7173,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7240,7 +7201,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7269,7 +7230,7 @@
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7285,18 +7246,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
+          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7307,14 +7268,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7335,7 +7301,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>ゲートウェイ サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7352,14 +7318,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7380,13 +7346,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>ゲートウェイ サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7397,14 +7363,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7425,7 +7391,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7442,19 +7408,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7475,7 +7436,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7492,19 +7453,19 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7525,7 +7486,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7540,7 +7501,11 @@
         </is>
       </c>
       <c r="G141" s="21" t="n"/>
-      <c r="H141" s="15" t="n"/>
+      <c r="H141" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7550,7 +7515,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7571,7 +7536,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7586,11 +7551,7 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H142" s="15" t="n"/>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7600,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7621,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7643,14 +7604,14 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7666,12 +7627,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7688,19 +7649,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7721,7 +7682,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7738,14 +7699,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7766,13 +7732,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7790,7 +7756,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7811,13 +7777,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイする</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7829,18 +7795,13 @@
       <c r="H147" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7861,7 +7822,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7878,14 +7839,19 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7906,7 +7872,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7923,14 +7889,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7951,7 +7917,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>これらのフローを明示的にブロックする必要がある場合を除き、IaC 展開で Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7968,14 +7934,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7996,7 +7962,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>ハブ ルーティングの基本設定として AS-Path を使用すると、ExpressRoute や VPN よりも柔軟性があります。</t>
+          <t>これらのフローを明示的にブロックする必要がある場合を除き、IaC 展開で Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -8013,14 +7979,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8041,7 +8007,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していないことを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>ハブ ルーティングの基本設定として AS-Path を使用すると、ExpressRoute や VPN よりも柔軟性があります。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8058,14 +8024,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8086,13 +8052,13 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 領域 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していないことを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8103,14 +8069,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8121,17 +8087,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>仮想ハブに十分な IP 領域 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8148,14 +8114,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8176,13 +8142,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8193,14 +8159,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8211,7 +8177,7 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
@@ -8221,13 +8187,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8238,14 +8204,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8266,13 +8232,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8283,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8311,13 +8277,13 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8328,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8356,7 +8322,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8373,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8401,7 +8367,7 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8418,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8446,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8463,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8491,7 +8457,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8508,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8536,13 +8502,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8553,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8581,7 +8547,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8598,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8626,7 +8592,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8643,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8671,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8688,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8716,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8733,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8756,18 +8722,18 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8778,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8806,13 +8772,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8823,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8851,7 +8817,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8868,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8896,7 +8862,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8920,7 +8886,7 @@
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8941,7 +8907,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8965,7 +8931,7 @@
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8986,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9003,14 +8969,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -9031,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9048,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9076,14 +9042,10 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D175" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
-        </is>
-      </c>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+        </is>
+      </c>
+      <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9097,14 +9059,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9125,10 +9087,14 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
+        </is>
+      </c>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9142,14 +9108,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9170,7 +9136,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9187,14 +9153,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9215,7 +9181,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9232,14 +9198,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9260,14 +9226,10 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
-        </is>
-      </c>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9281,14 +9243,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9304,18 +9266,22 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9326,14 +9292,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9354,13 +9320,13 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9371,14 +9337,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9399,7 +9365,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9416,14 +9382,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9444,7 +9410,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9468,7 +9434,7 @@
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9489,7 +9455,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9513,7 +9479,7 @@
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9534,7 +9500,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9558,7 +9524,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9579,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9603,7 +9569,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9624,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9641,14 +9607,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9669,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9686,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9714,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9731,14 +9697,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9759,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9776,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9804,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9828,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9844,12 +9810,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9866,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9894,7 +9860,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9911,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9939,7 +9905,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9956,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9984,7 +9950,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -10008,7 +9974,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10029,7 +9995,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10046,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10074,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10091,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10119,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10136,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10164,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10181,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10209,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10233,7 +10199,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10249,18 +10215,18 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10271,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10294,12 +10260,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10316,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10344,7 +10310,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10361,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10377,15 +10343,45 @@
       <c r="P203" s="25" t="n"/>
     </row>
     <row r="204" ht="16.5" customHeight="1">
-      <c r="A204" s="21" t="n"/>
-      <c r="B204" s="21" t="n"/>
-      <c r="C204" s="21" t="n"/>
+      <c r="A204" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B204" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C204" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+        </is>
+      </c>
       <c r="D204" s="21" t="n"/>
-      <c r="E204" s="21" t="n"/>
+      <c r="E204" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G204" s="21" t="n"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
-      <c r="L204" s="25" t="n"/>
+      <c r="L204" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M204" s="25" t="n"/>
       <c r="N204" s="25" t="n"/>
       <c r="O204" s="25" t="n"/>
@@ -11808,20 +11804,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -11833,123 +11927,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F204" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -8222,17 +8222,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>復元</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>可用性ゾーンは、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8249,14 +8249,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8267,23 +8267,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>復元</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>1 つの VM で運用ワークロードを実行することは避けてください。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8294,14 +8294,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8312,23 +8312,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>復元</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure ロード バランサーとアプリケーション ゲートウェイは、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8339,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8357,23 +8357,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>復元</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure 仮想マシン スケール セットを活用して、負荷に基づいてスケールアップおよびスケールダウンします。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8384,14 +8384,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8429,14 +8429,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8457,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8474,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8519,14 +8519,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,13 +8547,13 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
       <c r="E164" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8564,14 +8564,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,13 +8592,13 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8609,14 +8609,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,13 +8637,13 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
       <c r="E166" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -8654,14 +8654,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,13 +8682,13 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
       <c r="E167" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -8699,14 +8699,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8744,14 +8744,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8767,18 +8767,18 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8789,14 +8789,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8812,12 +8812,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8834,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8857,18 +8857,18 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8879,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8902,12 +8902,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8924,14 +8924,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8952,13 +8952,13 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8976,7 +8976,7 @@
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8997,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9014,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9066,7 +9066,7 @@
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,14 +9087,10 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D176" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
-        </is>
-      </c>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+        </is>
+      </c>
+      <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9108,14 +9104,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9136,7 +9132,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9160,7 +9156,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9181,13 +9177,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9198,14 +9194,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9226,7 +9222,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9243,14 +9239,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9271,12 +9267,12 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D180" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
         </is>
       </c>
       <c r="E180" s="21" t="inlineStr">
@@ -9292,14 +9288,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9315,18 +9311,18 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9337,14 +9333,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9360,12 +9356,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9382,14 +9378,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9405,12 +9401,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9427,14 +9423,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9450,15 +9446,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9472,14 +9472,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9500,13 +9500,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9517,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9562,14 +9562,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9590,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9614,7 +9614,7 @@
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9635,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9652,14 +9652,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9680,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9704,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9725,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9742,14 +9742,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9770,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9794,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9815,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9832,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9855,12 +9855,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9877,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9900,12 +9900,12 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9922,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9945,12 +9945,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9967,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9990,12 +9990,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10012,14 +10012,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10057,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10102,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10130,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10147,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10192,14 +10192,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10237,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10260,18 +10260,18 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10282,14 +10282,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10310,13 +10310,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10327,14 +10327,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10355,13 +10355,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10372,14 +10372,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10388,60 +10388,180 @@
       <c r="P204" s="25" t="n"/>
     </row>
     <row r="205" ht="16.5" customHeight="1">
-      <c r="A205" s="21" t="n"/>
-      <c r="B205" s="21" t="n"/>
-      <c r="C205" s="21" t="n"/>
+      <c r="A205" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B205" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C205" s="21" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+        </is>
+      </c>
       <c r="D205" s="21" t="n"/>
-      <c r="E205" s="21" t="n"/>
+      <c r="E205" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G205" s="21" t="n"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
-      <c r="L205" s="25" t="n"/>
+      <c r="L205" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M205" s="25" t="n"/>
       <c r="N205" s="25" t="n"/>
       <c r="O205" s="25" t="n"/>
       <c r="P205" s="25" t="n"/>
     </row>
     <row r="206" ht="16.5" customHeight="1">
-      <c r="A206" s="21" t="n"/>
-      <c r="B206" s="21" t="n"/>
-      <c r="C206" s="21" t="n"/>
+      <c r="A206" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B206" s="21" t="inlineStr">
+        <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C206" s="21" t="inlineStr">
+        <is>
+          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+        </is>
+      </c>
       <c r="D206" s="21" t="n"/>
-      <c r="E206" s="21" t="n"/>
+      <c r="E206" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G206" s="21" t="n"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
-      <c r="L206" s="25" t="n"/>
+      <c r="L206" s="25" t="inlineStr">
+        <is>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+        </is>
+      </c>
       <c r="M206" s="25" t="n"/>
       <c r="N206" s="25" t="n"/>
       <c r="O206" s="25" t="n"/>
       <c r="P206" s="25" t="n"/>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="n"/>
-      <c r="B207" s="21" t="n"/>
-      <c r="C207" s="21" t="n"/>
+      <c r="A207" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B207" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C207" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+        </is>
+      </c>
       <c r="D207" s="21" t="n"/>
-      <c r="E207" s="21" t="n"/>
+      <c r="E207" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G207" s="21" t="n"/>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+        </is>
+      </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
-      <c r="L207" s="25" t="n"/>
+      <c r="L207" s="25" t="inlineStr">
+        <is>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+        </is>
+      </c>
       <c r="M207" s="25" t="n"/>
       <c r="N207" s="25" t="n"/>
       <c r="O207" s="25" t="n"/>
       <c r="P207" s="25" t="n"/>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="n"/>
-      <c r="B208" s="21" t="n"/>
-      <c r="C208" s="21" t="n"/>
+      <c r="A208" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B208" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C208" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+        </is>
+      </c>
       <c r="D208" s="21" t="n"/>
-      <c r="E208" s="21" t="n"/>
+      <c r="E208" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G208" s="21" t="n"/>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
-      <c r="L208" s="25" t="n"/>
+      <c r="L208" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M208" s="25" t="n"/>
       <c r="N208" s="25" t="n"/>
       <c r="O208" s="25" t="n"/>
@@ -11928,7 +12048,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F205" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11943,7 +12063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -12151,6 +12271,13 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
+          <t>復元</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
           <t>バックアップと災害復旧</t>
         </is>
       </c>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -3626,7 +3626,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure と互換性のあるサードパーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -5110,7 +5110,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限 (500)、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数 (1000) を考慮してください。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5156,13 +5156,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
+          <t>ルートテーブルあたりのルートの制限 (400) を考慮します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5173,7 +5173,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5181,7 +5181,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5197,18 +5197,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5219,19 +5219,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5252,14 +5248,10 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="D95" s="21" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターのすべての BGP 属性を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+        </is>
+      </c>
+      <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5273,7 +5265,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
@@ -5285,7 +5277,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5306,10 +5298,14 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
-        </is>
-      </c>
-      <c r="D96" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D96" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターのすべての BGP 属性を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E96" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5335,7 +5331,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5356,13 +5352,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線を使用しているのは、コストに見合う帯域幅に達した場合のみにしてください。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5373,15 +5369,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
+          <t>無制限のデータ ExpressRoute 回線を使用しているのは、コストに見合う帯域幅に達した場合のみにしてください。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5419,7 +5419,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5427,7 +5427,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5448,13 +5448,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5465,19 +5465,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5498,7 +5494,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5515,7 +5511,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
@@ -5527,7 +5523,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5548,7 +5544,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5565,7 +5561,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
@@ -5577,7 +5573,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5598,7 +5594,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5615,19 +5611,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5648,13 +5644,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5665,19 +5661,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5698,13 +5694,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>ExpressRoute ダイレクトを使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線の使用を検討してください。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5715,7 +5711,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
@@ -5727,7 +5723,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5748,7 +5744,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5765,7 +5761,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5777,7 +5773,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5798,7 +5794,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5815,7 +5811,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5827,7 +5823,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5848,7 +5844,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5865,7 +5861,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
@@ -5877,7 +5873,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5898,7 +5894,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5915,15 +5911,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5944,13 +5944,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを使用することを検討してください</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5961,7 +5961,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5969,7 +5969,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5985,12 +5985,12 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6007,19 +6007,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6040,13 +6036,13 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
+          <t>Azure リージョンとオンプレミスの場所で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6069,7 +6065,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6090,13 +6086,13 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>プライベート インターネットのアドレス割り当て範囲の IP アドレスを使用します (RFC 1918)。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6119,7 +6115,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6140,7 +6136,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6157,19 +6153,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6190,13 +6186,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6207,7 +6203,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I114" s="15" t="inlineStr">
@@ -6219,7 +6215,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6240,7 +6236,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
+          <t>Azure での名前解決が必要なだけの場合は、名前解決用の委任されたゾーン ("azure.contoso.com" など) を使用した解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6257,19 +6253,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6290,13 +6286,13 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6307,14 +6303,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6335,13 +6336,13 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6352,19 +6353,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6380,18 +6376,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6402,15 +6398,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6448,14 +6448,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6476,13 +6476,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>Azure Bastion は、/26 以上のサブネットで使用します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6493,19 +6493,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6526,13 +6522,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6543,7 +6539,7 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
@@ -6555,7 +6551,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6576,13 +6572,13 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6605,7 +6601,7 @@
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6626,13 +6622,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6643,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6676,13 +6672,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6693,7 +6689,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
@@ -6705,7 +6701,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6726,13 +6722,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6748,14 +6744,14 @@
       </c>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6776,7 +6772,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開するアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6793,19 +6789,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6826,7 +6822,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6843,14 +6839,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6871,7 +6872,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6888,14 +6889,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6916,7 +6917,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
+          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6940,7 +6941,7 @@
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6961,7 +6962,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
+          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6978,14 +6979,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7006,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
+          <t>追加の保護のために、Azure ファイアウォール IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7023,14 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7046,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
+          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7068,19 +7069,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7101,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば 0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールを使用して切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7118,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7151,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7173,14 +7169,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7201,7 +7197,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7223,14 +7219,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7251,7 +7247,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7280,7 +7276,7 @@
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7296,18 +7292,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
+          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA 上のエグレス FQDN をフィルター処理して、データの流出を防ぎます。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7318,14 +7314,19 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7346,7 +7347,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>ゲートウェイ サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7363,14 +7364,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7391,13 +7392,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>ゲートウェイ サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7408,14 +7409,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7436,7 +7437,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7453,19 +7454,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7486,7 +7482,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7503,19 +7499,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7536,7 +7532,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7551,7 +7547,11 @@
         </is>
       </c>
       <c r="G142" s="21" t="n"/>
-      <c r="H142" s="15" t="n"/>
+      <c r="H142" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7561,7 +7561,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7597,11 +7597,7 @@
         </is>
       </c>
       <c r="G143" s="21" t="n"/>
-      <c r="H143" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H143" s="15" t="n"/>
       <c r="I143" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -7611,7 +7607,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7632,7 +7628,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7654,14 +7650,14 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7677,12 +7673,12 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7699,19 +7695,19 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7732,7 +7728,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7749,14 +7745,19 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7777,13 +7778,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7801,7 +7802,7 @@
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7822,13 +7823,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイする</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7840,18 +7841,13 @@
       <c r="H148" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7872,7 +7868,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7889,14 +7885,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7917,7 +7918,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7934,14 +7935,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7962,7 +7963,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>これらのフローを明示的にブロックする必要がある場合を除き、IaC 展開で Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7979,14 +7980,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -8007,7 +8008,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>ハブ ルーティングの基本設定として AS-Path を使用すると、ExpressRoute や VPN よりも柔軟性があります。</t>
+          <t>これらのフローを明示的にブロックする必要がある場合を除き、IaC 展開で Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8024,14 +8025,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8052,7 +8053,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していないことを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>ハブ ルーティングの基本設定として AS-Path を使用すると、ExpressRoute や VPN よりも柔軟性があります。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8069,14 +8070,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8097,13 +8098,13 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 領域 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していないことを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8114,14 +8115,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8132,17 +8133,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>仮想ハブに十分な IP 領域 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8159,14 +8160,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8187,13 +8188,13 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8204,14 +8205,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8222,23 +8223,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>復元</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンは、サポートされているリージョンの VM に活用します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8249,14 +8250,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8277,7 +8278,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>1 つの VM で運用ワークロードを実行することは避けてください。</t>
+          <t>可用性ゾーンは、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8294,14 +8295,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8322,13 +8323,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーとアプリケーション ゲートウェイは、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>1 つの VM で運用ワークロードを実行することは避けてください。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8339,14 +8340,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8362,12 +8363,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想マシン スケール セットを活用して、負荷に基づいてスケールアップおよびスケールダウンします。</t>
+          <t>Azure ロード バランサーとアプリケーション ゲートウェイは、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8384,14 +8385,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8402,23 +8403,23 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>復元</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure 仮想マシン スケール セットを活用して、負荷に基づいてスケールアップおよびスケールダウンします。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
       <c r="E161" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8429,14 +8430,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8457,13 +8458,13 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8474,14 +8475,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8502,13 +8503,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8519,14 +8520,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8547,7 +8548,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8564,14 +8565,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8592,7 +8593,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8609,14 +8610,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8637,7 +8638,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8654,14 +8655,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8682,7 +8683,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8699,14 +8700,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8727,13 +8728,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8744,14 +8745,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8772,7 +8773,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8789,14 +8790,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8817,7 +8818,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8834,14 +8835,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8862,13 +8863,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8879,14 +8880,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8907,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8924,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8947,18 +8948,18 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
       <c r="E173" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -8969,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8997,13 +8998,13 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9014,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9042,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9059,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9087,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9111,7 +9112,7 @@
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9132,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9156,7 +9157,7 @@
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9177,13 +9178,13 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9194,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9222,13 +9223,13 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9239,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9267,14 +9268,10 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
-        </is>
-      </c>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9288,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9316,10 +9313,14 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9333,14 +9334,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9361,7 +9362,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9378,14 +9379,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9406,7 +9407,7 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9423,14 +9424,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9451,14 +9452,10 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
-        </is>
-      </c>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9472,14 +9469,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>Configure Azure Automation Start/Stop VMs during off-hours | Microsoft Learn</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9495,18 +9492,22 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
-        </is>
-      </c>
-      <c r="D185" s="21" t="n"/>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+        </is>
+      </c>
+      <c r="D185" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に合致していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9517,14 +9518,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9545,13 +9546,13 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9562,14 +9563,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9590,7 +9591,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9607,14 +9608,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9635,7 +9636,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,7 +9660,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9680,7 +9681,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9704,7 +9705,7 @@
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9725,7 +9726,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9749,7 +9750,7 @@
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9770,7 +9771,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9794,7 +9795,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9815,7 +9816,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9832,14 +9833,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9860,7 +9861,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9877,14 +9878,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9905,7 +9906,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9922,14 +9923,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9950,7 +9951,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9967,14 +9968,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9995,7 +9996,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10019,7 +10020,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10035,12 +10036,12 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10057,14 +10058,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10085,7 +10086,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10102,14 +10103,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10130,7 +10131,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10147,14 +10148,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10175,7 +10176,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10199,7 +10200,7 @@
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10220,7 +10221,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10237,14 +10238,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10265,7 +10266,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10282,14 +10283,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10310,7 +10311,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10327,14 +10328,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10355,7 +10356,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10372,14 +10373,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10400,7 +10401,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10424,7 +10425,7 @@
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10440,18 +10441,18 @@
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10462,14 +10463,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10485,12 +10486,12 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
+          <t>マイクロソフトのベスト プラクティスの名前付け標準に従うことをお勧めします。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10507,14 +10508,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10535,7 +10536,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要があります</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10552,14 +10553,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10568,15 +10569,45 @@
       <c r="P208" s="25" t="n"/>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="n"/>
-      <c r="B209" s="21" t="n"/>
-      <c r="C209" s="21" t="n"/>
+      <c r="A209" s="21" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B209" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C209" s="21" t="inlineStr">
+        <is>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+        </is>
+      </c>
       <c r="D209" s="21" t="n"/>
-      <c r="E209" s="21" t="n"/>
+      <c r="E209" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G209" s="21" t="n"/>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+        </is>
+      </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
-      <c r="L209" s="25" t="n"/>
+      <c r="L209" s="25" t="inlineStr">
+        <is>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+        </is>
+      </c>
       <c r="M209" s="25" t="n"/>
       <c r="N209" s="25" t="n"/>
       <c r="O209" s="25" t="n"/>
@@ -12048,7 +12079,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F209" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F210" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>いくつの Azure AD テナントを管理していますか?</t>
+          <t>マルチテナントの明確な規制要件またはビジネス要件がない限り、Azure リソースの管理には 1 つの Entra テナントを使用します。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1086,7 +1086,7 @@
       <c r="G8" s="21" t="n"/>
       <c r="H8" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/guide/multitenant/considerations/tenancy-models</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/considerations-recommendations</t>
         </is>
       </c>
       <c r="I8" s="15" t="n"/>
@@ -1121,7 +1121,7 @@
       <c r="D9" s="21" t="n"/>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1132,7 +1132,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/automation</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1167,7 +1167,7 @@
       <c r="D10" s="21" t="n"/>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1178,7 +1178,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/multi-tenant/lighthouse</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1224,7 +1224,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1270,7 +1270,7 @@
       <c r="G12" s="21" t="n"/>
       <c r="H12" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I12" s="15" t="n"/>
@@ -1316,7 +1316,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1362,7 +1362,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/direct-ea-administration#manage-notification-contacts</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1408,7 +1408,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1454,7 +1454,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1500,7 +1500,7 @@
       <c r="G17" s="21" t="n"/>
       <c r="H17" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I17" s="15" t="n"/>
@@ -1546,7 +1546,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1592,7 +1592,7 @@
       <c r="G19" s="21" t="n"/>
       <c r="H19" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-enterprise-agreement#design-considerations</t>
         </is>
       </c>
       <c r="I19" s="15" t="n"/>
@@ -1638,7 +1638,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/manage/mca-section-invoice</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/manage/mca-section-invoice</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/azure-billing-microsoft-customer-agreement#design-recommendations</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -2235,7 +2235,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2281,7 +2281,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2327,12 +2327,12 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
@@ -2473,10 +2473,10 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
@@ -3219,12 +3219,12 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
@@ -3269,12 +3269,12 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
@@ -3319,10 +3319,9 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
@@ -3636,7 +3635,7 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -7570,7 +7569,7 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
@@ -9821,7 +9820,7 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
@@ -9866,7 +9865,7 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
@@ -9911,7 +9910,7 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
@@ -9956,7 +9955,7 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
@@ -10001,7 +10000,7 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
@@ -10046,7 +10045,7 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
@@ -10091,7 +10090,7 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
@@ -10136,7 +10135,7 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
@@ -10181,7 +10180,7 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
@@ -10226,7 +10225,7 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
@@ -10271,7 +10270,7 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
@@ -10316,7 +10315,7 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
@@ -11884,13 +11883,13 @@
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対してクラウド標準の Defender を有効にします。</t>
+          <t>すべてのサブスクリプションに対して Defender クラウド セキュリティ体制管理を有効にします。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11901,7 +11900,7 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
@@ -11929,13 +11928,13 @@
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用ドリフトを監視します。</t>
+          <t>すべてのサブスクリプションでサーバーの Defender クラウド ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
       <c r="E238" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -11946,14 +11945,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11974,13 +11973,13 @@
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender クラウド ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11991,14 +11990,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12014,12 +12013,12 @@
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>IaaS サーバーでエンドポイント保護を有効にします。</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12036,14 +12035,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12059,18 +12058,18 @@
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12081,14 +12080,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12104,18 +12103,18 @@
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>安全な特権アクセス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権を持つ管理者アカウントを分離します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12126,15 +12125,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
-      <c r="I242" t="inlineStr"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12150,18 +12148,18 @@
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>サービスイネーブルメントフレームワーク</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12172,14 +12170,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12195,18 +12193,18 @@
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>サービスイネーブルメントフレームワーク</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12217,14 +12215,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,45 +12231,135 @@
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="n"/>
-      <c r="B245" s="21" t="n"/>
-      <c r="C245" s="21" t="n"/>
+      <c r="A245" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B245" s="21" t="inlineStr">
+        <is>
+          <t>安全な特権アクセス</t>
+        </is>
+      </c>
+      <c r="C245" s="21" t="inlineStr">
+        <is>
+          <t>Azure 管理タスク用に特権を持つ管理者アカウントを分離します。</t>
+        </is>
+      </c>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="n"/>
+      <c r="E245" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G245" s="21" t="n"/>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+        </is>
+      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="n"/>
+      <c r="L245" s="25" t="inlineStr">
+        <is>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+        </is>
+      </c>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="n"/>
-      <c r="B246" s="21" t="n"/>
-      <c r="C246" s="21" t="n"/>
+      <c r="A246" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
+          <t>サービスイネーブルメントフレームワーク</t>
+        </is>
+      </c>
+      <c r="C246" s="21" t="inlineStr">
+        <is>
+          <t>新しい Azure サービスの実装方法を計画する</t>
+        </is>
+      </c>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="n"/>
+      <c r="E246" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G246" s="21" t="n"/>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="n"/>
+      <c r="L246" s="25" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="n"/>
-      <c r="B247" s="21" t="n"/>
-      <c r="C247" s="21" t="n"/>
+      <c r="A247" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="B247" s="21" t="inlineStr">
+        <is>
+          <t>サービスイネーブルメントフレームワーク</t>
+        </is>
+      </c>
+      <c r="C247" s="21" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+        </is>
+      </c>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="n"/>
+      <c r="E247" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G247" s="21" t="n"/>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+        </is>
+      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="n"/>
+      <c r="L247" s="25" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13173,7 +13261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -7947,7 +7947,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク サービス エンドポイントを使用している場合は、NVA でエグレス FQDN をフィルター処理して、データ流出を防ぎます。</t>
+          <t>Azure ファイアウォールまたは NVA で IP アドレスではなく FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データの流出を防ぎます。プライベート リンクを使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Azure AD テナント</t>
+          <t>Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1105,17 +1105,17 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Azure AD テナント</t>
+          <t>Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure AD テナントを管理するためのマルチテナント自動化アプローチがあることを確認する</t>
+          <t>Microsoft Entra ID テナントを管理するためのマルチテナント自動化アプローチがあることを確認する</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1151,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Azure AD テナント</t>
+          <t>Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1197,7 +1197,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1243,7 +1243,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1289,7 +1289,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>部門とアカウントを使用して組織の構造を登録階層にマップすると、課金を分離するのに役立ちます。</t>
+          <t>部門とアカウントを使用して、組織の構造を登録階層にマップし、課金の分離に役立ちます。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>アカウントの種類が "職場と学校アカウント" に構成されていることを確認します</t>
+          <t>アカウントの種類が '職場または学校アカウント" に構成されていることを確認します</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>EA 登録で DA ビュー料金と AO ビュー料金の両方を有効にして、ユーザーが正しい権限でコストと請求データを確認できるようにします。</t>
+          <t>EA 登録で DA ビュー料金と AO ビュー料金の両方を有効にして、正しい権限を持つユーザーがコストと請求データを確認できるようにします。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1611,12 +1611,12 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト クラウド契約</t>
+          <t>マイクロソフト顧客契約</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
@@ -1657,12 +1657,12 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト クラウド契約</t>
+          <t>マイクロソフト顧客契約</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
@@ -1703,12 +1703,12 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト クラウド契約</t>
+          <t>マイクロソフト顧客契約</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
@@ -1749,12 +1749,12 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト クラウド契約</t>
+          <t>マイクロソフト顧客契約</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
@@ -1795,17 +1795,17 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>Microsoft Entra ID とハイブリッド ID</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、ポリシー イニシアチブを使用して関連するポリシーをグループ化することで、環境のコントロールを定義します。</t>
+          <t>Azure サービスに対する認証にサービス プリンシパルの代わりにマネージド ID を使用する</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1822,15 +1822,19 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+        </is>
+      </c>
       <c r="J24" s="22" t="n"/>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1841,17 +1845,17 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>マイクロソフトエントラID</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して使用を適用します。</t>
+          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを用意することを検討してください</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1872,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1880,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1887,23 +1891,23 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>緊急アクセスまたは非常用アカウントを実装して、テナント全体のアカウントのロックアウトを防止します</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1914,15 +1918,19 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I26" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+        </is>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J26" s="22" t="n"/>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1933,17 +1941,17 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにします</t>
+          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源を使用できるため、ログの収集と保持に関する要件を満たすためのクラウド ネイティブ オプションを組織に提供します。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1960,14 +1968,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1978,23 +1986,23 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシー割り当てを最上位の適切なレベルで管理し、除外を下位レベルで管理します。</t>
+          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープを設定し、割り当てます。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2005,14 +2013,19 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2023,17 +2036,17 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Microsoft Entra ID の条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2050,14 +2063,19 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2068,23 +2086,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2113,19 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2113,24 +2136,20 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D31" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者の役割を特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
-        </is>
-      </c>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用します</t>
+        </is>
+      </c>
+      <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -2144,14 +2163,19 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2162,17 +2186,17 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>Microsoft Entra ID 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2189,15 +2213,19 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I32" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+        </is>
+      </c>
       <c r="J32" s="22" t="n"/>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2208,23 +2236,23 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>すべてのアカウントの種類に対して、認証の種類である職場または学校アカウントのみを使用します。マイクロソフト アカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2235,15 +2263,19 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
-      <c r="I33" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+        </is>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+        </is>
+      </c>
       <c r="J33" s="22" t="n"/>
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2254,17 +2286,17 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ID およびアクセス管理</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化する</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>「実績」および「予測」予算アラートを設定します。</t>
+          <t>グループのみを使用してアクセス許可を割り当てます。グループ管理システムが既に配置されている場合は、オンプレミスのグループを Azure AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2281,15 +2313,19 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
-        </is>
-      </c>
-      <c r="I34" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+        </is>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+        </is>
+      </c>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2305,18 +2341,18 @@
       </c>
       <c r="B35" s="21" t="inlineStr">
         <is>
-          <t>アクティブ ディレクトリとハイブリッド ID</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスに対する認証にサービス プリンシパルの代わりにマネージド ID を使用する</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2327,19 +2363,19 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#identity-and-access-management-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/managed-identities-azure-resources/overview</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>4348bf81-7573-4512-8f46-9061cc198fea</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2355,12 +2391,12 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Azure AD</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを用意することを検討してください</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADDS をデプロイします</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2377,15 +2413,19 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/hybrid/how-to-connect-sync-staging-server</t>
-        </is>
-      </c>
-      <c r="I36" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+        </is>
+      </c>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>cd163e39-84a5-4b39-97b7-6973abd70d94</t>
+          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2406,13 +2446,13 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>緊急アクセスまたは非常用アカウントを実装して、テナント全体のアカウントのロックアウトを防止します</t>
+          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2423,19 +2463,19 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J37" s="22" t="n"/>
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2456,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Azure AD ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源を使用できるため、ログの収集と保持に関する要件を満たすためのクラウド ネイティブ オプションを組織に提供します。</t>
+          <t>Windows サーバー上の AD が使用中の場合、Azure のリソースは正しいドメイン コントローラーを使用していますか?</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2473,15 +2513,19 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/concept-activity-logs-azure-monitor</t>
-        </is>
-      </c>
-      <c r="I38" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+        </is>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+        </is>
+      </c>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>1cf0b8da-70bd-44d0-94af-8d99cfc89ae1</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2502,13 +2546,13 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープを設定し、割り当てます。</t>
+          <t>Microsoft Entra ID アプリケーション プロキシを VPN またはリバース プロキシの代わりに使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
       <c r="E39" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2519,19 +2563,19 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2552,13 +2596,13 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD の条件付きアクセス ポリシーを適用する</t>
+          <t>オンプレミスの同期されたアカウントを Microsoft Entra ID ロールの割り当てに使用しないでください。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2569,19 +2613,19 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>53e8908a-e28c-484c-93b6-b7808b9fe5c4</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2597,18 +2641,18 @@
       </c>
       <c r="B41" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>ランディング ゾーン</t>
         </is>
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>仮想ネットワークを使用して ID (ADDS) ネットワーク セグメント化を構成し、ハブにピアバックします。アプリケーション ランディング ゾーン (レガシ) 内で認証を提供する。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2619,19 +2663,19 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
         </is>
       </c>
       <c r="I41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J41" s="22" t="n"/>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>1049d403-a923-4c34-94d0-0018ac6a9e01</t>
+          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2647,12 +2691,12 @@
       </c>
       <c r="B42" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>ランディング ゾーン</t>
         </is>
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用します</t>
+          <t>可能であれば、Azure RBAC を使用して、リソースへのデータ プレーン アクセスを管理します。たとえば、Key Vault、ストレージ アカウント、データベース サービス全体のデータ操作。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2669,19 +2713,19 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/centralize-operations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
         </is>
       </c>
       <c r="I42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="J42" s="22" t="n"/>
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2697,12 +2741,12 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>ランディング ゾーン</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure AD 特権 ID 管理 (PIM) を適用して、ゼロ永続的なアクセスと最小特権を確立する</t>
+          <t>Microsoft Entra ID PIM アクセス レビューを使用して、リソースの権利を定期的に検証します。</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2719,19 +2763,15 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I43" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+        </is>
+      </c>
+      <c r="I43" s="15" t="n"/>
       <c r="J43" s="22" t="n"/>
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2742,17 +2782,17 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>名前付けとタグ付け</t>
         </is>
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類に対して、認証の種類である職場または学校アカウントのみを使用します。マイクロソフト アカウントの使用を避ける</t>
+          <t>マイクロソフトのベスト プラクティスの名前付け基準に従うことをお勧めします</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2769,19 +2809,15 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
-        </is>
-      </c>
-      <c r="I44" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+        </is>
+      </c>
+      <c r="I44" s="15" t="n"/>
       <c r="J44" s="22" t="n"/>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>12e7f983-f630-4472-8dd6-9c5b5c2622f5</t>
+          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2792,17 +2828,17 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>グループのみを使用してアクセス許可を割り当てます。グループ管理システムが既に配置されている場合は、オンプレミスのグループを Azure AD 専用グループに追加します。</t>
+          <t>4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2819,19 +2855,19 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2842,17 +2878,17 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにします</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2869,19 +2905,19 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2892,17 +2928,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2919,19 +2955,19 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J47" s="22" t="n"/>
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2942,17 +2978,17 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADDS をデプロイします</t>
+          <t>接続管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2969,19 +3005,19 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>1559ab91-53e8-4908-ae28-c84c33b6b780</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2992,17 +3028,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します</t>
+          <t>[サブスクリプションがルート管理グループに配置されないように強制する]</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3019,19 +3055,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8b9fe5c4-1049-4d40-9a92-3c3474d00018</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3042,17 +3073,17 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Windowsサーバー上のADが使用中の場合、必要なすべてのリソースが正しいドメインコントローラーにアクセスできますか?</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるようにする</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3069,19 +3100,15 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
-        </is>
-      </c>
-      <c r="I50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+        </is>
+      </c>
+      <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3092,17 +3119,17 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりに使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3119,19 +3146,15 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
-        </is>
-      </c>
-      <c r="I51" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3142,23 +3165,23 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Azure AD ロールの割り当てにオンプレミスの同期アカウントを使用することは避けてください。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、アクセス レビュー、予算レビュー、ポリシー コンプライアンス、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3169,19 +3192,15 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
-        </is>
-      </c>
-      <c r="I52" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3192,23 +3211,23 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークを使用して ID (ADDS) ネットワーク セグメント化を構成し、ハブにピアバックします。アプリケーション ランディング ゾーン (レガシ) 内で認証を提供する。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、サブスクリプション クォータと、特定のサブスクリプションのプロビジョニング リソースに与える影響を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3219,19 +3238,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#managed-identities</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>9cf5418b-1520-4b7b-add7-88eb28f833e8</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3242,23 +3256,23 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>可能であれば、Azure RBAC を使用して、リソースへのデータ プレーン アクセスを管理します。たとえば、Keyvault、ストレージ アカウント、データベース サービス全体のデータ操作。</t>
+          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3269,19 +3283,19 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access-landing-zones#rbac-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>d4d1ad54-1abc-4919-b267-3f342d3b49e4</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3292,23 +3306,23 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Azure AD PIM アクセス レビューを使用して、リソースの権利を定期的に検証します。</t>
+          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
       <c r="E55" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3319,14 +3333,19 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-create-roles-and-resource-roles-review</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>d505ebcb-79b1-4274-9c0d-a27c8bea489c</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3337,23 +3356,23 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認する</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3364,14 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3382,23 +3406,23 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door ログを Microsoft Sentinel に送信します。攻撃を検出し、Front Door テレメトリを Azure 環境全体に統合します。</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3409,14 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3427,17 +3456,17 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを使用した BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>Windows Server 上の AD の場合は、Indentity 管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3454,14 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3472,17 +3506,17 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>リソース構成</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
+          <t>タグが請求とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3499,14 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3517,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3544,19 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3567,17 +3601,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3592,12 +3626,21 @@
         </is>
       </c>
       <c r="G61" s="21" t="n"/>
-      <c r="H61" s="15" t="n"/>
+      <c r="H61" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3608,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保有期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態で最大 7 年間保持できます。</t>
+          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3635,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3658,17 +3701,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>Azure ロード バランサーに標準 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3685,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3708,17 +3747,17 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>アプリケーション ゲートウェイは、IP プレフィックスが /26 以上のサブネットにデプロイする必要があります</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3735,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3758,20 +3797,24 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation での更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="n"/>
+          <t>ランディング ゾーン仮想ネットワーク内およびセキュリティ保護されているアプリを使用して、受信 HTTP(S) 接続をプロキシするために使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="inlineStr">
+        <is>
+          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化しても、1 つのチームで管理されている場合は問題ない可能性があります。</t>
+        </is>
+      </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3785,19 +3828,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3808,17 +3851,17 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3835,19 +3878,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3858,17 +3901,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3885,19 +3928,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3908,23 +3951,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが配置されます。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3935,15 +3978,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3954,23 +4001,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3981,15 +4028,19 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4000,23 +4051,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートや問題に対処できるようにします</t>
+          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4027,15 +4078,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+        </is>
+      </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4046,17 +4101,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>ネットワーク内の着信接続用に開いているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4073,15 +4128,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4092,23 +4151,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>フロント ドアの WAF プロファイルを "防止" モードでデプロイします。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4119,7 +4178,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4127,7 +4186,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4138,23 +4197,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには、Azure モニター ログを使用します。</t>
+          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4165,7 +4224,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4173,7 +4232,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4184,23 +4243,23 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能のログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>Azure フロント ドアと配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4211,7 +4270,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4219,7 +4278,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4230,23 +4289,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4257,7 +4316,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4265,7 +4324,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4276,17 +4335,17 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>Azure フロント ドアの正常な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4303,7 +4362,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4311,7 +4370,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4322,23 +4381,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースとオートメーション アカウントでサポートされているリージョンを検討する</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを削減します。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4349,7 +4408,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4357,7 +4416,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4368,23 +4427,23 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>運用上の互換性</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠しているベースライン VM 構成を適用します。</t>
+          <t>SNAT のスケーラビリティを向上させるために、ロード バランサーのアウトバウンド規則の代わりに Azure NAT ゲートウェイを使用する</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4395,7 +4454,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4403,7 +4462,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4414,27 +4473,23 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>運用上の互換性</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシン設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に整合していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
-        </is>
-      </c>
+          <t>マネージド TLS 証明書を Azure Front Door で使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4445,7 +4500,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4453,7 +4508,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4464,17 +4519,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure サイト回復を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいバージョンのルールセットをより簡単に採用し、保護を強化できます。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4491,7 +4546,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4499,7 +4554,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4510,17 +4565,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>ExpressRoute ダイレクトを使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するように MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4537,7 +4592,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4545,7 +4600,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4556,23 +4611,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure と互換性のあるサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しない場合) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4583,15 +4638,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4602,23 +4661,23 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンは、サポートされているリージョンの VM に活用します。</t>
+          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4629,15 +4688,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
-        </is>
-      </c>
-      <c r="I83" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I83" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4648,17 +4711,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>単一の VM で運用ワークロードを実行することは避けてください。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4675,7 +4738,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4683,7 +4746,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4694,17 +4757,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーとアプリケーション ゲートウェイは、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4721,7 +4784,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4729,7 +4792,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4740,23 +4803,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想マシン スケール セットを活用して、負荷に基づいてスケールアップおよびスケールダウンします。</t>
+          <t>ハブ アンド スポークのシナリオで ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4767,7 +4830,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4775,7 +4838,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4791,18 +4854,18 @@
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>ルートサーバーを使用している場合は、ルートサーバーサブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4813,7 +4876,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4821,7 +4884,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4837,12 +4900,12 @@
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>Azure リージョンにまたがる複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合は、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4859,19 +4922,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4887,12 +4950,12 @@
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
+          <t>Azure モニター (ネットワーク用) を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4909,19 +4972,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4937,12 +5000,12 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーに標準 SKU を使用していることを確認する</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限 (500)、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数 (1000) を考慮してください</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4959,7 +5022,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4967,7 +5030,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4983,12 +5046,12 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイは、IP プレフィックスが /26 以上のサブネットにデプロイする必要があります</t>
+          <t>ルート テーブルあたりのルートの制限 (400) について考えてみます。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5005,19 +5068,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5033,22 +5092,18 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内およびセキュリティ保護されているアプリを使用して、受信 HTTP(S) 接続をプロキシするために使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化しても、1 つのチームで管理されている場合は問題ない可能性があります。</t>
-        </is>
-      </c>
+          <t>VNet ピアリングを構成するときは、"リモート仮想ネットワークへのトラフィックを許可する" 設定を使用します</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5059,19 +5114,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5087,12 +5138,12 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5109,19 +5160,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5137,15 +5188,19 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの BGP 属性の全範囲を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5159,19 +5214,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5187,12 +5242,12 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5209,19 +5264,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5237,12 +5292,12 @@
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>無制限のデータ ExpressRoute 回線は、コストを正当化する帯域幅に達した場合にのみ使用してください。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5259,19 +5314,15 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I96" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I96" s="15" t="n"/>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5287,18 +5338,18 @@
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Azure AD アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5309,19 +5360,15 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="n"/>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5337,12 +5384,12 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開いているファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5359,19 +5406,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5387,18 +5434,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>フロント ドアの WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5409,15 +5456,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5433,18 +5484,18 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
+          <t>短い待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5455,15 +5506,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5479,18 +5534,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5501,15 +5556,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5525,18 +5584,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線を使用することを検討してください</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5547,15 +5606,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5571,12 +5634,12 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアの正常な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多いネイバーのリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5593,15 +5656,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5617,18 +5684,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを削減します。</t>
+          <t>組み込みのエクスプレス ルート分析情報を使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5639,15 +5706,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5663,18 +5734,18 @@
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>SNAT のスケーラビリティを向上させるために、ロード バランサーのアウトバウンド規則の代わりに Azure NAT ゲートウェイを使用する</t>
+          <t>接続モニターは、環境全体の接続を監視するために使用します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5685,15 +5756,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5709,18 +5784,18 @@
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>マネージド TLS 証明書を Azure Front Door で使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>冗長性のために、異なるピアリング場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5731,15 +5806,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
-        </is>
-      </c>
-      <c r="I106" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I106" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5755,18 +5834,18 @@
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいバージョンのルールセットをより簡単に採用し、保護を強化できます。</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5777,7 +5856,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5785,7 +5864,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5801,18 +5880,18 @@
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ダイレクトを使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するように MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5823,15 +5902,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5847,12 +5930,12 @@
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しない場合) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5869,19 +5952,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5897,18 +5980,18 @@
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -5919,7 +6002,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
@@ -5931,7 +6014,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5947,12 +6030,12 @@
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA を確認します。必要に応じて、アクティブ ディレクトリ ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないようにします。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5969,14 +6052,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5992,12 +6080,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ("azure.contoso.com" など) による解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6014,15 +6102,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6038,18 +6130,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポークのシナリオで ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6060,15 +6152,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6084,12 +6180,12 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>ルートサーバーを使用している場合は、ルートサーバーサブネットに /27 プレフィックスを使用します。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要とし、デプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6106,7 +6202,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6114,7 +6210,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6130,18 +6226,18 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンにまたがる複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合は、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6152,19 +6248,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6180,12 +6276,12 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure モニター (ネットワーク用) を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>Azure 要塞を使用して、ネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6202,19 +6298,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6230,12 +6321,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限 (500)、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数 (1000) を考慮してください</t>
+          <t>Azure 要塞はサブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6252,14 +6343,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6275,18 +6366,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>ルート テーブルあたりのルートの制限 (400) について考えてみます。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、非 HTTP/S 受信接続、および東部/西部トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6297,15 +6388,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6321,18 +6416,18 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときは、"リモート仮想ネットワークへのトラフィックを許可する" 設定を使用します</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure ファイアウォール ポリシーを作成し、すべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすためのきめ細かなポリシーを可能にします。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6343,14 +6438,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6366,18 +6466,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6388,19 +6488,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6416,19 +6516,15 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="D121" s="21" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの BGP 属性の全範囲を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -6442,19 +6538,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6470,18 +6566,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのトラフィックのみを受信するように Azure Application Gateway をロックダウンします。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6492,19 +6588,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6520,12 +6616,12 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線は、コストを正当化する帯域幅に達した場合にのみ使用してください。</t>
+          <t>WAF やその他のリバース プロキシをデプロイするには、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6542,15 +6638,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6566,12 +6666,12 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6588,15 +6688,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6612,18 +6716,18 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6634,19 +6738,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6662,18 +6762,18 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6684,19 +6784,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6712,18 +6807,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>短い待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6734,19 +6829,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6762,18 +6852,18 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
+          <t>保護を強化するために、Azure ファイアウォールの IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6784,19 +6874,14 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6812,12 +6897,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線を使用することを検討してください</t>
+          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6834,19 +6919,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6862,18 +6942,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多いネイバーのリスクを軽減するのに役立ちます。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信 (0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールなど) が切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6884,19 +6964,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6912,12 +6992,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>組み込みのエクスプレス ルート分析情報を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>プライベート リンク (使用可能な場合) は、共有 Azure PaaS サービスに使用します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -6934,19 +7014,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -6962,12 +7042,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>接続モニターは、環境全体の接続を監視するために使用します。</t>
+          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -6984,7 +7064,7 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6996,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7012,12 +7092,12 @@
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリング場所からの ExpressRoute 回線を使用します。</t>
+          <t>仮想ネットワーク サービス エンドポイントは、既定ですべてのサブネットで有効にしないでください。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7034,19 +7114,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7062,18 +7142,18 @@
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>Azure ファイアウォールまたは NVA で IP アドレスではなく FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データの流出を防ぎます。プライベート リンクを使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7084,14 +7164,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7107,12 +7192,12 @@
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7129,19 +7214,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7157,18 +7237,18 @@
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>ゲートウェイサブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7179,19 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7207,18 +7282,18 @@
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします。</t>
+          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7229,19 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7257,18 +7327,18 @@
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないようにします。</t>
+          <t>サブネットの作成をランディング ゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7279,19 +7349,19 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7307,12 +7377,12 @@
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ("azure.contoso.com" など) による解決に Azure プライベート DNS を使用します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7329,19 +7399,19 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7357,12 +7427,12 @@
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7377,21 +7447,17 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
+      <c r="H140" s="15" t="n"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7407,18 +7473,18 @@
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要とし、デプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7429,14 +7495,19 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7452,18 +7523,18 @@
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7474,19 +7545,19 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7502,12 +7573,12 @@
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure 要塞を使用して、ネットワークに安全に接続することを検討してください。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、仮想 WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7524,14 +7595,19 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7547,12 +7623,12 @@
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Azure 要塞はサブネット /26 以上で使用します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7569,14 +7645,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7592,18 +7668,18 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、非 HTTP/S 受信接続、および東部/西部トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>"Azure 内のトラフィックは Azure にとどまる" という原則に従って、Azure 内のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7614,19 +7690,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7642,12 +7713,12 @@
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure ファイアウォール ポリシーを作成し、すべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすためのきめ細かなポリシーを可能にします。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7664,7 +7735,7 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7676,7 +7747,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7692,18 +7763,18 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7714,19 +7785,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7742,12 +7808,12 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7764,19 +7830,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7792,18 +7853,18 @@
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのトラフィックのみを受信するように Azure Application Gateway をロックダウンします。</t>
+          <t>これらのフローを明示的にブロックする必要がない限り、IaC デプロイで Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7814,19 +7875,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7842,18 +7898,18 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>WAF やその他のリバース プロキシをデプロイするには、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>ハブ ルーティングの優先順位として AS パスを使用すると、ExpressRoute や VPN よりも柔軟性が高いためです。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
       <c r="E150" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -7864,19 +7920,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7892,18 +7943,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していることを確認してください。そうしないと、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7914,19 +7965,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7942,12 +7988,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7964,14 +8010,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7987,12 +8033,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には、TLS を使用します。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8009,14 +8055,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8032,18 +8078,18 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
+          <t>HTTP から HTTPS へのリダイレクトを Azure Front Door と共に使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることでサポートします。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8054,14 +8100,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8077,12 +8123,12 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure ファイアウォールの IDPS モードを [拒否] に構成します。</t>
+          <t>Azure フロント ドアの WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8099,14 +8145,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8122,12 +8168,12 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8144,14 +8190,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8167,12 +8213,12 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信 (0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールなど) が切断されていないことを確認します。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8189,19 +8235,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8217,18 +8258,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>プライベート リンク (使用可能な場合) は、共有 Azure PaaS サービスに使用します。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8239,19 +8280,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8267,18 +8303,18 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8289,19 +8325,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8348,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク サービス エンドポイントは、既定ですべてのサブネットで有効にしないでください。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8370,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8393,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールまたは NVA で IP アドレスではなく FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データの流出を防ぎます。プライベート リンクを使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短時間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,19 +8415,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8417,18 +8438,18 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
+          <t>Azure Front Door の WAF レート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くの要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
       <c r="E162" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8439,14 +8460,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8462,18 +8483,18 @@
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>ゲートウェイサブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8484,14 +8505,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8507,12 +8528,12 @@
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的にフィルター処理するときに、不明 (ZZ) の場所を指定します。IP アドレスを geo 一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8529,14 +8550,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8547,23 +8568,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディング ゾーンの所有者に委任します。</t>
+          <t>Azure Policy を戦略的に活用し、ポリシー イニシアチブを使用して関連するポリシーをグループ化することで、環境のコントロールを定義します。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8574,19 +8595,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8597,17 +8613,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を適用します。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8624,19 +8640,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8647,17 +8658,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8672,17 +8683,16 @@
         </is>
       </c>
       <c r="G167" s="21" t="n"/>
-      <c r="H167" s="15" t="n"/>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H167" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8693,17 +8703,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てることができるようにします</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8720,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8743,17 +8748,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>必要に応じて、ポリシー割り当てを最上位の適切なレベルで管理し、除外を下位レベルで管理します。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8770,19 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8793,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、仮想 WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,19 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8843,17 +8838,17 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8888,23 +8883,27 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>"Azure 内のトラフィックは Azure にとどまる" という原則に従って、Azure 内のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者の役割を特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
+        </is>
+      </c>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8915,14 +8914,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8933,17 +8932,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,19 +8959,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,17 +8977,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9004,19 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,23 +9027,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>クラウドへの投資を最適化する</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9055,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,17 +9072,17 @@
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>これらのフローを明示的にブロックする必要がない限り、IaC デプロイで Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>Azure 仮想マシン スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,17 +9117,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>クラウドへの投資を最適化する</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>ハブ ルーティングの優先順位として AS パスを使用すると、ExpressRoute や VPN よりも柔軟性が高いためです。</t>
+          <t>「実績」および「予測」予算アラートを設定します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9163,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していることを確認してください。そうしないと、仮想ハブ間の接続が損なわれます。</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9190,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9208,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>Azure Front Door ログを Microsoft Sentinel に送信します。攻撃を検出し、Front Door テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9235,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には、TLS を使用します。</t>
+          <t>ペアのリージョンを使用した BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9280,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9298,17 +9297,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>HTTP から HTTPS へのリダイレクトを Azure Front Door と共に使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることでサポートします。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9343,23 +9342,23 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアの WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -9370,14 +9369,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9388,23 +9392,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9413,16 +9417,11 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
-        </is>
-      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9433,23 +9432,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Monitor ログは、ログの保有期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態で最大 7 年間保持できます。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9460,14 +9459,19 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9478,23 +9482,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9505,14 +9509,19 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9523,23 +9532,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9550,14 +9559,19 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9568,17 +9582,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Automation での更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9595,14 +9609,19 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,17 +9632,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短時間に送信するのをブロックします。</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9640,14 +9659,19 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9658,17 +9682,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door の WAF レート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くの要求に対する保護が提供されます。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9685,14 +9709,19 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9703,17 +9732,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが配置されます。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9730,14 +9759,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9748,17 +9777,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的にフィルター処理するときに、不明 (ZZ) の場所を指定します。IP アドレスを geo 一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9775,14 +9804,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9793,23 +9822,23 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>DevOps チームのトポロジ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するためのクロスファンクショナルな DevOps プラットフォーム チームがあることを確認します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートや問題に対処できるようにします</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
       <c r="E192" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9820,14 +9849,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9838,23 +9867,23 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>DevOps チームのトポロジ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9865,14 +9894,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9883,23 +9912,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>DevOps チームのトポロジ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ワークロード チームが自給自足し、DevOps プラットフォーム チームのサポートを必要としない機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9910,14 +9939,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9928,23 +9957,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>DevOps チームのトポロジ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>CI/CD パイプラインを使用して IaC アーティファクトをデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+          <t>分析情報とレポートには、Azure モニター ログを使用します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9955,14 +9984,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9973,17 +10002,17 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>DevOps チームのトポロジ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>ビルド プロセスの一部として IaC とアプリケーション コードの単体テストを含めます。</t>
+          <t>必要に応じて、Azure 診断拡張機能のログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10000,14 +10029,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10018,23 +10047,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>DevOps チームのトポロジ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシンのユーザー パスワード)、証明書、キーなどの機密情報がハードコーディングされないようにします。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10045,14 +10074,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10063,23 +10092,23 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>DevOps チームのトポロジ</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションとワークロードのファイル&gt;新しい&gt;ランディング ゾーンの自動化を実装します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10090,14 +10119,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10108,23 +10137,23 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションと開発された IaC のソース コードにバージョン管理システムが使用されていることを確認します。マイクロソフトは Git を推奨しています。</t>
+          <t>リンクされた Log Analytics ワークスペースとオートメーション アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10135,14 +10164,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10153,23 +10182,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>分岐戦略に従って、チームがより適切にコラボレーションし、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠しているベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10180,14 +10209,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,20 +10227,24 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更の制御を維持します。</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="n"/>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシン設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に整合していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
+        </is>
+      </c>
       <c r="E201" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -10225,14 +10258,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10243,23 +10276,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>開発戦略</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャをコードとして活用して、Azure ランディング ゾーン アーキテクチャを構築および保守します。プラットフォームとアプリケーションの両方のワークロードの観点から。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure サイト回復を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10270,14 +10303,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10288,23 +10321,23 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>DevOps の開発と運用のすでに組み合わされたプロセスにセキュリティを統合して、イノベーション プロセスのリスクを軽減します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10315,14 +10348,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10333,23 +10366,23 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>名前付けとタグ付け</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け基準に従うことをお勧めします</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure と互換性のあるサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10360,14 +10393,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/resource-naming</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>cacf55bc-e4e4-46be-96bc-57a5f23a269a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10378,23 +10411,23 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
+          <t>可用性ゾーンは、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10405,19 +10438,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
-        </is>
-      </c>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,23 +10456,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用してリソース タグを適用または追加する</t>
+          <t>単一の VM で運用ワークロードを実行することは避けてください。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10455,19 +10483,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10478,17 +10501,17 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにします</t>
+          <t>Azure ロード バランサーとアプリケーション ゲートウェイは、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10505,19 +10528,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10528,17 +10546,17 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10555,19 +10573,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10578,17 +10591,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10605,19 +10618,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
-        </is>
-      </c>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10628,23 +10636,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>[サブスクリプションがルート管理グループに配置されないように強制する]</t>
+          <t>Azure キー コンテナーを使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10655,14 +10663,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10673,17 +10681,17 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるようにする</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10700,14 +10708,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10718,17 +10726,17 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10745,14 +10753,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10763,23 +10771,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、アクセス レビュー、予算レビュー、ポリシー コンプライアンス、必要に応じて修復するプロセスを適用します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、および証明書を完全に削除する承認を、特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10790,14 +10798,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10808,17 +10816,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
+          <t>パブリック認証局による証明書の管理と更新プロセスを自動化して、管理を容易にします。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10835,14 +10843,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10853,23 +10861,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
+          <t>キーと証明書のローテーションの自動化プロセスを確立します。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10880,19 +10888,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10903,23 +10906,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10930,19 +10933,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
-        </is>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10953,17 +10951,17 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認する</t>
+          <t>プラットフォーム中央の Azure Monitor ログ分析ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10980,19 +10978,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
-        </is>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -11003,23 +10996,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを適用する</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -11030,19 +11023,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
-        </is>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11053,17 +11041,17 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Windows Server 上の AD の場合は、プラットフォーム管理グループで専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
@@ -11080,19 +11068,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11103,17 +11086,17 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>アプリケーションごとに、環境ごとに、リージョンごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11130,19 +11113,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
-        </is>
-      </c>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11158,12 +11136,12 @@
       </c>
       <c r="B221" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11180,14 +11158,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11203,12 +11181,12 @@
       </c>
       <c r="B222" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>アクセス制御監査レポートを生成するには、Microsoft Entra ID レポート機能を使用しています。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
@@ -11225,14 +11203,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11248,18 +11226,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Azure キー コンテナーを使用してシークレットと資格情報を格納する</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、2 年を超える長期ストレージのために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11270,14 +11248,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11293,18 +11271,18 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>すべてのサブスクリプションに対して Defender クラウド セキュリティ体制管理を有効にします。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11315,14 +11293,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11338,18 +11316,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>すべてのサブスクリプションでサーバーの Defender クラウド ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11360,14 +11338,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11383,18 +11361,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を、特殊なカスタム Azure Active Directory (Azure AD) ロールに制限します。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender クラウド ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11405,14 +11383,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11428,18 +11406,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局による証明書の管理と更新プロセスを自動化して、管理を容易にします。</t>
+          <t>IaaS サーバーでエンドポイント保護を有効にします。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11450,14 +11428,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11473,12 +11451,12 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化プロセスを確立します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -11495,14 +11473,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11518,12 +11496,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11540,14 +11518,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11563,18 +11541,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor ログ分析ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11585,14 +11563,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11608,18 +11586,18 @@
       </c>
       <c r="B231" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C231" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
       <c r="E231" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -11630,14 +11608,14 @@
       <c r="G231" s="21" t="n"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
       <c r="L231" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M231" s="25" t="n"/>
@@ -11653,18 +11631,18 @@
       </c>
       <c r="B232" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>安全な特権アクセス</t>
         </is>
       </c>
       <c r="C232" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Azure 管理タスク用に個別の特権管理者アカウント。</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
       <c r="E232" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -11675,14 +11653,14 @@
       <c r="G232" s="21" t="n"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
       <c r="L232" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M232" s="25" t="n"/>
@@ -11698,12 +11676,12 @@
       </c>
       <c r="B233" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>サービスイネーブルメントフレームワーク</t>
         </is>
       </c>
       <c r="C233" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションごとに、環境ごとに、リージョンごとに Azure Key Vault を使用します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D233" s="21" t="n"/>
@@ -11720,14 +11698,14 @@
       <c r="G233" s="21" t="n"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
       <c r="L233" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M233" s="25" t="n"/>
@@ -11743,12 +11721,12 @@
       </c>
       <c r="B234" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>サービスイネーブルメントフレームワーク</t>
         </is>
       </c>
       <c r="C234" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
@@ -11765,14 +11743,14 @@
       <c r="G234" s="21" t="n"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
       <c r="L234" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M234" s="25" t="n"/>
@@ -11783,23 +11761,23 @@
     <row r="235">
       <c r="A235" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B235" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>DevOps チームのトポロジ</t>
         </is>
       </c>
       <c r="C235" s="21" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するためのクロスファンクショナルな DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D235" s="21" t="n"/>
       <c r="E235" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -11810,14 +11788,14 @@
       <c r="G235" s="21" t="n"/>
       <c r="H235" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
       <c r="L235" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M235" s="25" t="n"/>
@@ -11828,23 +11806,23 @@
     <row r="236">
       <c r="A236" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B236" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>DevOps チームのトポロジ</t>
         </is>
       </c>
       <c r="C236" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、2 年を超える長期ストレージのために Azure Storage にエクスポートします。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
       <c r="E236" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -11855,14 +11833,14 @@
       <c r="G236" s="21" t="n"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
       <c r="L236" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M236" s="25" t="n"/>
@@ -11873,23 +11851,23 @@
     <row r="237">
       <c r="A237" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B237" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>DevOps チームのトポロジ</t>
         </is>
       </c>
       <c r="C237" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender クラウド セキュリティ体制管理を有効にします。</t>
+          <t>アプリケーション ワークロード チームが自給自足し、DevOps プラットフォーム チームのサポートを必要としない機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -11900,14 +11878,14 @@
       <c r="G237" s="21" t="n"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
       <c r="L237" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M237" s="25" t="n"/>
@@ -11918,17 +11896,17 @@
     <row r="238">
       <c r="A238" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B238" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>DevOps チームのトポロジ</t>
         </is>
       </c>
       <c r="C238" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーの Defender クラウド ワークロード保護プランを有効にします。</t>
+          <t>CI/CD パイプラインを使用して IaC アーティファクトをデプロイし、デプロイと Azure 環境の品質を確保します。</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -11945,14 +11923,14 @@
       <c r="G238" s="21" t="n"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
       <c r="L238" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M238" s="25" t="n"/>
@@ -11963,23 +11941,23 @@
     <row r="239">
       <c r="A239" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B239" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>DevOps チームのトポロジ</t>
         </is>
       </c>
       <c r="C239" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender クラウド ワークロード保護プランを有効にします。</t>
+          <t>ビルド プロセスの一部として IaC とアプリケーション コードの単体テストを含めます。</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
       <c r="E239" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -11990,14 +11968,14 @@
       <c r="G239" s="21" t="n"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
       <c r="L239" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M239" s="25" t="n"/>
@@ -12008,17 +11986,17 @@
     <row r="240">
       <c r="A240" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B240" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>DevOps チームのトポロジ</t>
         </is>
       </c>
       <c r="C240" s="21" t="inlineStr">
         <is>
-          <t>IaaS サーバーでエンドポイント保護を有効にします。</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシンのユーザー パスワード)、証明書、キーなどの機密情報がハードコーディングされないようにします。</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -12035,14 +12013,14 @@
       <c r="G240" s="21" t="n"/>
       <c r="H240" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
       <c r="L240" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M240" s="25" t="n"/>
@@ -12053,23 +12031,23 @@
     <row r="241">
       <c r="A241" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B241" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>DevOps チームのトポロジ</t>
         </is>
       </c>
       <c r="C241" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用ドリフトを監視します。</t>
+          <t>アプリケーションとワークロードのファイル&gt;新しい&gt;ランディング ゾーンの自動化を実装します。</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
       <c r="E241" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -12080,14 +12058,14 @@
       <c r="G241" s="21" t="n"/>
       <c r="H241" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
       <c r="L241" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M241" s="25" t="n"/>
@@ -12098,23 +12076,23 @@
     <row r="242">
       <c r="A242" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B242" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C242" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>アプリケーションと開発された IaC のソース コードにバージョン管理システムが使用されていることを確認します。マイクロソフトは Git を推奨しています。</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
       <c r="E242" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -12125,14 +12103,14 @@
       <c r="G242" s="21" t="n"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
       <c r="L242" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M242" s="25" t="n"/>
@@ -12143,23 +12121,23 @@
     <row r="243">
       <c r="A243" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B243" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C243" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>分岐戦略に従って、チームがより適切にコラボレーションし、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
       <c r="E243" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -12170,14 +12148,14 @@
       <c r="G243" s="21" t="n"/>
       <c r="H243" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
       <c r="L243" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M243" s="25" t="n"/>
@@ -12188,23 +12166,23 @@
     <row r="244">
       <c r="A244" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B244" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C244" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更の制御を維持します。</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
       <c r="E244" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -12215,14 +12193,14 @@
       <c r="G244" s="21" t="n"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
       <c r="L244" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M244" s="25" t="n"/>
@@ -12233,17 +12211,17 @@
     <row r="245">
       <c r="A245" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化と DevOps</t>
         </is>
       </c>
       <c r="B245" s="21" t="inlineStr">
         <is>
-          <t>安全な特権アクセス</t>
+          <t>開発戦略</t>
         </is>
       </c>
       <c r="C245" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権を持つ管理者アカウントを分離します。</t>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャをコードとして活用して、Azure ランディング ゾーン アーキテクチャを構築および保守します。プラットフォームとアプリケーションの両方のワークロードの観点から。</t>
         </is>
       </c>
       <c r="D245" s="21" t="n"/>
@@ -12260,14 +12238,14 @@
       <c r="G245" s="21" t="n"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
       <c r="L245" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M245" s="25" t="n"/>
@@ -12278,23 +12256,23 @@
     <row r="246">
       <c r="A246" s="21" t="inlineStr">
         <is>
+          <t>プラットフォームの自動化と DevOps</t>
+        </is>
+      </c>
+      <c r="B246" s="21" t="inlineStr">
+        <is>
           <t>安全</t>
         </is>
       </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>サービスイネーブルメントフレームワーク</t>
-        </is>
-      </c>
       <c r="C246" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>DevOps の開発と運用のすでに組み合わされたプロセスにセキュリティを統合して、イノベーション プロセスのリスクを軽減します。</t>
         </is>
       </c>
       <c r="D246" s="21" t="n"/>
       <c r="E246" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -12305,14 +12283,14 @@
       <c r="G246" s="21" t="n"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
       <c r="L246" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M246" s="25" t="n"/>
@@ -12321,45 +12299,15 @@
       <c r="P246" s="25" t="n"/>
     </row>
     <row r="247">
-      <c r="A247" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B247" s="21" t="inlineStr">
-        <is>
-          <t>サービスイネーブルメントフレームワーク</t>
-        </is>
-      </c>
-      <c r="C247" s="21" t="inlineStr">
-        <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
-        </is>
-      </c>
+      <c r="A247" s="21" t="n"/>
+      <c r="B247" s="21" t="n"/>
+      <c r="C247" s="21" t="n"/>
       <c r="D247" s="21" t="n"/>
-      <c r="E247" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E247" s="21" t="n"/>
       <c r="G247" s="21" t="n"/>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J247" s="22" t="n"/>
       <c r="K247" s="22" t="n"/>
-      <c r="L247" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L247" s="25" t="n"/>
       <c r="M247" s="25" t="n"/>
       <c r="N247" s="25" t="n"/>
       <c r="O247" s="25" t="n"/>
@@ -13261,7 +13209,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F248" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13352,7 +13300,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Azure Billing and Active Directory テナント</t>
+          <t>Azure Billing and Microsoft Entra ID Tenants</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -1059,17 +1059,17 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID Tenants</t>
+          <t>Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>マルチテナントの明確な規制要件またはビジネス要件がない限り、Azure リソースの管理には 1 つの Entra テナントを使用します。</t>
+          <t>マルチテナントに関する明確な規制要件またはビジネス要件がない限り、Azure リソースの管理には 1 つの Entra テナントを使用します。</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1105,12 +1105,12 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID Tenants</t>
+          <t>Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
@@ -1151,17 +1151,17 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID Tenants</t>
+          <t>Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>マルチテナント管理のための Azure Lighthouse の活用</t>
+          <t>マルチテナント管理に Azure Lighthouse を活用する</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1197,7 +1197,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>パートナーによるテナントの管理に Azure Lighthouse が使用されていることを確認します</t>
+          <t>パートナーによるテナントの管理に Azure Lighthouse が使用されていることを確認する</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1243,7 +1243,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>CSP パートナーとサポート要求とエスカレーション プロセスについて話し合う</t>
+          <t>サポート要求とエスカレーション プロセスについてCSP パートナーと話し合う</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1289,7 +1289,7 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Azure コスト管理を使用したコスト レポートとビューのセットアップ</t>
+          <t>Azure Cost Management を使用したコスト レポートとビューの設定Setup Cost Reporting and Views with Azure Cost Management</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1335,7 +1335,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>通知用連絡先をグループ メールボックスに構成する</t>
+          <t>グループ メールボックスへの通知連絡先の構成</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1381,7 +1381,7 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>部門とアカウントを使用して、組織の構造を登録階層にマップし、課金の分離に役立ちます。</t>
+          <t>部門とアカウントを使用して、組織の構造を登録階層にマップし、課金の分離に役立てることができます。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1427,7 +1427,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>アカウントの種類が '職場または学校アカウント" に構成されていることを確認します</t>
+          <t>アカウントの種類が "職場または学校アカウント" に構成されていることを確認します</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1473,7 +1473,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>EA 登録で DA ビュー料金と AO ビュー料金の両方を有効にして、正しい権限を持つユーザーがコストと請求データを確認できるようにします。</t>
+          <t>EA 加入契約で DA View Charges と AO View Charges の両方を有効にして、正しい権限を持つユーザーがコストと課金データを確認できるようにします。</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1519,7 +1519,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>エンタープライズ開発/テスト サブスクリプションを利用して、非運用ワークロードのコストを削減する</t>
+          <t>Enterprise Dev/Test サブスクリプションを利用して、非運用ワークロードのコストを削減する</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1565,7 +1565,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>ロールの割り当てを定期的に監査して、マイクロソフト エンタープライズ契約の登録にアクセスできるユーザーを確認する</t>
+          <t>ロールの割り当てを定期的に監査して、Enterprise Agreement 加入契約にアクセスできるユーザーを確認します</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1611,17 +1611,17 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト顧客契約</t>
+          <t>Microsoft 顧客契約</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>契約の課金アカウント通知の連絡先メールを構成する</t>
+          <t>契約の請求先アカウント通知の連絡先メールを構成する</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1657,17 +1657,17 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト顧客契約</t>
+          <t>Microsoft 顧客契約</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>[課金プロファイル] セクションと [請求書] セクションを使用して、効果的なコスト管理のための契約請求を構成します</t>
+          <t>[課金プロファイル] セクションと [請求書] セクションを使用して、効果的なコスト管理のための契約の請求を構造化します</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1703,12 +1703,12 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト顧客契約</t>
+          <t>Microsoft 顧客契約</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
@@ -1749,17 +1749,17 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフト顧客契約</t>
+          <t>Microsoft 顧客契約</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>契約請求 RBAC ロールの割り当てを定期的に監査して、MCA 請求アカウントにアクセスできるユーザーを確認する</t>
+          <t>契約課金 RBAC ロールの割り当てを定期的に監査して、MCA 課金アカウントにアクセスできるユーザーを確認します</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1795,7 +1795,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスに対する認証にサービス プリンシパルの代わりにマネージド ID を使用する</t>
+          <t>Azure サービスに対する認証にサービス プリンシパルの代わりにマネージド ID を使用するUse managed identity instead of service principals for authentication to Azure services</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1845,12 +1845,12 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトエントラID</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
@@ -1891,7 +1891,7 @@
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B26" s="21" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>緊急アクセスまたは非常用アカウントを実装して、テナント全体のアカウントのロックアウトを防止します</t>
+          <t>テナント全体のアカウント ロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1941,7 +1941,7 @@
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B27" s="21" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源を使用できるため、ログの収集と保持に関する要件を満たすためのクラウド ネイティブ オプションを組織に提供します。</t>
+          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が提供され、組織はログの収集と保持に関する要件を満たすためのクラウド ネイティブ オプションを利用できます。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1986,7 +1986,7 @@
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B28" s="21" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープを設定し、割り当てます。</t>
+          <t>クラウド運用モデルに合わせた RBAC モデルを適用します。管理グループとサブスクリプション全体のスコープと割り当てを行います。</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2036,7 +2036,7 @@
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B29" s="21" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Microsoft Entra ID の条件付きアクセス ポリシーを適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Microsoft Entra ID 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2086,7 +2086,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
@@ -2136,7 +2136,7 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B31" s="21" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用します</t>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するために、一元化された委任された責任を適用します</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2186,7 +2186,7 @@
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B32" s="21" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID 特権 ID 管理 (PIM) を適用して、ゼロ スタンディング アクセスと最小特権を確立する</t>
+          <t>Microsoft Entra ID Privileged Identity Management (PIM) を適用して、ゼロの永続的なアクセスと最小限の特権を確立します</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2236,7 +2236,7 @@
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B33" s="21" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類に対して、認証の種類である職場または学校アカウントのみを使用します。マイクロソフト アカウントの使用を避ける</t>
+          <t>すべてのアカウントの種類には、認証の種類である [職場または学校アカウント] のみを使用します。Microsoft アカウントの使用は避けてください</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2286,7 +2286,7 @@
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B34" s="21" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>グループのみを使用してアクセス許可を割り当てます。グループ管理システムが既に配置されている場合は、オンプレミスのグループを Azure AD 専用グループに追加します。</t>
+          <t>アクセス許可の割り当てには、グループのみを使用します。グループ管理システムが既に導入されている場合は、オンプレミス グループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2336,7 +2336,7 @@
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B35" s="21" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールには、Azure カスタム ロールの使用を検討してください</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2386,7 +2386,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADDS をデプロイします</t>
+          <t>Azure Active Directory Domains Services (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADDS をデプロイします</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2436,7 +2436,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2486,7 +2486,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用中の場合、Azure のリソースは正しいドメイン コントローラーを使用していますか?</t>
+          <t>Windows サーバー上の AD が使用されている場合、Azure のリソースは正しいドメイン コントローラーを使用していますか?</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2536,7 +2536,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID アプリケーション プロキシを VPN またはリバース プロキシの代わりに使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>Microsoft Entra ID アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2586,7 +2586,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスの同期されたアカウントを Microsoft Entra ID ロールの割り当てに使用しないでください。</t>
+          <t>Microsoft Entra ID ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2636,7 +2636,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークを使用して ID (ADDS) ネットワーク セグメント化を構成し、ハブにピアバックします。アプリケーション ランディング ゾーン (レガシ) 内で認証を提供する。</t>
+          <t>仮想ネットワークを使用して ID (ADDS) ネットワーク セグメント化を構成し、ハブにピア バックします。アプリケーション ランディング ゾーン (レガシ) 内での認証の提供。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2686,7 +2686,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>可能であれば、Azure RBAC を使用して、リソースへのデータ プレーン アクセスを管理します。たとえば、Key Vault、ストレージ アカウント、データベース サービス全体のデータ操作。</t>
+          <t>可能であれば、Azure RBAC を使用して、リソースへのデータ プレーン アクセスを管理します。例: Key Vault、ストレージ アカウント、データベース サービス全体のデータ操作。</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2736,7 +2736,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2782,7 +2782,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>マイクロソフトのベスト プラクティスの名前付け基準に従うことをお勧めします</t>
+          <t>Microsoft のベスト プラクティスの名前付け標準に従うことをお勧めします</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2828,7 +2828,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
+          <t>4 レベル以下の合理的にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2878,7 +2878,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにします</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2928,7 +2928,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2978,7 +2978,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>接続管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>接続管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、その他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -3028,7 +3028,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>[サブスクリプションがルート管理グループに配置されないように強制する]</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3073,7 +3073,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるようにする</t>
+          <t>管理グループ階層の設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるようにします</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3119,7 +3119,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>ルートレベルの管理グループの下に管理グループを適用し、セキュリティ、コンプライアンス、接続性、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3165,7 +3165,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、アクセス レビュー、予算レビュー、ポリシー コンプライアンス、必要に応じて修復するプロセスを適用します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを実施します。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3211,7 +3211,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、サブスクリプション クォータと、特定のサブスクリプションのプロビジョニング リソースに与える影響を認識していることを確認します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、サブスクリプションのクォータと、それらが特定のサブスクリプションのプロビジョニング リソースに与える影響を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3256,7 +3256,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
+          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。購入した予約インスタンス VM SKU の使用を Azure Policy で強制します。</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3306,7 +3306,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>ダッシュボード、ブック、または手動プロセスを適用して、使用済み容量レベルを監視します</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3356,7 +3356,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開リージョン内で利用可能であることを確認する</t>
+          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用可能であることを確認する</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3406,7 +3406,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Windows Server 上の AD の場合は、Indentity 管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします</t>
+          <t>Windows Server 上の AD の場合は、Windows Server Active Directory ドメイン コントローラーをホストするために、Indentity 管理グループに専用の ID サブスクリプションを確立します</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3506,7 +3506,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>タグが課金とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3556,7 +3556,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>Application Gateway と Azure Front door を使用して、ワークロードのスポークから配信アプリケーション コンテンツをセキュリティで保護するための計画を作成します。 アプリケーション配信チェックリストを使用して、推奨事項を確認できます。</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3601,7 +3601,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>内部向けアプリ (corp) と外部向けアプリ (online) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3651,7 +3651,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3701,17 +3701,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーに標準 SKU を使用していることを確認する</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,7 +3728,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3736,7 +3736,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4e35fbf5-0ae2-48b2-97ce-753353edbd1a</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3747,23 +3747,23 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ゲートウェイは、IP プレフィックスが /26 以上のサブネットにデプロイする必要があります</t>
+          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/application-gateway/configuration-infrastructure#size-of-the-subnet</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>dfc50f87-3800-424c-937b-ed5f186e7c15</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3797,24 +3797,20 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内およびセキュリティ保護されているアプリを使用して、受信 HTTP(S) 接続をプロキシするために使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
-        </is>
-      </c>
-      <c r="D65" s="21" t="inlineStr">
-        <is>
-          <t>リバースプロキシ全般、特にWAFの管理は、ネットワークよりもアプリケーションに近いため、アプリと同じサブスクリプションに属します。アプリケーション ゲートウェイと WAF を接続サブスクリプションに一元化しても、1 つのチームで管理されている場合は問題ない可能性があります。</t>
-        </is>
-      </c>
+          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+        </is>
+      </c>
+      <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -3828,19 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3851,23 +3847,23 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3878,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3901,17 +3892,17 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、複数の Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3928,19 +3919,15 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="n"/>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3951,23 +3938,23 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3978,19 +3965,15 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="n"/>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4001,23 +3984,23 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4028,19 +4011,15 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I69" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I69" s="15" t="n"/>
       <c r="J69" s="22" t="n"/>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4051,23 +4030,23 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションへのアクセスのみを必要とする場合、Microsoft Entra ID アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として検討されていますか?</t>
+          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4078,19 +4057,19 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4101,17 +4080,17 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開いているファイアウォール ポートの数を減らすには、Microsoft Entra ID アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4128,19 +4107,19 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4151,23 +4130,23 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>フロント ドアの WAF プロファイルを "防止" モードでデプロイします。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4178,7 +4157,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-policy-settings</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4186,7 +4165,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>ae248989-b306-4591-9186-de482e3f0f0e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4197,23 +4176,23 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door を組み合わせることは避けてください。</t>
+          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4224,7 +4203,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4232,7 +4211,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4243,17 +4222,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4270,7 +4249,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4278,7 +4257,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4289,23 +4268,23 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4316,15 +4295,19 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4335,20 +4318,24 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアの正常な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4362,15 +4349,19 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4381,23 +4372,23 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用して、Front Door がアプリケーションに送信するトラフィックを削減します。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4408,15 +4399,19 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4427,17 +4422,17 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>SNAT のスケーラビリティを向上させるために、ロード バランサーのアウトバウンド規則の代わりに Azure NAT ゲートウェイを使用する</t>
+          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4454,7 +4449,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/nat-gateway/nat-overview#outbound-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4462,7 +4457,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>97a2fd46-64b0-1dfa-b72d-9c8869496d75</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4473,17 +4468,17 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>マネージド TLS 証明書を Azure Front Door で使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4500,7 +4495,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4508,7 +4503,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4519,17 +4514,17 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいバージョンのルールセットをより簡単に採用し、保護を強化できます。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4546,15 +4541,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4565,17 +4564,17 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ダイレクトを使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するように MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4592,15 +4591,19 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4611,23 +4614,23 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しない場合) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4638,19 +4641,19 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4661,17 +4664,17 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4688,19 +4691,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4711,17 +4714,17 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナー NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4738,15 +4741,19 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I84" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I84" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J84" s="22" t="n"/>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4757,17 +4764,17 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4784,15 +4791,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I85" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+        </is>
+      </c>
+      <c r="I85" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4803,23 +4814,23 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポークのシナリオで ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4830,15 +4841,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I86" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+        </is>
+      </c>
+      <c r="I86" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4849,23 +4864,23 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ルートサーバーを使用している場合は、ルートサーバーサブネットに /27 プレフィックスを使用します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4876,15 +4891,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
-        </is>
-      </c>
-      <c r="I87" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I87" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4895,17 +4914,17 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンにまたがる複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合は、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4922,19 +4941,19 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="22" t="n"/>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4945,23 +4964,23 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Azure モニター (ネットワーク用) を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4972,19 +4991,15 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="n"/>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4995,23 +5010,23 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限 (500)、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数 (1000) を考慮してください</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5022,15 +5037,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I90" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I90" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5041,23 +5060,23 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>ルート テーブルあたりのルートの制限 (400) について考えてみます。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5068,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5087,17 +5110,17 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときは、"リモート仮想ネットワークへのトラフィックを許可する" 設定を使用します</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5114,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5133,23 +5160,23 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5160,19 +5187,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5183,24 +5210,20 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="D94" s="21" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの BGP 属性の全範囲を使用してオンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+        </is>
+      </c>
+      <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -5214,19 +5237,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5237,17 +5260,17 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5264,19 +5287,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5287,23 +5310,23 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線は、コストを正当化する帯域幅に達した場合にのみ使用してください。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5314,7 +5337,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5322,7 +5345,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5333,17 +5356,17 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を活用して回線のコストを削減します。</t>
+          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5360,15 +5383,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I97" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I97" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5379,17 +5406,17 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5406,19 +5433,15 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="n"/>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5429,17 +5452,17 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5456,19 +5479,15 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="n"/>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5479,23 +5498,23 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>短い待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5506,19 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5529,17 +5548,17 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5556,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5579,23 +5598,23 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute ローカル回線を使用することを検討してください</t>
+          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5606,19 +5625,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5629,17 +5648,17 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多いネイバーのリスクを軽減するのに役立ちます。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5656,19 +5675,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5679,23 +5698,23 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>組み込みのエクスプレス ルート分析情報を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5706,19 +5725,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5729,23 +5748,23 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>接続モニターは、環境全体の接続を監視するために使用します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5756,19 +5775,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5779,23 +5798,23 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリング場所からの ExpressRoute 回線を使用します。</t>
+          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5806,19 +5825,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5829,17 +5848,17 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5856,7 +5875,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5864,7 +5883,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5875,17 +5894,17 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5902,19 +5921,15 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="n"/>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5925,23 +5940,23 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5952,19 +5967,15 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="n"/>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5975,17 +5986,17 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします。</t>
+          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6002,19 +6013,15 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="n"/>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6025,17 +6032,17 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないようにします。</t>
+          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6052,19 +6059,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6075,23 +6077,23 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ("azure.contoso.com" など) による解決に Azure プライベート DNS を使用します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -6102,19 +6104,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6125,17 +6127,17 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS プライベート リゾルバーの使用を検討してください。</t>
+          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6152,19 +6154,19 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6175,23 +6177,23 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要とし、デプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6202,15 +6204,19 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6221,23 +6227,23 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6248,19 +6254,19 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6271,17 +6277,17 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure 要塞を使用して、ネットワークに安全に接続することを検討してください。</t>
+          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6298,14 +6304,19 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6316,23 +6327,23 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure 要塞はサブネット /26 以上で使用します。</t>
+          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6343,14 +6354,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6361,17 +6372,17 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、非 HTTP/S 受信接続、および東部/西部トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -6388,19 +6399,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6411,17 +6418,17 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure ファイアウォール ポリシーを作成し、すべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすためのきめ細かなポリシーを可能にします。</t>
+          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6438,19 +6445,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6461,23 +6463,23 @@
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6488,19 +6490,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6511,17 +6513,17 @@
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6538,19 +6540,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6561,23 +6563,23 @@
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのトラフィックのみを受信するように Azure Application Gateway をロックダウンします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,21 +6588,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="n"/>
       <c r="I122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6611,23 +6609,23 @@
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>WAF やその他のリバース プロキシをデプロイするには、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6638,19 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6661,23 +6659,23 @@
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6688,19 +6686,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,23 +6709,23 @@
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを使用した Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6738,15 +6736,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6757,23 +6759,23 @@
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール プレミアムを使用して、セキュリティと保護を強化します。</t>
+          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
       <c r="E126" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -6784,14 +6786,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6802,23 +6804,23 @@
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成して、保護を強化します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6829,14 +6831,14 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6847,23 +6849,23 @@
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure ファイアウォールの IDPS モードを [拒否] に構成します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
       <c r="E128" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -6874,14 +6876,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6892,23 +6899,23 @@
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
       <c r="E129" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -6919,14 +6926,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6937,23 +6944,23 @@
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信 (0.0.0.0/0 ルートやコントロール プレーン トラフィックをブロックする NSG ルールなど) が切断されていないことを確認します。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6964,19 +6971,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6987,17 +6989,17 @@
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>プライベート リンク (使用可能な場合) は、共有 Azure PaaS サービスに使用します。</t>
+          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7014,19 +7016,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7037,17 +7034,17 @@
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>プライベート エンドポイントと ExpressRoute プライベート ピアリングを介してオンプレミスから Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7064,19 +7061,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7087,17 +7079,17 @@
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B133" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワーク サービス エンドポイントは、既定ですべてのサブネットで有効にしないでください。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7114,19 +7106,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7137,23 +7124,23 @@
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B134" s="21" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールまたは NVA で IP アドレスではなく FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データの流出を防ぎます。プライベート リンクを使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,19 +7151,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7187,17 +7169,17 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure ファイアウォール サブネットには /26 プレフィックスを使用します。</t>
+          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7214,14 +7196,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7232,23 +7214,23 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>ゲートウェイサブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
       <c r="E136" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -7259,14 +7241,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7277,17 +7259,17 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、仮想ネットワーク サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7286,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7322,17 +7304,17 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディング ゾーンの所有者に委任します。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,19 +7331,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,17 +7349,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7399,19 +7376,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,23 +7394,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7447,17 +7419,16 @@
         </is>
       </c>
       <c r="G140" s="21" t="n"/>
-      <c r="H140" s="15" t="n"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+      <c r="H140" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7468,17 +7439,17 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7495,19 +7466,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7518,20 +7484,24 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7545,19 +7515,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7568,17 +7533,17 @@
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B143" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、仮想 WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7595,19 +7560,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7618,17 +7578,17 @@
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B144" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7645,14 +7605,19 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7663,17 +7628,17 @@
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>"Azure 内のトラフィックは Azure にとどまる" という原則に従って、Azure 内のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
+          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7690,14 +7655,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7708,17 +7673,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7735,19 +7700,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7758,17 +7718,17 @@
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>「実績」と「予測」の予算アラートを設定します。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7785,14 +7745,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7803,23 +7763,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7830,14 +7790,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7848,17 +7808,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>これらのフローを明示的にブロックする必要がない限り、IaC デプロイで Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7875,14 +7835,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7893,17 +7853,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>ハブ ルーティングの優先順位として AS パスを使用すると、ExpressRoute や VPN よりも柔軟性が高いためです。</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7920,14 +7880,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7938,17 +7898,17 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達を構成していることを確認してください。そうしないと、仮想ハブ間の接続が損なわれます。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7965,14 +7925,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7983,23 +7943,23 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
       <c r="E152" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8010,14 +7970,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8028,23 +7993,23 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には、TLS を使用します。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8053,16 +8018,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8073,17 +8034,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>HTTP から HTTPS へのリダイレクトを Azure Front Door と共に使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることでサポートします。</t>
+          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8100,14 +8061,19 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8118,23 +8084,23 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドアの WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8145,14 +8111,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8163,23 +8134,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8190,14 +8161,19 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8208,23 +8184,23 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8235,14 +8211,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8253,23 +8234,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8280,14 +8261,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8298,23 +8284,23 @@
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8325,14 +8311,19 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8343,23 +8334,23 @@
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8370,14 +8361,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8388,17 +8379,17 @@
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短時間に送信するのをブロックします。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8415,14 +8406,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8433,17 +8424,17 @@
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door の WAF レート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多くの要求に対する保護が提供されます。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8460,14 +8451,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8478,23 +8469,23 @@
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B163" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを geo フィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8505,14 +8496,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8523,17 +8514,17 @@
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B164" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的にフィルター処理するときに、不明 (ZZ) の場所を指定します。IP アドレスを geo 一致できない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8550,14 +8541,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8568,23 +8559,23 @@
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B165" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、ポリシー イニシアチブを使用して関連するポリシーをグループ化することで、環境のコントロールを定義します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
       <c r="E165" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8595,14 +8586,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,17 +8604,17 @@
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B166" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を適用します。</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8640,14 +8631,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8658,17 +8649,17 @@
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8685,14 +8676,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8703,17 +8694,17 @@
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てることができるようにします</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8730,14 +8721,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8748,17 +8739,17 @@
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシー割り当てを最上位の適切なレベルで管理し、除外を下位レベルで管理します。</t>
+          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8766,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8793,23 +8784,23 @@
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8811,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8838,20 +8829,24 @@
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -8865,14 +8860,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,24 +8878,20 @@
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D172" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者の役割を特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理して、組織の標準に準拠した分散ガバナンスを実現できます。</t>
-        </is>
-      </c>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+        </is>
+      </c>
+      <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -8914,14 +8905,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8932,17 +8923,17 @@
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8959,14 +8950,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8977,17 +8968,17 @@
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9004,19 +8995,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9027,23 +9013,23 @@
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化する</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、自動化タグを使用して環境内の VM を起動/停止することを検討してください。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9054,14 +9040,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,18 +9063,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>Azure 仮想マシン スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9099,14 +9085,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9117,17 +9103,17 @@
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化する</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>「実績」および「予測」予算アラートを設定します。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9130,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9162,23 +9148,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9175,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9207,17 +9193,17 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door ログを Microsoft Sentinel に送信します。攻撃を検出し、Front Door テレメトリを Azure 環境全体に統合します。</t>
+          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9234,14 +9220,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,23 +9238,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを使用した BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9279,14 +9265,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9283,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9310,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9328,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,19 +9355,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9392,17 +9373,17 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9417,11 +9398,16 @@
         </is>
       </c>
       <c r="G183" s="21" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,17 +9418,17 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保有期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態で最大 7 年間保持できます。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,19 +9445,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,17 +9463,17 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,19 +9490,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,17 +9508,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9559,19 +9535,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9582,17 +9553,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation での更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9609,19 +9580,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9632,17 +9598,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9659,19 +9625,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9682,17 +9643,17 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9709,19 +9670,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9732,23 +9688,23 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが配置されます。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9759,14 +9715,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9777,17 +9733,17 @@
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9804,14 +9760,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9822,17 +9778,17 @@
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートや問題に対処できるようにします</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9849,14 +9805,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9867,17 +9823,17 @@
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9894,14 +9850,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9912,23 +9868,23 @@
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9939,14 +9895,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9957,23 +9913,23 @@
     <row r="195" ht="16.5" customHeight="1">
       <c r="A195" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには、Azure モニター ログを使用します。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9984,14 +9940,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -10002,23 +9958,23 @@
     <row r="196" ht="16.5" customHeight="1">
       <c r="A196" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能のログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -10029,14 +9985,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10047,23 +10003,23 @@
     <row r="197" ht="16.5" customHeight="1">
       <c r="A197" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10074,14 +10030,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10092,17 +10048,17 @@
     <row r="198" ht="16.5" customHeight="1">
       <c r="A198" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10119,14 +10075,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10137,17 +10093,17 @@
     <row r="199" ht="16.5" customHeight="1">
       <c r="A199" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースとオートメーション アカウントでサポートされているリージョンを検討する</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10164,14 +10120,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10182,23 +10138,23 @@
     <row r="200" ht="16.5" customHeight="1">
       <c r="A200" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠しているベースライン VM 構成を適用します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10209,14 +10165,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10227,27 +10183,23 @@
     <row r="201" ht="16.5" customHeight="1">
       <c r="A201" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
-        </is>
-      </c>
-      <c r="D201" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシン設定 (OS、アプリケーション、環境など) を監査および修復して、リソースが予想される構成に整合していることを確認でき、Update Management では VM のパッチ管理を適用できます。</t>
-        </is>
-      </c>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+        </is>
+      </c>
+      <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10258,14 +10210,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10276,23 +10228,23 @@
     <row r="202" ht="16.5" customHeight="1">
       <c r="A202" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>特権アクセスの保護</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure サイト回復を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10303,14 +10255,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10321,17 +10273,17 @@
     <row r="203" ht="16.5" customHeight="1">
       <c r="A203" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10348,14 +10300,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10366,17 +10318,17 @@
     <row r="204" ht="16.5" customHeight="1">
       <c r="A204" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure と互換性のあるサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>Azure サービスのサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10393,14 +10345,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10411,17 +10363,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>可用性ゾーンは、サポートされているリージョンの VM に活用します。</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10438,14 +10390,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10456,23 +10408,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>単一の VM で運用ワークロードを実行することは避けてください。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10483,14 +10435,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10501,23 +10453,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーとアプリケーション ゲートウェイは、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10528,14 +10480,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10546,23 +10498,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10573,14 +10525,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10591,17 +10543,17 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10618,14 +10570,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10636,17 +10588,17 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Azure キー コンテナーを使用してシークレットと資格情報を格納する</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10663,14 +10615,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10681,23 +10633,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10708,14 +10660,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10726,23 +10678,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10753,14 +10705,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10771,23 +10723,23 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、および証明書を完全に削除する承認を、特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10798,14 +10750,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10816,17 +10768,17 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>パブリック認証局による証明書の管理と更新プロセスを自動化して、管理を容易にします。</t>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10843,14 +10795,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10861,23 +10813,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>開発戦略</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化プロセスを確立します。</t>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10888,14 +10840,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10906,23 +10858,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B216" s="21" t="inlineStr">
+        <is>
           <t>安全</t>
         </is>
       </c>
-      <c r="B216" s="21" t="inlineStr">
-        <is>
-          <t>暗号化とキー</t>
-        </is>
-      </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10933,14 +10885,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10949,1350 +10901,450 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B217" s="21" t="inlineStr">
-        <is>
-          <t>暗号化とキー</t>
-        </is>
-      </c>
-      <c r="C217" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォーム中央の Azure Monitor ログ分析ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
-        </is>
-      </c>
+      <c r="A217" s="21" t="n"/>
+      <c r="B217" s="21" t="n"/>
+      <c r="C217" s="21" t="n"/>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E217" s="21" t="n"/>
       <c r="G217" s="21" t="n"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
-        </is>
-      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="inlineStr">
-        <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
-        </is>
-      </c>
+      <c r="L217" s="25" t="n"/>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B218" s="21" t="inlineStr">
-        <is>
-          <t>暗号化とキー</t>
-        </is>
-      </c>
-      <c r="C218" s="21" t="inlineStr">
-        <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
-        </is>
-      </c>
+      <c r="A218" s="21" t="n"/>
+      <c r="B218" s="21" t="n"/>
+      <c r="C218" s="21" t="n"/>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E218" s="21" t="n"/>
       <c r="G218" s="21" t="n"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="inlineStr">
-        <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
-        </is>
-      </c>
+      <c r="L218" s="25" t="n"/>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B219" s="21" t="inlineStr">
-        <is>
-          <t>暗号化とキー</t>
-        </is>
-      </c>
-      <c r="C219" s="21" t="inlineStr">
-        <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
-        </is>
-      </c>
+      <c r="A219" s="21" t="n"/>
+      <c r="B219" s="21" t="n"/>
+      <c r="C219" s="21" t="n"/>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E219" s="21" t="n"/>
       <c r="G219" s="21" t="n"/>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
-        </is>
-      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="inlineStr">
-        <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
-        </is>
-      </c>
+      <c r="L219" s="25" t="n"/>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B220" s="21" t="inlineStr">
-        <is>
-          <t>暗号化とキー</t>
-        </is>
-      </c>
-      <c r="C220" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーションごとに、環境ごとに、リージョンごとに Azure Key Vault を使用します。</t>
-        </is>
-      </c>
+      <c r="A220" s="21" t="n"/>
+      <c r="B220" s="21" t="n"/>
+      <c r="C220" s="21" t="n"/>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E220" s="21" t="n"/>
       <c r="G220" s="21" t="n"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="inlineStr">
-        <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
-        </is>
-      </c>
+      <c r="L220" s="25" t="n"/>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B221" s="21" t="inlineStr">
-        <is>
-          <t>暗号化とキー</t>
-        </is>
-      </c>
-      <c r="C221" s="21" t="inlineStr">
-        <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
-        </is>
-      </c>
+      <c r="A221" s="21" t="n"/>
+      <c r="B221" s="21" t="n"/>
+      <c r="C221" s="21" t="n"/>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E221" s="21" t="n"/>
       <c r="G221" s="21" t="n"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="inlineStr">
-        <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
-        </is>
-      </c>
+      <c r="L221" s="25" t="n"/>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B222" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C222" s="21" t="inlineStr">
-        <is>
-          <t>アクセス制御監査レポートを生成するには、Microsoft Entra ID レポート機能を使用しています。</t>
-        </is>
-      </c>
+      <c r="A222" s="21" t="n"/>
+      <c r="B222" s="21" t="n"/>
+      <c r="C222" s="21" t="n"/>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E222" s="21" t="n"/>
       <c r="G222" s="21" t="n"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
-        </is>
-      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="inlineStr">
-        <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
-        </is>
-      </c>
+      <c r="L222" s="25" t="n"/>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B223" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C223" s="21" t="inlineStr">
-        <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、2 年を超える長期ストレージのために Azure Storage にエクスポートします。</t>
-        </is>
-      </c>
+      <c r="A223" s="21" t="n"/>
+      <c r="B223" s="21" t="n"/>
+      <c r="C223" s="21" t="n"/>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E223" s="21" t="n"/>
       <c r="G223" s="21" t="n"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
-        </is>
-      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="inlineStr">
-        <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
-        </is>
-      </c>
+      <c r="L223" s="25" t="n"/>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B224" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C224" s="21" t="inlineStr">
-        <is>
-          <t>すべてのサブスクリプションに対して Defender クラウド セキュリティ体制管理を有効にします。</t>
-        </is>
-      </c>
+      <c r="A224" s="21" t="n"/>
+      <c r="B224" s="21" t="n"/>
+      <c r="C224" s="21" t="n"/>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E224" s="21" t="n"/>
       <c r="G224" s="21" t="n"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
-        </is>
-      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="inlineStr">
-        <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
-        </is>
-      </c>
+      <c r="L224" s="25" t="n"/>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B225" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C225" s="21" t="inlineStr">
-        <is>
-          <t>すべてのサブスクリプションでサーバーの Defender クラウド ワークロード保護プランを有効にします。</t>
-        </is>
-      </c>
+      <c r="A225" s="21" t="n"/>
+      <c r="B225" s="21" t="n"/>
+      <c r="C225" s="21" t="n"/>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E225" s="21" t="n"/>
       <c r="G225" s="21" t="n"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
-        </is>
-      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="inlineStr">
-        <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
-        </is>
-      </c>
+      <c r="L225" s="25" t="n"/>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B226" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C226" s="21" t="inlineStr">
-        <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender クラウド ワークロード保護プランを有効にします。</t>
-        </is>
-      </c>
+      <c r="A226" s="21" t="n"/>
+      <c r="B226" s="21" t="n"/>
+      <c r="C226" s="21" t="n"/>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E226" s="21" t="n"/>
       <c r="G226" s="21" t="n"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
-        </is>
-      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="inlineStr">
-        <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
-        </is>
-      </c>
+      <c r="L226" s="25" t="n"/>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B227" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C227" s="21" t="inlineStr">
-        <is>
-          <t>IaaS サーバーでエンドポイント保護を有効にします。</t>
-        </is>
-      </c>
+      <c r="A227" s="21" t="n"/>
+      <c r="B227" s="21" t="n"/>
+      <c r="C227" s="21" t="n"/>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E227" s="21" t="n"/>
       <c r="G227" s="21" t="n"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
-        </is>
-      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="inlineStr">
-        <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
-        </is>
-      </c>
+      <c r="L227" s="25" t="n"/>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用ドリフトを監視します。</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B229" s="21" t="inlineStr">
-        <is>
-          <t>オペレーションズ</t>
-        </is>
-      </c>
-      <c r="C229" s="21" t="inlineStr">
-        <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
-        </is>
-      </c>
+      <c r="A229" s="21" t="n"/>
+      <c r="B229" s="21" t="n"/>
+      <c r="C229" s="21" t="n"/>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E229" s="21" t="n"/>
       <c r="G229" s="21" t="n"/>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="inlineStr">
-        <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
-        </is>
-      </c>
+      <c r="L229" s="25" t="n"/>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B230" s="21" t="inlineStr">
-        <is>
-          <t>概要</t>
-        </is>
-      </c>
-      <c r="C230" s="21" t="inlineStr">
-        <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
-        </is>
-      </c>
+      <c r="A230" s="21" t="n"/>
+      <c r="B230" s="21" t="n"/>
+      <c r="C230" s="21" t="n"/>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E230" s="21" t="n"/>
       <c r="G230" s="21" t="n"/>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
-        </is>
-      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="inlineStr">
-        <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
-        </is>
-      </c>
+      <c r="L230" s="25" t="n"/>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B231" s="21" t="inlineStr">
-        <is>
-          <t>概要</t>
-        </is>
-      </c>
-      <c r="C231" s="21" t="inlineStr">
-        <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
-        </is>
-      </c>
+      <c r="A231" s="21" t="n"/>
+      <c r="B231" s="21" t="n"/>
+      <c r="C231" s="21" t="n"/>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E231" s="21" t="n"/>
       <c r="G231" s="21" t="n"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
-        </is>
-      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="inlineStr">
-        <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
-        </is>
-      </c>
+      <c r="L231" s="25" t="n"/>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B232" s="21" t="inlineStr">
-        <is>
-          <t>安全な特権アクセス</t>
-        </is>
-      </c>
-      <c r="C232" s="21" t="inlineStr">
-        <is>
-          <t>Azure 管理タスク用に個別の特権管理者アカウント。</t>
-        </is>
-      </c>
+      <c r="A232" s="21" t="n"/>
+      <c r="B232" s="21" t="n"/>
+      <c r="C232" s="21" t="n"/>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E232" s="21" t="n"/>
       <c r="G232" s="21" t="n"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
-        </is>
-      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="inlineStr">
-        <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
-        </is>
-      </c>
+      <c r="L232" s="25" t="n"/>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
       <c r="P232" s="25" t="n"/>
     </row>
     <row r="233">
-      <c r="A233" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B233" s="21" t="inlineStr">
-        <is>
-          <t>サービスイネーブルメントフレームワーク</t>
-        </is>
-      </c>
-      <c r="C233" s="21" t="inlineStr">
-        <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
-        </is>
-      </c>
+      <c r="A233" s="21" t="n"/>
+      <c r="B233" s="21" t="n"/>
+      <c r="C233" s="21" t="n"/>
       <c r="D233" s="21" t="n"/>
-      <c r="E233" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E233" s="21" t="n"/>
       <c r="G233" s="21" t="n"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J233" s="22" t="n"/>
       <c r="K233" s="22" t="n"/>
-      <c r="L233" s="25" t="inlineStr">
-        <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
-        </is>
-      </c>
+      <c r="L233" s="25" t="n"/>
       <c r="M233" s="25" t="n"/>
       <c r="N233" s="25" t="n"/>
       <c r="O233" s="25" t="n"/>
       <c r="P233" s="25" t="n"/>
     </row>
     <row r="234">
-      <c r="A234" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="B234" s="21" t="inlineStr">
-        <is>
-          <t>サービスイネーブルメントフレームワーク</t>
-        </is>
-      </c>
-      <c r="C234" s="21" t="inlineStr">
-        <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
-        </is>
-      </c>
+      <c r="A234" s="21" t="n"/>
+      <c r="B234" s="21" t="n"/>
+      <c r="C234" s="21" t="n"/>
       <c r="D234" s="21" t="n"/>
-      <c r="E234" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E234" s="21" t="n"/>
       <c r="G234" s="21" t="n"/>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
-        </is>
-      </c>
       <c r="J234" s="22" t="n"/>
       <c r="K234" s="22" t="n"/>
-      <c r="L234" s="25" t="inlineStr">
-        <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
-        </is>
-      </c>
+      <c r="L234" s="25" t="n"/>
       <c r="M234" s="25" t="n"/>
       <c r="N234" s="25" t="n"/>
       <c r="O234" s="25" t="n"/>
       <c r="P234" s="25" t="n"/>
     </row>
     <row r="235">
-      <c r="A235" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B235" s="21" t="inlineStr">
-        <is>
-          <t>DevOps チームのトポロジ</t>
-        </is>
-      </c>
-      <c r="C235" s="21" t="inlineStr">
-        <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するためのクロスファンクショナルな DevOps プラットフォーム チームがあることを確認します。</t>
-        </is>
-      </c>
+      <c r="A235" s="21" t="n"/>
+      <c r="B235" s="21" t="n"/>
+      <c r="C235" s="21" t="n"/>
       <c r="D235" s="21" t="n"/>
-      <c r="E235" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E235" s="21" t="n"/>
       <c r="G235" s="21" t="n"/>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
-        </is>
-      </c>
       <c r="J235" s="22" t="n"/>
       <c r="K235" s="22" t="n"/>
-      <c r="L235" s="25" t="inlineStr">
-        <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
-        </is>
-      </c>
+      <c r="L235" s="25" t="n"/>
       <c r="M235" s="25" t="n"/>
       <c r="N235" s="25" t="n"/>
       <c r="O235" s="25" t="n"/>
       <c r="P235" s="25" t="n"/>
     </row>
     <row r="236">
-      <c r="A236" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B236" s="21" t="inlineStr">
-        <is>
-          <t>DevOps チームのトポロジ</t>
-        </is>
-      </c>
-      <c r="C236" s="21" t="inlineStr">
-        <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
-        </is>
-      </c>
+      <c r="A236" s="21" t="n"/>
+      <c r="B236" s="21" t="n"/>
+      <c r="C236" s="21" t="n"/>
       <c r="D236" s="21" t="n"/>
-      <c r="E236" s="21" t="inlineStr">
-        <is>
-          <t>低い</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E236" s="21" t="n"/>
       <c r="G236" s="21" t="n"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J236" s="22" t="n"/>
       <c r="K236" s="22" t="n"/>
-      <c r="L236" s="25" t="inlineStr">
-        <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
-        </is>
-      </c>
+      <c r="L236" s="25" t="n"/>
       <c r="M236" s="25" t="n"/>
       <c r="N236" s="25" t="n"/>
       <c r="O236" s="25" t="n"/>
       <c r="P236" s="25" t="n"/>
     </row>
     <row r="237">
-      <c r="A237" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B237" s="21" t="inlineStr">
-        <is>
-          <t>DevOps チームのトポロジ</t>
-        </is>
-      </c>
-      <c r="C237" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーション ワークロード チームが自給自足し、DevOps プラットフォーム チームのサポートを必要としない機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
-        </is>
-      </c>
+      <c r="A237" s="21" t="n"/>
+      <c r="B237" s="21" t="n"/>
+      <c r="C237" s="21" t="n"/>
       <c r="D237" s="21" t="n"/>
-      <c r="E237" s="21" t="inlineStr">
-        <is>
-          <t>低い</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E237" s="21" t="n"/>
       <c r="G237" s="21" t="n"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
-        </is>
-      </c>
       <c r="J237" s="22" t="n"/>
       <c r="K237" s="22" t="n"/>
-      <c r="L237" s="25" t="inlineStr">
-        <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
-        </is>
-      </c>
+      <c r="L237" s="25" t="n"/>
       <c r="M237" s="25" t="n"/>
       <c r="N237" s="25" t="n"/>
       <c r="O237" s="25" t="n"/>
       <c r="P237" s="25" t="n"/>
     </row>
     <row r="238">
-      <c r="A238" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B238" s="21" t="inlineStr">
-        <is>
-          <t>DevOps チームのトポロジ</t>
-        </is>
-      </c>
-      <c r="C238" s="21" t="inlineStr">
-        <is>
-          <t>CI/CD パイプラインを使用して IaC アーティファクトをデプロイし、デプロイと Azure 環境の品質を確保します。</t>
-        </is>
-      </c>
+      <c r="A238" s="21" t="n"/>
+      <c r="B238" s="21" t="n"/>
+      <c r="C238" s="21" t="n"/>
       <c r="D238" s="21" t="n"/>
-      <c r="E238" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E238" s="21" t="n"/>
       <c r="G238" s="21" t="n"/>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J238" s="22" t="n"/>
       <c r="K238" s="22" t="n"/>
-      <c r="L238" s="25" t="inlineStr">
-        <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
-        </is>
-      </c>
+      <c r="L238" s="25" t="n"/>
       <c r="M238" s="25" t="n"/>
       <c r="N238" s="25" t="n"/>
       <c r="O238" s="25" t="n"/>
       <c r="P238" s="25" t="n"/>
     </row>
     <row r="239">
-      <c r="A239" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B239" s="21" t="inlineStr">
-        <is>
-          <t>DevOps チームのトポロジ</t>
-        </is>
-      </c>
-      <c r="C239" s="21" t="inlineStr">
-        <is>
-          <t>ビルド プロセスの一部として IaC とアプリケーション コードの単体テストを含めます。</t>
-        </is>
-      </c>
+      <c r="A239" s="21" t="n"/>
+      <c r="B239" s="21" t="n"/>
+      <c r="C239" s="21" t="n"/>
       <c r="D239" s="21" t="n"/>
-      <c r="E239" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E239" s="21" t="n"/>
       <c r="G239" s="21" t="n"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J239" s="22" t="n"/>
       <c r="K239" s="22" t="n"/>
-      <c r="L239" s="25" t="inlineStr">
-        <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
-        </is>
-      </c>
+      <c r="L239" s="25" t="n"/>
       <c r="M239" s="25" t="n"/>
       <c r="N239" s="25" t="n"/>
       <c r="O239" s="25" t="n"/>
       <c r="P239" s="25" t="n"/>
     </row>
     <row r="240">
-      <c r="A240" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B240" s="21" t="inlineStr">
-        <is>
-          <t>DevOps チームのトポロジ</t>
-        </is>
-      </c>
-      <c r="C240" s="21" t="inlineStr">
-        <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシンのユーザー パスワード)、証明書、キーなどの機密情報がハードコーディングされないようにします。</t>
-        </is>
-      </c>
+      <c r="A240" s="21" t="n"/>
+      <c r="B240" s="21" t="n"/>
+      <c r="C240" s="21" t="n"/>
       <c r="D240" s="21" t="n"/>
-      <c r="E240" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E240" s="21" t="n"/>
       <c r="G240" s="21" t="n"/>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
-        </is>
-      </c>
       <c r="J240" s="22" t="n"/>
       <c r="K240" s="22" t="n"/>
-      <c r="L240" s="25" t="inlineStr">
-        <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
-        </is>
-      </c>
+      <c r="L240" s="25" t="n"/>
       <c r="M240" s="25" t="n"/>
       <c r="N240" s="25" t="n"/>
       <c r="O240" s="25" t="n"/>
       <c r="P240" s="25" t="n"/>
     </row>
     <row r="241">
-      <c r="A241" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B241" s="21" t="inlineStr">
-        <is>
-          <t>DevOps チームのトポロジ</t>
-        </is>
-      </c>
-      <c r="C241" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーションとワークロードのファイル&gt;新しい&gt;ランディング ゾーンの自動化を実装します。</t>
-        </is>
-      </c>
+      <c r="A241" s="21" t="n"/>
+      <c r="B241" s="21" t="n"/>
+      <c r="C241" s="21" t="n"/>
       <c r="D241" s="21" t="n"/>
-      <c r="E241" s="21" t="inlineStr">
-        <is>
-          <t>低い</t>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E241" s="21" t="n"/>
       <c r="G241" s="21" t="n"/>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
-        </is>
-      </c>
       <c r="J241" s="22" t="n"/>
       <c r="K241" s="22" t="n"/>
-      <c r="L241" s="25" t="inlineStr">
-        <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
-        </is>
-      </c>
+      <c r="L241" s="25" t="n"/>
       <c r="M241" s="25" t="n"/>
       <c r="N241" s="25" t="n"/>
       <c r="O241" s="25" t="n"/>
       <c r="P241" s="25" t="n"/>
     </row>
     <row r="242">
-      <c r="A242" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B242" s="21" t="inlineStr">
-        <is>
-          <t>開発ライフサイクル</t>
-        </is>
-      </c>
-      <c r="C242" s="21" t="inlineStr">
-        <is>
-          <t>アプリケーションと開発された IaC のソース コードにバージョン管理システムが使用されていることを確認します。マイクロソフトは Git を推奨しています。</t>
-        </is>
-      </c>
+      <c r="A242" s="21" t="n"/>
+      <c r="B242" s="21" t="n"/>
+      <c r="C242" s="21" t="n"/>
       <c r="D242" s="21" t="n"/>
-      <c r="E242" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E242" s="21" t="n"/>
       <c r="G242" s="21" t="n"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J242" s="22" t="n"/>
       <c r="K242" s="22" t="n"/>
-      <c r="L242" s="25" t="inlineStr">
-        <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
-        </is>
-      </c>
+      <c r="L242" s="25" t="n"/>
       <c r="M242" s="25" t="n"/>
       <c r="N242" s="25" t="n"/>
       <c r="O242" s="25" t="n"/>
       <c r="P242" s="25" t="n"/>
     </row>
     <row r="243">
-      <c r="A243" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B243" s="21" t="inlineStr">
-        <is>
-          <t>開発ライフサイクル</t>
-        </is>
-      </c>
-      <c r="C243" s="21" t="inlineStr">
-        <is>
-          <t>分岐戦略に従って、チームがより適切にコラボレーションし、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
-        </is>
-      </c>
+      <c r="A243" s="21" t="n"/>
+      <c r="B243" s="21" t="n"/>
+      <c r="C243" s="21" t="n"/>
       <c r="D243" s="21" t="n"/>
-      <c r="E243" s="21" t="inlineStr">
-        <is>
-          <t>低い</t>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E243" s="21" t="n"/>
       <c r="G243" s="21" t="n"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J243" s="22" t="n"/>
       <c r="K243" s="22" t="n"/>
-      <c r="L243" s="25" t="inlineStr">
-        <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
-        </is>
-      </c>
+      <c r="L243" s="25" t="n"/>
       <c r="M243" s="25" t="n"/>
       <c r="N243" s="25" t="n"/>
       <c r="O243" s="25" t="n"/>
       <c r="P243" s="25" t="n"/>
     </row>
     <row r="244">
-      <c r="A244" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B244" s="21" t="inlineStr">
-        <is>
-          <t>開発ライフサイクル</t>
-        </is>
-      </c>
-      <c r="C244" s="21" t="inlineStr">
-        <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更の制御を維持します。</t>
-        </is>
-      </c>
+      <c r="A244" s="21" t="n"/>
+      <c r="B244" s="21" t="n"/>
+      <c r="C244" s="21" t="n"/>
       <c r="D244" s="21" t="n"/>
-      <c r="E244" s="21" t="inlineStr">
-        <is>
-          <t>中程度</t>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E244" s="21" t="n"/>
       <c r="G244" s="21" t="n"/>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
-        </is>
-      </c>
       <c r="J244" s="22" t="n"/>
       <c r="K244" s="22" t="n"/>
-      <c r="L244" s="25" t="inlineStr">
-        <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
-        </is>
-      </c>
+      <c r="L244" s="25" t="n"/>
       <c r="M244" s="25" t="n"/>
       <c r="N244" s="25" t="n"/>
       <c r="O244" s="25" t="n"/>
       <c r="P244" s="25" t="n"/>
     </row>
     <row r="245">
-      <c r="A245" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B245" s="21" t="inlineStr">
-        <is>
-          <t>開発戦略</t>
-        </is>
-      </c>
-      <c r="C245" s="21" t="inlineStr">
-        <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャをコードとして活用して、Azure ランディング ゾーン アーキテクチャを構築および保守します。プラットフォームとアプリケーションの両方のワークロードの観点から。</t>
-        </is>
-      </c>
+      <c r="A245" s="21" t="n"/>
+      <c r="B245" s="21" t="n"/>
+      <c r="C245" s="21" t="n"/>
       <c r="D245" s="21" t="n"/>
-      <c r="E245" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E245" s="21" t="n"/>
       <c r="G245" s="21" t="n"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
-        </is>
-      </c>
       <c r="J245" s="22" t="n"/>
       <c r="K245" s="22" t="n"/>
-      <c r="L245" s="25" t="inlineStr">
-        <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
-        </is>
-      </c>
+      <c r="L245" s="25" t="n"/>
       <c r="M245" s="25" t="n"/>
       <c r="N245" s="25" t="n"/>
       <c r="O245" s="25" t="n"/>
       <c r="P245" s="25" t="n"/>
     </row>
     <row r="246">
-      <c r="A246" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化と DevOps</t>
-        </is>
-      </c>
-      <c r="B246" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C246" s="21" t="inlineStr">
-        <is>
-          <t>DevOps の開発と運用のすでに組み合わされたプロセスにセキュリティを統合して、イノベーション プロセスのリスクを軽減します。</t>
-        </is>
-      </c>
+      <c r="A246" s="21" t="n"/>
+      <c r="B246" s="21" t="n"/>
+      <c r="C246" s="21" t="n"/>
       <c r="D246" s="21" t="n"/>
-      <c r="E246" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E246" s="21" t="n"/>
       <c r="G246" s="21" t="n"/>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J246" s="22" t="n"/>
       <c r="K246" s="22" t="n"/>
-      <c r="L246" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L246" s="25" t="n"/>
       <c r="M246" s="25" t="n"/>
       <c r="N246" s="25" t="n"/>
       <c r="O246" s="25" t="n"/>
@@ -13209,7 +12261,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F247" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13300,7 +12352,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Azure Billing and Microsoft Entra ID Tenants</t>
+          <t>Azure 課金と Microsoft Entra ID テナント</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -13337,12 +12389,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ID およびアクセス管理</t>
+          <t>IDおよびアクセス管理</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>このチェックに関連付けられているアクションアイテムがあります</t>
+          <t>このチェックにはアクションアイテムが関連付けられています</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -13364,12 +12416,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
+          <t>このチェックは検証済みで、これ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -13381,7 +12433,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>必須ではありません</t>
+          <t>必要なし</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -13391,7 +12443,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
+          <t>推奨事項は理解されているが、現在の要件では不要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -13425,14 +12477,14 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>リソース構成</t>
+          <t>リソース編成</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化と DevOps</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -3366,13 +3366,13 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用可能であることを確認する</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3383,19 +3383,19 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3416,13 +3416,13 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを適用する</t>
+          <t>Windows Server 上の AD の場合は、Windows Server Active Directory ドメイン コントローラーをホストするために、Indentity 管理グループに専用の ID サブスクリプションを確立します</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3433,19 +3433,19 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Windows Server 上の AD の場合は、Windows Server Active Directory ドメイン コントローラーをホストするために、Indentity 管理グループに専用の ID サブスクリプションを確立します</t>
+          <t>タグが課金とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3483,19 +3483,19 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>地域</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>タグが課金とコスト管理に使用されていることを確認する</t>
+          <t>デプロイに適した Azure リージョンを選択します。Azure は、多くのリージョンと地域を通じてグローバル カバレッジを提供するグローバル規模のクラウド プラットフォームです。Azure リージョンが異なれば、特性、アクセスと可用性のモデル、コスト、容量、提供されるサービスも異なるため、すべての条件と要件を考慮することが重要です</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,19 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3556,17 +3556,17 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>地域</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway と Azure Front door を使用して、ワークロードのスポークから配信アプリケーション コンテンツをセキュリティで保護するための計画を作成します。 アプリケーション配信チェックリストを使用して、推奨事項を確認できます。</t>
+          <t>複数リージョンのデプロイを検討してください。顧客の規模、場所、ユーザーの存在によっては、複数のリージョンで運用することが、サービスを提供し、より近い場所でアプリケーションを実行するための一般的な選択肢となる場合があります。複数リージョンのデプロイを使用することは、geo ディザスター リカバリー機能を提供し、単一リージョンの容量からの依存関係を排除し、一時的で局所的なリソース容量の制約のリスクを軽減するためにも重要です</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
@@ -3583,14 +3583,19 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3601,17 +3606,17 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>地域</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>内部向けアプリ (corp) と外部向けアプリ (online) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用可能であることを確認する</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3628,19 +3633,19 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3661,7 +3666,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>Application Gateway と Azure Front door を使用して、ワークロードのスポークから配信アプリケーション コンテンツをセキュリティで保護するための計画を作成します。 アプリケーション配信チェックリストを使用して、推奨事項を確認できます。</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3678,19 +3683,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>内部向けアプリ (corp) と外部向けアプリ (online) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,15 +3728,19 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3752,18 +3756,18 @@
       </c>
       <c r="B64" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3774,19 +3778,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3802,12 +3806,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3824,19 +3828,15 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="n"/>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3852,18 +3852,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
+          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,14 +3874,19 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,7 +3907,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3919,15 +3924,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
-        </is>
-      </c>
-      <c r="I67" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I67" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3948,13 +3957,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3965,7 +3974,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3973,7 +3982,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3994,13 +4003,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
+          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4011,7 +4020,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4019,7 +4028,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4040,13 +4049,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4057,19 +4066,15 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I70" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I70" s="15" t="n"/>
       <c r="J70" s="22" t="n"/>
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4090,13 +4095,13 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4107,19 +4112,15 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I71" s="15" t="n"/>
       <c r="J71" s="22" t="n"/>
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4140,7 +4141,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
+          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4157,15 +4158,19 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4186,7 +4191,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
+          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4203,15 +4208,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I73" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I73" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4232,13 +4241,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4249,7 +4258,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4257,7 +4266,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4273,12 +4282,12 @@
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4295,19 +4304,15 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I75" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I75" s="15" t="n"/>
       <c r="J75" s="22" t="n"/>
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4323,22 +4328,18 @@
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="D76" s="21" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
+        </is>
+      </c>
+      <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4349,19 +4350,15 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I76" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I76" s="15" t="n"/>
       <c r="J76" s="22" t="n"/>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4382,7 +4379,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4399,7 +4396,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I77" s="15" t="inlineStr">
@@ -4411,7 +4408,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4432,13 +4429,17 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4449,15 +4450,19 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I78" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I78" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J78" s="22" t="n"/>
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4478,13 +4483,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4495,15 +4500,19 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
-        </is>
-      </c>
-      <c r="I79" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I79" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J79" s="22" t="n"/>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4524,13 +4533,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4541,19 +4550,15 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="n"/>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4574,13 +4579,13 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4591,19 +4596,15 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I81" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I81" s="15" t="n"/>
       <c r="J81" s="22" t="n"/>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4624,7 +4625,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4641,7 +4642,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I82" s="15" t="inlineStr">
@@ -4653,7 +4654,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4674,7 +4675,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4691,19 +4692,19 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J83" s="22" t="n"/>
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4724,13 +4725,13 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
+          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4741,7 +4742,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4753,7 +4754,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4774,7 +4775,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4791,19 +4792,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4824,13 +4825,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4841,7 +4842,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
@@ -4853,7 +4854,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4874,7 +4875,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4891,7 +4892,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4903,7 +4904,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4924,7 +4925,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4941,7 +4942,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4953,7 +4954,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4974,13 +4975,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4991,15 +4992,19 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I89" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+        </is>
+      </c>
+      <c r="I89" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J89" s="22" t="n"/>
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5015,18 +5020,18 @@
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5037,19 +5042,19 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="22" t="n"/>
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5065,18 +5070,18 @@
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5087,19 +5092,15 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="n"/>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,7 +5121,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5149,7 +5150,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5170,13 +5171,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5187,19 +5188,19 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5220,13 +5221,13 @@
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5237,19 +5238,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5270,13 +5271,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,19 +5288,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5320,13 +5321,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5340,12 +5341,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I96" s="15" t="n"/>
+      <c r="I96" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5366,13 +5371,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5383,19 +5388,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5411,18 +5416,18 @@
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5433,7 +5438,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5441,7 +5446,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5457,18 +5462,18 @@
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
+          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,15 +5484,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I99" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I99" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5517,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5534,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,7 +5563,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
+          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5575,19 +5580,15 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="n"/>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5608,13 +5609,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5626,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
@@ -5637,7 +5638,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5675,19 +5676,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5708,7 +5709,7 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
+          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
@@ -5725,19 +5726,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5758,13 +5759,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5775,19 +5776,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5808,13 +5809,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,19 +5826,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5858,7 +5859,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5875,15 +5876,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I107" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I107" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
+          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5921,15 +5926,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I108" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I108" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,7 +5959,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5967,7 +5976,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5975,7 +5984,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6005,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
+          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,7 +6022,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6021,7 +6030,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6042,7 +6051,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6059,14 +6068,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6082,12 +6091,12 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
+          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6104,19 +6113,15 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="n"/>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6132,18 +6137,18 @@
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
+          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
       <c r="E113" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -6154,19 +6159,15 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I113" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+        </is>
+      </c>
+      <c r="I113" s="15" t="n"/>
       <c r="J113" s="22" t="n"/>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6182,18 +6183,18 @@
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -6204,19 +6205,15 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I114" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I114" s="15" t="n"/>
       <c r="J114" s="22" t="n"/>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6237,13 +6234,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6254,7 +6251,7 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6266,7 +6263,7 @@
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6287,7 +6284,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6309,14 +6306,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6332,18 +6329,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
+          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6354,14 +6351,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6377,18 +6379,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6399,15 +6401,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,12 +6429,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6445,14 +6451,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,13 +6484,13 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6490,19 +6501,15 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,13 +6530,13 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6540,19 +6547,15 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6573,7 +6576,7 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6588,17 +6591,17 @@
         </is>
       </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6622,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,19 +6639,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6669,7 +6672,7 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
@@ -6686,19 +6689,19 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6714,12 +6717,12 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6734,21 +6737,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="n"/>
       <c r="I125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6764,12 +6763,12 @@
       </c>
       <c r="B126" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6786,14 +6785,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6809,18 +6813,18 @@
       </c>
       <c r="B127" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
+          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
       <c r="E127" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -6831,14 +6835,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6859,7 +6868,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6876,19 +6885,19 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6909,7 +6918,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
+          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6926,14 +6935,14 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6954,13 +6963,13 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6971,14 +6980,14 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -6999,7 +7008,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7016,14 +7025,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7044,7 +7058,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7061,14 +7075,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7089,7 +7103,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7106,14 +7120,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7134,13 +7148,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7151,14 +7165,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7169,23 +7183,23 @@
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B135" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7196,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7214,17 +7228,17 @@
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B136" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7241,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7259,23 +7273,23 @@
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B137" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7286,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7314,13 +7328,13 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7338,7 +7352,7 @@
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7359,7 +7373,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
+          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7376,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7404,13 +7418,13 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7421,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7449,7 +7463,7 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
@@ -7473,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7494,14 +7508,10 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D142" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
-        </is>
-      </c>
+          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
+        </is>
+      </c>
+      <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7515,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7543,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7560,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7588,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7605,19 +7615,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7633,18 +7638,22 @@
       </c>
       <c r="B145" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7655,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7673,17 +7682,17 @@
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B146" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7700,14 +7709,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7723,12 +7732,12 @@
       </c>
       <c r="B147" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>「実績」と「予測」の予算アラートを設定します。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7745,14 +7754,19 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7763,23 +7777,23 @@
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7790,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7813,12 +7827,12 @@
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7835,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7853,17 +7867,17 @@
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>「実績」と「予測」の予算アラートを設定します。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7880,14 +7894,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7903,18 +7917,18 @@
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7925,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7948,12 +7962,12 @@
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7970,19 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -7998,12 +8007,12 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8018,12 +8027,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8039,12 +8052,12 @@
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8061,19 +8074,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8094,7 +8102,7 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8111,19 +8119,19 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8144,7 +8152,7 @@
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8159,21 +8167,12 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H156" s="15" t="n"/>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8194,7 +8193,7 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8211,19 +8210,19 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8244,7 +8243,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8261,19 +8260,19 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8294,7 +8293,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8311,7 +8310,7 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -8323,7 +8322,7 @@
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8344,13 +8343,13 @@
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
       <c r="E160" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8361,14 +8360,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8389,7 +8393,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8406,14 +8410,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8434,7 +8443,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
+          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8451,14 +8460,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8479,13 +8493,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8496,14 +8510,14 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8524,7 +8538,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8541,14 +8555,14 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8569,7 +8583,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8586,14 +8600,14 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8614,7 +8628,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8631,14 +8645,14 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8673,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,14 +8690,14 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8704,7 +8718,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8721,14 +8735,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8749,7 +8763,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8766,14 +8780,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8789,12 +8803,12 @@
       </c>
       <c r="B170" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8811,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8834,19 +8848,15 @@
       </c>
       <c r="B171" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="D171" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+        </is>
+      </c>
+      <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -8860,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8883,12 +8893,12 @@
       </c>
       <c r="B172" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8905,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8928,12 +8938,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8950,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8973,15 +8983,19 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -8995,14 +9009,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9018,18 +9032,18 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
       <c r="E175" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9040,14 +9054,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9063,18 +9077,18 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
       <c r="E176" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9085,14 +9099,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9108,12 +9122,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9130,14 +9144,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9148,23 +9162,23 @@
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9175,14 +9189,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9193,23 +9207,23 @@
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9220,14 +9234,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9238,23 +9252,23 @@
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9265,14 +9279,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9288,12 +9302,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9310,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9333,12 +9347,12 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9355,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9383,13 +9397,13 @@
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9400,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9428,7 +9442,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9445,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9473,7 +9487,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9497,7 +9511,7 @@
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,7 +9532,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9542,7 +9556,7 @@
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9563,7 +9577,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9580,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9608,7 +9622,7 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9632,7 +9646,7 @@
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9653,7 +9667,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9670,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9698,7 +9712,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9715,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9743,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9767,7 +9781,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9783,12 +9797,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9805,14 +9819,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9828,12 +9842,12 @@
       </c>
       <c r="B193" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9850,14 +9864,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9873,18 +9887,18 @@
       </c>
       <c r="B194" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
       <c r="E194" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9895,14 +9909,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9923,13 +9937,13 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
       <c r="E195" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -9940,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9968,13 +9982,13 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
       <c r="E196" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -9985,14 +9999,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10013,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10030,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10058,13 +10072,13 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10075,14 +10089,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10103,13 +10117,13 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10120,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10143,12 +10157,12 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10165,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10188,18 +10202,18 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
       <c r="E201" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -10210,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10233,18 +10247,18 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>特権アクセスの保護</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
       <c r="E202" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -10255,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10278,18 +10292,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10300,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10323,18 +10337,18 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求の履行方法を計画する</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10345,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10363,17 +10377,17 @@
     <row r="205" ht="16.5" customHeight="1">
       <c r="A205" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>特権アクセスの保護</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
+          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10390,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10408,23 +10422,23 @@
     <row r="206" ht="16.5" customHeight="1">
       <c r="A206" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10435,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10453,23 +10467,23 @@
     <row r="207">
       <c r="A207" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
+          <t>Azure サービスのサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10480,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10508,7 +10522,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10525,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10553,13 +10567,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10570,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10598,13 +10612,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10615,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10643,13 +10657,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
+          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10660,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10683,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
+          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10705,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10728,18 +10742,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10750,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10773,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10795,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10818,12 +10832,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>開発戦略</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10847,7 +10861,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10863,18 +10877,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10885,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10901,45 +10915,135 @@
       <c r="P216" s="25" t="n"/>
     </row>
     <row r="217">
-      <c r="A217" s="21" t="n"/>
-      <c r="B217" s="21" t="n"/>
-      <c r="C217" s="21" t="n"/>
+      <c r="A217" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B217" s="21" t="inlineStr">
+        <is>
+          <t>開発ライフサイクル</t>
+        </is>
+      </c>
+      <c r="C217" s="21" t="inlineStr">
+        <is>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+        </is>
+      </c>
       <c r="D217" s="21" t="n"/>
-      <c r="E217" s="21" t="n"/>
+      <c r="E217" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G217" s="21" t="n"/>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
-      <c r="L217" s="25" t="n"/>
+      <c r="L217" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M217" s="25" t="n"/>
       <c r="N217" s="25" t="n"/>
       <c r="O217" s="25" t="n"/>
       <c r="P217" s="25" t="n"/>
     </row>
     <row r="218">
-      <c r="A218" s="21" t="n"/>
-      <c r="B218" s="21" t="n"/>
-      <c r="C218" s="21" t="n"/>
+      <c r="A218" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B218" s="21" t="inlineStr">
+        <is>
+          <t>開発戦略</t>
+        </is>
+      </c>
+      <c r="C218" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+        </is>
+      </c>
       <c r="D218" s="21" t="n"/>
-      <c r="E218" s="21" t="n"/>
+      <c r="E218" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G218" s="21" t="n"/>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
-      <c r="L218" s="25" t="n"/>
+      <c r="L218" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M218" s="25" t="n"/>
       <c r="N218" s="25" t="n"/>
       <c r="O218" s="25" t="n"/>
       <c r="P218" s="25" t="n"/>
     </row>
     <row r="219">
-      <c r="A219" s="21" t="n"/>
-      <c r="B219" s="21" t="n"/>
-      <c r="C219" s="21" t="n"/>
+      <c r="A219" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B219" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C219" s="21" t="inlineStr">
+        <is>
+          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+        </is>
+      </c>
       <c r="D219" s="21" t="n"/>
-      <c r="E219" s="21" t="n"/>
+      <c r="E219" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G219" s="21" t="n"/>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
-      <c r="L219" s="25" t="n"/>
+      <c r="L219" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M219" s="25" t="n"/>
       <c r="N219" s="25" t="n"/>
       <c r="O219" s="25" t="n"/>
@@ -12261,7 +12365,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F217" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -3511,18 +3511,18 @@
       </c>
       <c r="B59" s="21" t="inlineStr">
         <is>
-          <t>地域</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>デプロイに適した Azure リージョンを選択します。Azure は、多くのリージョンと地域を通じてグローバル カバレッジを提供するグローバル規模のクラウド プラットフォームです。Azure リージョンが異なれば、特性、アクセスと可用性のモデル、コスト、容量、提供されるサービスも異なるため、すべての条件と要件を考慮することが重要です</t>
+          <t>ソブリン ランディング ゾーンの場合は、"ランディング ゾーン" MG の直下に "機密企業" と "機密オンライン" 管理グループを配置します。</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3533,19 +3533,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/02-Architecture.md</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
+          <t>6cc0ea22-42bb-441e-a345-804ab0a09666</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3566,13 +3561,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>複数リージョンのデプロイを検討してください。顧客の規模、場所、ユーザーの存在によっては、複数のリージョンで運用することが、サービスを提供し、より近い場所でアプリケーションを実行するための一般的な選択肢となる場合があります。複数リージョンのデプロイを使用することは、geo ディザスター リカバリー機能を提供し、単一リージョンの容量からの依存関係を排除し、一時的で局所的なリソース容量の制約のリスクを軽減するためにも重要です</t>
+          <t>デプロイに適した Azure リージョンを選択します。Azure は、多くのリージョンと地域を通じてグローバル カバレッジを提供するグローバル規模のクラウド プラットフォームです。Azure リージョンが異なれば、特性、アクセスと可用性のモデル、コスト、容量、提供されるサービスも異なるため、すべての条件と要件を考慮することが重要です</t>
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3583,7 +3578,7 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/regions</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3595,7 +3590,7 @@
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
+          <t>250d81ce-8bbe-4f85-9051-6a18a8221e50</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3616,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用可能であることを確認する</t>
+          <t>複数リージョンのデプロイを検討してください。顧客の規模、場所、ユーザーの存在によっては、複数のリージョンで運用することが、サービスを提供し、より近い場所でアプリケーションを実行するための一般的な選択肢となる場合があります。複数リージョンのデプロイを使用することは、geo ディザスター リカバリー機能を提供し、単一リージョンの容量からの依存関係を排除し、一時的で局所的なリソース容量の制約のリスクを軽減するためにも重要です</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3633,7 +3628,7 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/azure-setup-guide/regions#operate-in-multiple-geographic-regions</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3645,7 +3640,7 @@
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>19ca3f89-397d-44b1-b5b6-5e18661372ac</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3656,17 +3651,17 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>リソース編成</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>地域</t>
         </is>
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Application Gateway と Azure Front door を使用して、ワークロードのスポークから配信アプリケーション コンテンツをセキュリティで保護するための計画を作成します。 アプリケーション配信チェックリストを使用して、推奨事項を確認できます。</t>
+          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用可能であることを確認する</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3683,14 +3678,19 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+          <t>https://azure.microsoft.com/explore/global-infrastructure/products-by-region/</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>内部向けアプリ (corp) と外部向けアプリ (online) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>Application Gateway と Azure Front door を使用して、ワークロードのスポークから配信アプリケーション コンテンツをセキュリティで保護するための計画を作成します。 アプリケーション配信チェックリストを使用して、推奨事項を確認できます。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3728,19 +3728,15 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-app-delivery</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>373f482f-3e39-4d39-8aa4-7e566f6082b6</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>内部向けアプリ (corp) と外部向けアプリ (online) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3778,19 +3774,19 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J64" s="22" t="n"/>
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3806,12 +3802,12 @@
       </c>
       <c r="B65" s="21" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3828,15 +3824,19 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I65" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I65" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J65" s="22" t="n"/>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3857,13 +3857,13 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,19 +3874,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3902,18 +3897,18 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+          <t>MACsec がオプションではないシナリオ (ExpressRoute Direct を使用しない場合など) では、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3924,19 +3919,19 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J67" s="22" t="n"/>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3957,13 +3952,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
+          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3974,15 +3969,19 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I68" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I68" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="22" t="n"/>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4003,13 +4002,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有ネットワーク サービス、または中央ハブ仮想ネットワーク内のパートナーの NVA を確認します。必要に応じて、DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4020,7 +4019,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4028,7 +4027,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4049,13 +4048,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>パートナー ネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4066,7 +4065,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4074,7 +4073,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4095,7 +4094,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
+          <t>ハブ アンド スポーク シナリオで ExpressRoute と VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -4112,7 +4111,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4120,7 +4119,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4141,13 +4140,13 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
+          <t>Route Server を使用する場合は、Route Server サブネットに /27 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4158,19 +4157,15 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I72" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/route-server/quickstart-configure-route-server-portal#create-a-route-server-1</t>
+        </is>
+      </c>
+      <c r="I72" s="15" t="n"/>
       <c r="J72" s="22" t="n"/>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>91b9d7d5-91e1-4dcb-8f1f-fa7e465646cc</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4191,7 +4186,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャでは、ハブ VNet 間のグローバル仮想ネットワーク ピアリングを使用して、リージョンを相互に接続します。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4208,19 +4203,19 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J73" s="22" t="n"/>
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4241,7 +4236,7 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
+          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -4258,15 +4253,19 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I74" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I74" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J74" s="22" t="n"/>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4287,7 +4286,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数である VNet ピアリングの制限 (500) (1000) を考慮してください</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4312,7 +4311,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4333,13 +4332,13 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
+          <t>ルート テーブルあたりのルート数の制限 (400) を考慮します。</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4350,7 +4349,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4358,7 +4357,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
+          <t>3d457936-e9b7-41eb-bdff-314b26450b12</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4374,18 +4373,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用します</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4396,19 +4395,15 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I77" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I77" s="15" t="n"/>
       <c r="J77" s="22" t="n"/>
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4429,14 +4424,10 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
-        </is>
-      </c>
-      <c r="D78" s="21" t="inlineStr">
-        <is>
-          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
-        </is>
-      </c>
+          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+        </is>
+      </c>
+      <c r="D78" s="21" t="n"/>
       <c r="E78" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4450,7 +4441,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I78" s="15" t="inlineStr">
@@ -4462,7 +4453,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4483,10 +4474,14 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
-        </is>
-      </c>
-      <c r="D79" s="21" t="n"/>
+          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+        </is>
+      </c>
+      <c r="D79" s="21" t="inlineStr">
+        <is>
+          <t>AS パスのプリペンドと接続の重みを使用して、Azure からオンプレミスへのトラフィックに影響を与え、独自のルーターの全範囲の BGP 属性を使用して、オンプレミスから Azure へのトラフィックに影響を与えることができます。</t>
+        </is>
+      </c>
       <c r="E79" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -4512,7 +4507,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4533,13 +4528,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4550,15 +4545,19 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
-        </is>
-      </c>
-      <c r="I80" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
+        </is>
+      </c>
+      <c r="I80" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J80" s="22" t="n"/>
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4579,7 +4578,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
+          <t>無制限のデータ ExpressRoute 回線は、コストに見合った帯域幅に達した場合にのみ使用してください。</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4596,7 +4595,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+          <t>https://learn.microsoft.com/azure/expressroute/plan-manage-cost</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4604,7 +4603,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
+          <t>7025b442-f6e9-4af6-b11f-c9574916016f</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4625,13 +4624,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>回線のピアリングの場所がローカル SKU の Azure リージョンをサポートしている場合は、ExpressRoute のローカル SKU を利用して回線のコストを削減します。</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4642,19 +4641,15 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
-        </is>
-      </c>
-      <c r="I82" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs#expressroute-local</t>
+        </is>
+      </c>
+      <c r="I82" s="15" t="n"/>
       <c r="J82" s="22" t="n"/>
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f4e7926a-ec35-476e-a412-5dd17136bd62</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4675,7 +4670,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4692,7 +4687,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I83" s="15" t="inlineStr">
@@ -4704,7 +4699,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4725,7 +4720,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4742,7 +4737,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I84" s="15" t="inlineStr">
@@ -4754,7 +4749,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4775,7 +4770,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
+          <t>待機時間を短くする必要がある場合、またはオンプレミスから Azure へのスループットを 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4792,19 +4787,19 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="22" t="n"/>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4825,13 +4820,13 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4842,19 +4837,19 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/create-zone-redundant-vnet-gateway</t>
         </is>
       </c>
       <c r="I86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J86" s="22" t="n"/>
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4875,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4892,7 +4887,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
@@ -4904,7 +4899,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4925,7 +4920,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4942,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4954,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4975,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4992,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -5004,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5025,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5042,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5054,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5075,13 +5070,13 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
       <c r="E91" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5092,15 +5087,19 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
-        </is>
-      </c>
-      <c r="I91" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I91" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J91" s="22" t="n"/>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5116,12 +5115,12 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5138,19 +5137,15 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="n"/>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,18 +5161,18 @@
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5188,19 +5183,15 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I93" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I93" s="15" t="n"/>
       <c r="J93" s="22" t="n"/>
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5216,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
+          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5238,19 +5229,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5271,7 +5258,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5288,19 +5275,19 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5321,13 +5308,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5338,19 +5325,19 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="22" t="n"/>
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5371,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5388,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5421,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5438,15 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I98" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+        </is>
+      </c>
+      <c r="I98" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5467,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5484,7 +5475,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
@@ -5496,7 +5487,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,12 +5503,12 @@
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5534,15 +5525,19 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,18 +5553,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5580,7 +5575,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5588,7 +5583,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5604,12 +5599,12 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5626,19 +5621,19 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5659,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5676,19 +5671,15 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="n"/>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5709,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5726,19 +5717,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5759,13 +5746,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5776,19 +5763,19 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5809,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5826,19 +5813,19 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J106" s="22" t="n"/>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5859,13 +5846,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5876,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5909,13 +5896,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5926,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5959,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5976,15 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
-        </is>
-      </c>
-      <c r="I109" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I109" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6005,7 +5996,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6022,15 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I110" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6051,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
+          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6068,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6113,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6121,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6159,7 +6159,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6167,7 +6167,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
+          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6205,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6213,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6229,12 +6229,12 @@
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
+          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,19 +6251,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,18 +6274,18 @@
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
+          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
       <c r="E116" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -6301,19 +6296,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6329,18 +6319,18 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6351,19 +6341,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6384,13 +6369,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6401,7 +6386,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
@@ -6413,7 +6398,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6434,7 +6419,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6456,14 +6441,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6479,18 +6464,18 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
+          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
       <c r="E120" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -6501,15 +6486,19 @@
       <c r="G120" s="21" t="n"/>
       <c r="H120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I120" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6525,18 +6514,18 @@
       </c>
       <c r="B121" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
       <c r="E121" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -6547,15 +6536,19 @@
       <c r="G121" s="21" t="n"/>
       <c r="H121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I121" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6571,12 +6564,12 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
@@ -6593,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6622,13 +6619,13 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6639,19 +6636,15 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6672,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6689,19 +6682,15 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I124" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6722,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6737,17 +6726,17 @@
         </is>
       </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6768,7 +6757,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6785,19 +6774,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6818,7 +6807,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6835,19 +6824,19 @@
       <c r="G127" s="21" t="n"/>
       <c r="H127" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6863,12 +6852,12 @@
       </c>
       <c r="B128" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6883,21 +6872,17 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
+      <c r="H128" s="15" t="n"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6913,12 +6898,12 @@
       </c>
       <c r="B129" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6935,14 +6920,19 @@
       <c r="G129" s="21" t="n"/>
       <c r="H129" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6958,18 +6948,18 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
+          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
       <c r="E130" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6980,14 +6970,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7008,7 +7003,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7025,19 +7020,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7058,7 +7053,7 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
+          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7075,14 +7070,14 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7103,13 +7098,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7120,14 +7115,14 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7148,7 +7143,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7165,14 +7160,19 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7210,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7238,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7255,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,13 +7283,13 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
       <c r="E137" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -7300,14 +7300,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7318,23 +7318,23 @@
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B138" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
       <c r="E138" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -7345,14 +7345,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7363,17 +7363,17 @@
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B139" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7390,14 +7390,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,23 +7408,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7435,14 +7435,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7463,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7487,7 +7487,7 @@
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
+          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7525,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,13 +7553,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7570,14 +7570,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7622,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,14 +7643,10 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D145" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
-        </is>
-      </c>
+          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
+        </is>
+      </c>
+      <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7664,14 +7660,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,13 +7688,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7709,14 +7705,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,7 +7733,7 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
@@ -7754,19 +7750,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,18 +7773,22 @@
       </c>
       <c r="B148" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7804,14 +7799,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7822,17 +7817,17 @@
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B149" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7849,14 +7844,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,12 +7867,12 @@
       </c>
       <c r="B150" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>「実績」と「予測」の予算アラートを設定します。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7894,14 +7889,19 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7912,23 +7912,23 @@
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B151" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
       <c r="E151" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -7939,14 +7939,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7957,17 +7957,17 @@
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B152" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7984,14 +7984,14 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,17 +8002,17 @@
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8027,16 +8027,12 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
-        </is>
-      </c>
+      <c r="H153" s="15" t="n"/>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8047,23 +8043,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
+          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8074,14 +8070,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,12 +8093,12 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8119,19 +8115,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8142,17 +8133,17 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>「実績」と「予測」の予算アラートを設定します。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
@@ -8167,12 +8158,16 @@
         </is>
       </c>
       <c r="G156" s="21" t="n"/>
-      <c r="H156" s="15" t="n"/>
+      <c r="H156" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+        </is>
+      </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,18 +8183,18 @@
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8210,19 +8205,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8238,12 +8228,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8260,19 +8250,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8288,12 +8273,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8310,19 +8295,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8338,12 +8318,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8360,19 +8340,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8393,7 +8368,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8410,19 +8385,19 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8443,7 +8418,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8458,21 +8433,12 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H162" s="15" t="n"/>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8493,13 +8459,13 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
       <c r="E163" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8510,14 +8476,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8538,7 +8509,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8555,14 +8526,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8583,7 +8559,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
+          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8600,14 +8576,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8628,7 +8609,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8645,14 +8626,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8673,7 +8659,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8690,14 +8676,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8718,7 +8709,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8735,14 +8726,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8763,13 +8759,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8780,14 +8776,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8804,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,14 +8821,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,7 +8849,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8870,14 +8866,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8894,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8911,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,12 +8934,12 @@
       </c>
       <c r="B173" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8956,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,19 +8979,15 @@
       </c>
       <c r="B174" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="D174" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+        </is>
+      </c>
+      <c r="D174" s="21" t="n"/>
       <c r="E174" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9009,14 +9001,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9032,12 +9024,12 @@
       </c>
       <c r="B175" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9054,14 +9046,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9077,12 +9069,12 @@
       </c>
       <c r="B176" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9099,14 +9091,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9122,12 +9114,12 @@
       </c>
       <c r="B177" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9144,14 +9136,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9167,18 +9159,18 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
       <c r="E178" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -9189,14 +9181,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9212,18 +9204,18 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -9234,14 +9226,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9257,15 +9249,19 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9279,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,17 +9293,17 @@
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9324,14 +9320,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9342,17 +9338,17 @@
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9369,14 +9365,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9387,23 +9383,23 @@
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9414,14 +9410,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,23 +9428,23 @@
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9459,14 +9455,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9477,23 +9473,23 @@
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9500,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9522,17 +9518,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9545,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9572,12 +9568,12 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9594,14 +9590,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9617,12 +9613,12 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9635,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,13 +9663,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9684,14 +9680,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9712,7 +9708,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9729,14 +9725,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,7 +9753,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9781,7 +9777,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9798,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9815,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9843,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9867,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9888,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9912,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,12 +9928,12 @@
       </c>
       <c r="B195" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9954,14 +9950,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,12 +9973,12 @@
       </c>
       <c r="B196" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9999,14 +9995,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,18 +10018,18 @@
       </c>
       <c r="B197" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
       <c r="E197" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -10044,14 +10040,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,18 +10063,18 @@
       </c>
       <c r="B198" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
       <c r="E198" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -10089,14 +10085,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,18 +10108,18 @@
       </c>
       <c r="B199" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
       <c r="E199" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -10134,14 +10130,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,18 +10153,18 @@
       </c>
       <c r="B200" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
       <c r="E200" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -10179,14 +10175,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10202,12 +10198,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10224,14 +10220,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10248,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10265,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,18 +10288,18 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10314,14 +10310,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,12 +10333,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10355,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,12 +10378,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>特権アクセスの保護</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10404,14 +10400,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,18 +10423,18 @@
       </c>
       <c r="B206" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10449,14 +10445,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,18 +10468,18 @@
       </c>
       <c r="B207" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求の履行方法を計画する</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10494,14 +10490,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10512,23 +10508,23 @@
     <row r="208">
       <c r="A208" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B208" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10539,14 +10535,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10557,23 +10553,23 @@
     <row r="209">
       <c r="A209" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B209" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10580,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10602,23 +10598,23 @@
     <row r="210">
       <c r="A210" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B210" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
+          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10629,14 +10625,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,23 +10643,23 @@
     <row r="211">
       <c r="A211" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10674,14 +10670,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,23 +10688,23 @@
     <row r="212">
       <c r="A212" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10719,14 +10715,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,17 +10733,17 @@
     <row r="213">
       <c r="A213" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10764,14 +10760,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,23 +10778,23 @@
     <row r="214">
       <c r="A214" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>特権アクセスの保護</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
+          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10809,14 +10805,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,23 +10823,23 @@
     <row r="215">
       <c r="A215" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10854,14 +10850,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10872,23 +10868,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+          <t>Azure サービスのサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10895,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10922,18 +10918,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10944,14 +10940,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,18 +10963,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>開発戦略</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10985,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,18 +11008,18 @@
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11030,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11050,135 +11046,405 @@
       <c r="P219" s="25" t="n"/>
     </row>
     <row r="220">
-      <c r="A220" s="21" t="n"/>
-      <c r="B220" s="21" t="n"/>
-      <c r="C220" s="21" t="n"/>
+      <c r="A220" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B220" s="21" t="inlineStr">
+        <is>
+          <t>DevOps チーム トポロジ</t>
+        </is>
+      </c>
+      <c r="C220" s="21" t="inlineStr">
+        <is>
+          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+        </is>
+      </c>
       <c r="D220" s="21" t="n"/>
-      <c r="E220" s="21" t="n"/>
+      <c r="E220" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G220" s="21" t="n"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
-      <c r="L220" s="25" t="n"/>
+      <c r="L220" s="25" t="inlineStr">
+        <is>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+        </is>
+      </c>
       <c r="M220" s="25" t="n"/>
       <c r="N220" s="25" t="n"/>
       <c r="O220" s="25" t="n"/>
       <c r="P220" s="25" t="n"/>
     </row>
     <row r="221">
-      <c r="A221" s="21" t="n"/>
-      <c r="B221" s="21" t="n"/>
-      <c r="C221" s="21" t="n"/>
+      <c r="A221" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B221" s="21" t="inlineStr">
+        <is>
+          <t>DevOps チーム トポロジ</t>
+        </is>
+      </c>
+      <c r="C221" s="21" t="inlineStr">
+        <is>
+          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
+        </is>
+      </c>
       <c r="D221" s="21" t="n"/>
-      <c r="E221" s="21" t="n"/>
+      <c r="E221" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G221" s="21" t="n"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
-      <c r="L221" s="25" t="n"/>
+      <c r="L221" s="25" t="inlineStr">
+        <is>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+        </is>
+      </c>
       <c r="M221" s="25" t="n"/>
       <c r="N221" s="25" t="n"/>
       <c r="O221" s="25" t="n"/>
       <c r="P221" s="25" t="n"/>
     </row>
     <row r="222">
-      <c r="A222" s="21" t="n"/>
-      <c r="B222" s="21" t="n"/>
-      <c r="C222" s="21" t="n"/>
+      <c r="A222" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B222" s="21" t="inlineStr">
+        <is>
+          <t>DevOps チーム トポロジ</t>
+        </is>
+      </c>
+      <c r="C222" s="21" t="inlineStr">
+        <is>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+        </is>
+      </c>
       <c r="D222" s="21" t="n"/>
-      <c r="E222" s="21" t="n"/>
+      <c r="E222" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G222" s="21" t="n"/>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+        </is>
+      </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
-      <c r="L222" s="25" t="n"/>
+      <c r="L222" s="25" t="inlineStr">
+        <is>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+        </is>
+      </c>
       <c r="M222" s="25" t="n"/>
       <c r="N222" s="25" t="n"/>
       <c r="O222" s="25" t="n"/>
       <c r="P222" s="25" t="n"/>
     </row>
     <row r="223">
-      <c r="A223" s="21" t="n"/>
-      <c r="B223" s="21" t="n"/>
-      <c r="C223" s="21" t="n"/>
+      <c r="A223" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B223" s="21" t="inlineStr">
+        <is>
+          <t>DevOps チーム トポロジ</t>
+        </is>
+      </c>
+      <c r="C223" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
+        </is>
+      </c>
       <c r="D223" s="21" t="n"/>
-      <c r="E223" s="21" t="n"/>
+      <c r="E223" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G223" s="21" t="n"/>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+        </is>
+      </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
-      <c r="L223" s="25" t="n"/>
+      <c r="L223" s="25" t="inlineStr">
+        <is>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+        </is>
+      </c>
       <c r="M223" s="25" t="n"/>
       <c r="N223" s="25" t="n"/>
       <c r="O223" s="25" t="n"/>
       <c r="P223" s="25" t="n"/>
     </row>
     <row r="224">
-      <c r="A224" s="21" t="n"/>
-      <c r="B224" s="21" t="n"/>
-      <c r="C224" s="21" t="n"/>
+      <c r="A224" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B224" s="21" t="inlineStr">
+        <is>
+          <t>開発ライフサイクル</t>
+        </is>
+      </c>
+      <c r="C224" s="21" t="inlineStr">
+        <is>
+          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
+        </is>
+      </c>
       <c r="D224" s="21" t="n"/>
-      <c r="E224" s="21" t="n"/>
+      <c r="E224" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G224" s="21" t="n"/>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
-      <c r="L224" s="25" t="n"/>
+      <c r="L224" s="25" t="inlineStr">
+        <is>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+        </is>
+      </c>
       <c r="M224" s="25" t="n"/>
       <c r="N224" s="25" t="n"/>
       <c r="O224" s="25" t="n"/>
       <c r="P224" s="25" t="n"/>
     </row>
     <row r="225">
-      <c r="A225" s="21" t="n"/>
-      <c r="B225" s="21" t="n"/>
-      <c r="C225" s="21" t="n"/>
+      <c r="A225" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B225" s="21" t="inlineStr">
+        <is>
+          <t>開発ライフサイクル</t>
+        </is>
+      </c>
+      <c r="C225" s="21" t="inlineStr">
+        <is>
+          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+        </is>
+      </c>
       <c r="D225" s="21" t="n"/>
-      <c r="E225" s="21" t="n"/>
+      <c r="E225" s="21" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G225" s="21" t="n"/>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
-      <c r="L225" s="25" t="n"/>
+      <c r="L225" s="25" t="inlineStr">
+        <is>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+        </is>
+      </c>
       <c r="M225" s="25" t="n"/>
       <c r="N225" s="25" t="n"/>
       <c r="O225" s="25" t="n"/>
       <c r="P225" s="25" t="n"/>
     </row>
     <row r="226">
-      <c r="A226" s="21" t="n"/>
-      <c r="B226" s="21" t="n"/>
-      <c r="C226" s="21" t="n"/>
+      <c r="A226" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B226" s="21" t="inlineStr">
+        <is>
+          <t>開発ライフサイクル</t>
+        </is>
+      </c>
+      <c r="C226" s="21" t="inlineStr">
+        <is>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+        </is>
+      </c>
       <c r="D226" s="21" t="n"/>
-      <c r="E226" s="21" t="n"/>
+      <c r="E226" s="21" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G226" s="21" t="n"/>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+        </is>
+      </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
-      <c r="L226" s="25" t="n"/>
+      <c r="L226" s="25" t="inlineStr">
+        <is>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+        </is>
+      </c>
       <c r="M226" s="25" t="n"/>
       <c r="N226" s="25" t="n"/>
       <c r="O226" s="25" t="n"/>
       <c r="P226" s="25" t="n"/>
     </row>
     <row r="227">
-      <c r="A227" s="21" t="n"/>
-      <c r="B227" s="21" t="n"/>
-      <c r="C227" s="21" t="n"/>
+      <c r="A227" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B227" s="21" t="inlineStr">
+        <is>
+          <t>開発戦略</t>
+        </is>
+      </c>
+      <c r="C227" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+        </is>
+      </c>
       <c r="D227" s="21" t="n"/>
-      <c r="E227" s="21" t="n"/>
+      <c r="E227" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G227" s="21" t="n"/>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
-      <c r="L227" s="25" t="n"/>
+      <c r="L227" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M227" s="25" t="n"/>
       <c r="N227" s="25" t="n"/>
       <c r="O227" s="25" t="n"/>
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12365,7 +12631,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F220" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory Domains Services (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADDS をデプロイします</t>
+          <t>Windows Server に Active Directory をデプロイする場合は、可用性ゾーンのある場所を使用し、これらのゾーンに少なくとも 2 つの VM をデプロイします。使用できない場合は、可用性セットにデプロイします</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2413,7 +2413,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
         </is>
       </c>
       <c r="I36" s="15" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用されている場合、Azure のリソースは正しいドメイン コントローラーを使用していますか?</t>
+          <t>ドメイン コントローラーが使用されている場合は、リソースが正しいドメイン コントローラーを使用するように設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークを使用して ID (ADDS) ネットワーク セグメント化を構成し、ハブにピア バックします。アプリケーション ランディング ゾーン (レガシ) 内での認証の提供。</t>
+          <t>仮想ネットワークを使用して ID ネットワークのセグメント化を構成し、ハブにピアリングバックします。アプリケーション ランディング ゾーン (レガシ) 内での認証の提供。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Windows Server 上の AD の場合は、Windows Server Active Directory ドメイン コントローラーをホストするために、Indentity 管理グループに専用の ID サブスクリプションを確立します</t>
+          <t>ドメイン コントローラーなどの ID サービスにサーバーを使用する場合は、ID 管理グループに専用の ID サブスクリプションを確立して、これらのサービスをホストします</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>AD DS を実行している VM をドメイン コントローラーとして少なくとも 2 つデプロイする場合は、それらを異なる可用性ゾーンに追加します。リージョンで使用できない場合は、可用性セットにデプロイします。</t>
+          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -5137,7 +5137,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain#vm-recommendations</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5145,7 +5145,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>2df4930f-6a43-49a3-926b-309f02c302f0</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
+          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5183,7 +5183,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5191,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5207,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,15 +5229,19 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5258,13 +5262,13 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5287,7 +5291,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5308,13 +5312,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5337,7 +5341,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5375,19 +5379,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5408,13 +5412,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5425,7 +5429,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
@@ -5437,7 +5441,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5458,7 +5462,7 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
@@ -5475,19 +5479,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5508,13 +5512,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5525,19 +5529,15 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
-        </is>
-      </c>
-      <c r="I100" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I100" s="15" t="n"/>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,15 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I101" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I101" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5599,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5621,19 +5625,15 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I102" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I102" s="15" t="n"/>
       <c r="J102" s="22" t="n"/>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5654,7 +5654,7 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
+          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
@@ -5671,7 +5671,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5679,7 +5679,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5700,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,15 +5717,19 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5746,13 +5750,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5763,7 +5767,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I105" s="15" t="inlineStr">
@@ -5775,7 +5779,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5796,13 +5800,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
+          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5825,7 +5829,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5846,13 +5850,13 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5863,19 +5867,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5896,13 +5900,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5913,7 +5917,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
@@ -5925,7 +5929,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5946,13 +5950,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5968,14 +5972,14 @@
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5996,7 +6000,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -6013,19 +6017,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6046,7 +6050,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6063,19 +6067,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6113,7 +6112,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6121,7 +6120,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6142,7 +6141,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
+          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6167,7 +6166,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6188,7 +6187,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
+          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6205,7 +6204,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6213,7 +6212,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6234,7 +6233,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
+          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6251,14 +6250,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6279,7 +6278,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6296,14 +6295,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6319,12 +6318,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6341,14 +6340,19 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6369,13 +6373,13 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
+          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6386,19 +6390,19 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6419,7 +6423,7 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
+          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6441,14 +6445,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6469,7 +6473,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6491,14 +6495,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6519,7 +6523,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
+          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6548,7 +6552,7 @@
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6564,18 +6568,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6586,19 +6590,15 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
+          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6636,7 +6636,7 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
         </is>
       </c>
       <c r="I123" s="15" t="n"/>
@@ -6644,7 +6644,7 @@
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6665,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6682,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6690,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
@@ -6728,15 +6728,19 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6757,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6774,19 +6778,19 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6807,7 +6811,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6822,11 +6826,7 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
+      <c r="H127" s="15" t="n"/>
       <c r="I127" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6836,7 +6836,7 @@
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6872,7 +6872,11 @@
         </is>
       </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
@@ -6882,7 +6886,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6925,14 +6929,14 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6948,12 +6952,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6970,19 +6974,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7003,7 +7007,7 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7020,19 +7024,14 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7053,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7077,7 +7076,7 @@
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7098,13 +7097,13 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
       <c r="E133" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -7116,13 +7115,18 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7160,19 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7193,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7210,14 +7209,14 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7238,7 +7237,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
+          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7255,14 +7254,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7283,7 +7282,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7300,14 +7299,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7328,7 +7327,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7345,14 +7344,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7373,13 +7372,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7390,14 +7389,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7408,17 +7407,17 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>ネットワークトポロジと接続性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7435,14 +7434,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7463,13 +7462,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7480,14 +7479,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7508,7 +7507,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7525,14 +7524,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7553,7 +7552,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7577,7 +7576,7 @@
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7598,7 +7597,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7622,7 +7621,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7643,13 +7642,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7660,14 +7659,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7688,13 +7687,13 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
       <c r="E146" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -7705,14 +7704,14 @@
       <c r="G146" s="21" t="n"/>
       <c r="H146" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J146" s="22" t="n"/>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7733,10 +7732,14 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="E147" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7750,14 +7753,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7778,14 +7781,10 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D148" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
-        </is>
-      </c>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+        </is>
+      </c>
+      <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7799,14 +7798,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,7 +7826,7 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D149" s="21" t="n"/>
@@ -7844,14 +7843,19 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7872,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7889,19 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7922,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
+          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7939,14 +7938,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7967,7 +7966,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
+          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7982,16 +7981,12 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
-        </is>
-      </c>
+      <c r="H152" s="15" t="n"/>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8007,18 +8002,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
+          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8027,12 +8022,16 @@
         </is>
       </c>
       <c r="G153" s="21" t="n"/>
-      <c r="H153" s="15" t="n"/>
+      <c r="H153" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+        </is>
+      </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8043,23 +8042,23 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
+          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
       <c r="E154" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8070,14 +8069,14 @@
       <c r="G154" s="21" t="n"/>
       <c r="H154" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8088,17 +8087,17 @@
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
+          <t>「実績」と「予測」の予算アラートを設定します。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
@@ -8115,14 +8114,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8133,23 +8132,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>「実績」と「予測」の予算アラートを設定します。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8160,14 +8159,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8188,13 +8187,13 @@
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
       <c r="E157" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8205,14 +8204,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8228,12 +8227,12 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8250,14 +8249,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8295,14 +8294,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8318,12 +8317,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8340,14 +8339,19 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8368,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8383,21 +8387,12 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+      <c r="H161" s="15" t="n"/>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8418,7 +8413,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8433,12 +8428,21 @@
         </is>
       </c>
       <c r="G162" s="21" t="n"/>
-      <c r="H162" s="15" t="n"/>
+      <c r="H162" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8459,7 +8463,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8476,19 +8480,19 @@
       <c r="G163" s="21" t="n"/>
       <c r="H163" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8509,7 +8513,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8526,19 +8530,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8559,7 +8563,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
+          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8576,19 +8580,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8609,7 +8613,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8626,19 +8630,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8659,7 +8663,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8676,19 +8680,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8709,13 +8713,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8726,19 +8730,14 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8759,13 +8758,13 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
       <c r="E169" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8776,14 +8775,14 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8804,7 +8803,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8821,14 +8820,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8849,7 +8848,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8866,14 +8865,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8894,7 +8893,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8911,14 +8910,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8939,7 +8938,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8956,14 +8955,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8984,7 +8983,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9001,14 +9000,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9029,7 +9028,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9046,14 +9045,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9074,7 +9073,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9091,14 +9090,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9119,7 +9118,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9136,14 +9135,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9159,12 +9158,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9181,14 +9180,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9209,10 +9208,14 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9226,14 +9229,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9249,19 +9252,15 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="D180" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+        </is>
+      </c>
+      <c r="D180" s="21" t="n"/>
       <c r="E180" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9275,14 +9274,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,7 +9302,7 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9320,14 +9319,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,7 +9347,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9365,14 +9364,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9388,18 +9387,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9410,14 +9409,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9438,7 +9437,7 @@
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9455,14 +9454,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9483,13 +9482,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9500,14 +9499,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9518,17 +9517,17 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9545,14 +9544,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9573,7 +9572,7 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9590,14 +9589,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9613,18 +9612,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9635,14 +9634,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9663,13 +9662,13 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9680,14 +9679,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9708,7 +9707,7 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9725,14 +9724,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9753,7 +9752,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9777,7 +9776,7 @@
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9798,7 +9797,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9822,7 +9821,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9843,7 +9842,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9867,7 +9866,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9888,7 +9887,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9912,7 +9911,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9933,7 +9932,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9950,14 +9949,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9978,7 +9977,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -9995,14 +9994,14 @@
       <c r="G196" s="21" t="n"/>
       <c r="H196" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J196" s="22" t="n"/>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10023,7 +10022,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10040,14 +10039,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10068,7 +10067,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10085,14 +10084,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10113,7 +10112,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10137,7 +10136,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10158,7 +10157,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10175,14 +10174,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10198,12 +10197,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10220,14 +10219,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10248,7 +10247,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10265,14 +10264,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10293,13 +10292,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10310,14 +10309,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10338,7 +10337,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10355,14 +10354,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10383,7 +10382,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10400,14 +10399,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10428,7 +10427,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10445,14 +10444,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10473,13 +10472,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10490,14 +10489,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10535,14 +10534,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10563,7 +10562,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10580,14 +10579,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10608,7 +10607,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
+          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10625,14 +10624,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10648,18 +10647,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10670,14 +10669,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10698,7 +10697,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10715,14 +10714,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10738,12 +10737,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>特権アクセスの保護</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10760,14 +10759,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10783,18 +10782,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>特権アクセスの保護</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10805,14 +10804,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10833,7 +10832,7 @@
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>Azure サービスのサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10857,7 +10856,7 @@
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10868,23 +10867,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>プラットフォームの自動化とDevOps</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求の履行方法を計画する</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10895,14 +10894,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10923,13 +10922,13 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10940,14 +10939,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10968,7 +10967,7 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
+          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
@@ -10992,7 +10991,7 @@
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11013,13 +11012,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
+          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11030,14 +11029,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11058,13 +11057,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11075,14 +11074,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11103,13 +11102,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11127,7 +11126,7 @@
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11148,13 +11147,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11165,14 +11164,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11188,18 +11187,18 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
+          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11210,14 +11209,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11238,13 +11237,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
+          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11255,14 +11254,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11283,13 +11282,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11307,7 +11306,7 @@
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11323,18 +11322,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>開発戦略</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11345,14 +11344,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11368,12 +11367,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>開発戦略</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11390,14 +11389,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11406,45 +11405,15 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="inlineStr">
-        <is>
-          <t>プラットフォームの自動化とDevOps</t>
-        </is>
-      </c>
-      <c r="B228" s="21" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-      <c r="C228" s="21" t="inlineStr">
-        <is>
-          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
-        </is>
-      </c>
+      <c r="A228" s="21" t="n"/>
+      <c r="B228" s="21" t="n"/>
+      <c r="C228" s="21" t="n"/>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="inlineStr">
-        <is>
-          <t>高い</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>未確認</t>
-        </is>
-      </c>
+      <c r="E228" s="21" t="n"/>
       <c r="G228" s="21" t="n"/>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
-        </is>
-      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="inlineStr">
-        <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
-        </is>
-      </c>
+      <c r="L228" s="25" t="n"/>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
@@ -12631,7 +12600,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F229" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -2446,7 +2446,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します</t>
+          <t>Entra Domain Servicesを使用している場合は、すべてのワークロードの互換性を評価します</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイをデプロイします (使用可能な場合)。</t>
+          <t>ゾーン冗長 VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します (使用可能な場合)。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4870,13 +4870,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
+          <t>冗長 VPN アプライアンスをオンプレミス (アクティブ/アクティブまたはアクティブ/パッシブ) で使用します。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4887,19 +4887,19 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-highlyavailable</t>
         </is>
       </c>
       <c r="I87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-vpn-gateway/</t>
         </is>
       </c>
       <c r="J87" s="22" t="n"/>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
+          <t>45866df8-cf85-4ca9-bbe2-65ec1478919e</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4920,13 +4920,13 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
+          <t>ExpressRoute Direct を使用する場合は、コストを節約するために、ローカルの Azure リージョンへの ExpressRoute Local 回線の使用を検討してください</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4937,7 +4937,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I88" s="15" t="inlineStr">
@@ -4949,7 +4949,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>718cb437-b060-2589-8856-2e93a5c6633b</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、ルーティング ドメインが分離され、ノイジー ネイバーのリスクが軽減されます。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4987,7 +4987,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I89" s="15" t="inlineStr">
@@ -4999,7 +4999,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
+          <t>組み込みの Express Route Insights を使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -5037,7 +5037,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I90" s="15" t="inlineStr">
@@ -5049,7 +5049,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
+          <t>接続モニターは、ネットワーク全体 (特にオンプレミスと Azure 間) の接続を監視するために使用します。</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5087,7 +5087,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I91" s="15" t="inlineStr">
@@ -5099,7 +5099,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5120,13 +5120,13 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
+          <t>冗長性のために、異なるピアリングの場所からの ExpressRoute 回線を使用します。</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5137,15 +5137,19 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
-        </is>
-      </c>
-      <c r="I92" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+        </is>
+      </c>
+      <c r="I92" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J92" s="22" t="n"/>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5166,13 +5170,13 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
+          <t>ExpressRoute のフェールオーバーとしてサイト間 VPN を使用します (特に、1 つの ExpressRoute 回線のみを使用する場合)。</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5183,7 +5187,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5191,7 +5195,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
+          <t>cf3fe65c-fec0-495a-8edc-9675200f2add</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5207,12 +5211,12 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>GatewaySubnet でルート テーブルを使用している場合は、ゲートウェイ ルートが伝達されていることを確認します。</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
@@ -5229,19 +5233,15 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I94" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/vpn-gateway/vpn-gateway-about-vpn-gateway-settings#gwsub</t>
+        </is>
+      </c>
+      <c r="I94" s="15" t="n"/>
       <c r="J94" s="22" t="n"/>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>72105cc8-aaea-4ee1-8c7a-ad25977afcaf</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5257,18 +5257,18 @@
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
+          <t>ExpressRoute を使用する場合、オンプレミスのルーティングは動的である必要があり、接続障害が発生した場合は、回線の残りの接続に収束する必要があります。負荷は、アクティブ/パッシブもサポートされていますが、理想的にはアクティブ/アクティブとして両方の接続で共有する必要があります。</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
       <c r="E95" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5279,19 +5279,15 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I95" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-high-availability-with-expressroute#active-active-connections</t>
+        </is>
+      </c>
+      <c r="I95" s="15" t="n"/>
       <c r="J95" s="22" t="n"/>
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>d581a947-69a2-4783-942e-9df3664324c8</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5312,7 +5308,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5341,7 +5337,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5362,13 +5358,13 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>プライベート インターネットのアドレス割り当て範囲 (RFC 1918) の IP アドレスを使用します。</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
       <c r="E97" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5379,19 +5375,19 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="22" t="n"/>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5412,13 +5408,13 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しないようにします</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5429,19 +5425,19 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J98" s="22" t="n"/>
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5462,13 +5458,13 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5479,19 +5475,19 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J99" s="22" t="n"/>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5512,13 +5508,13 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
+          <t>Azure での名前解決のみが必要な環境では、名前解決用の委任されたゾーン ('azure.contoso.com' など) を使用して解決に Azure プライベート DNS を使用します。</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5532,12 +5528,16 @@
           <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I100" s="15" t="n"/>
+      <c r="I100" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J100" s="22" t="n"/>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5558,13 +5558,13 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、Azure DNS Private Resolver の使用を検討してください。</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5575,19 +5575,19 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/dns/dns-private-resolver-overview</t>
         </is>
       </c>
       <c r="I101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/training/modules/intro-to-azure-dns-private-resolver/</t>
         </is>
       </c>
       <c r="J101" s="22" t="n"/>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5603,18 +5603,18 @@
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードでは、優先 DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5625,7 +5625,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5633,7 +5633,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5649,18 +5649,18 @@
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
+          <t>Azure DNS の自動登録を有効にすると、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルが自動的に管理されます。</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5671,15 +5671,19 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
-        </is>
-      </c>
-      <c r="I103" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I103" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J103" s="22" t="n"/>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5700,13 +5704,13 @@
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
+          <t>Azure Bastion を使用してネットワークに安全に接続することを検討してください。</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5717,19 +5721,15 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I104" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-overview</t>
+        </is>
+      </c>
+      <c r="I104" s="15" t="n"/>
       <c r="J104" s="22" t="n"/>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>ee1ac551-c4d5-46cf-b035-d0a3c50d87ad</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
+          <t>Azure Bastion は、サブネット /26 以上で使用します。</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5767,19 +5767,15 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I105" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/bastion/bastion-faq#subnet</t>
+        </is>
+      </c>
+      <c r="I105" s="15" t="n"/>
       <c r="J105" s="22" t="n"/>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>6eab9eb6-762b-485e-8ea8-15aa5dba0bd0</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5800,13 +5796,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、East/West トラフィック フィルター処理 (組織で必要な場合) を管理します</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5817,7 +5813,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I106" s="15" t="inlineStr">
@@ -5829,7 +5825,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5850,7 +5846,7 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
+          <t>グローバル ネットワーク環境全体のセキュリティ体制を管理するグローバル Azure Firewall ポリシーを作成し、それをすべての Azure Firewall インスタンスに割り当てます。Azure のロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカルのセキュリティ チームに委任することで、特定のリージョンの要件を満たすきめ細かなポリシーが可能になります。</t>
         </is>
       </c>
       <c r="D107" s="21" t="n"/>
@@ -5867,19 +5863,19 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J107" s="22" t="n"/>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5900,7 +5896,7 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
+          <t>組織がそのようなソリューションを使用してアウトバウンド接続を保護する場合は、Firewall Manager 内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D108" s="21" t="n"/>
@@ -5917,19 +5913,19 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I108" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J108" s="22" t="n"/>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5950,13 +5946,13 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン全体でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
       <c r="E109" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -5967,19 +5963,19 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J109" s="22" t="n"/>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6000,13 +5996,13 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Application Gateway をロックダウンして、Azure Front Door からのトラフィックのみを受信するようにします。</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6017,19 +6013,19 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J110" s="22" t="n"/>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6050,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
+          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6067,14 +6063,19 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6095,7 +6096,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
+          <t>Azure DDoS ネットワークまたは IP Protection プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -6112,15 +6113,19 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
-        </is>
-      </c>
-      <c r="I112" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I112" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="22" t="n"/>
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6141,7 +6146,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
+          <t>FQDN ベースのネットワーク ルールと DNS プロキシを備えた Azure Firewall を使用して、アプリケーション ルールでサポートされていないプロトコルを介してインターネットへのエグレス トラフィックをフィルター処理します。</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -6158,7 +6163,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
+          <t>https://learn.microsoft.com/azure/firewall/fqdn-filtering-network-rules</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6166,7 +6171,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
+          <t>14d99880-2f88-47e8-a134-62a7d85c94af</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6187,7 +6192,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
+          <t>Azure Firewall Premium を使用して、セキュリティと保護を強化します。</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6204,7 +6209,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6212,7 +6217,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
+          <t>c10d51ef-f999-455d-bba0-5c90ece07447</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6233,7 +6238,7 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
+          <t>保護を強化するために、Azure Firewall 脅威インテリジェンス モードを [アラート] と [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
@@ -6250,14 +6255,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
+          <t>e9c8f584-6d5e-473b-8dc5-acc9fbaab4e3</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6278,7 +6283,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
+          <t>保護を強化するために、Azure Firewall IDPS モードを [拒否] に構成します。</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6295,14 +6300,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+          <t>https://learn.microsoft.com/azure/firewall/premium-features#idps</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
+          <t>b9d0dff5-bdd4-4cd8-88ed-5811610b2b2c</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6318,12 +6323,12 @@
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
+          <t>Virtual WAN に接続されていない VNet 内のサブネットの場合は、インターネット トラフィックが Azure Firewall またはネットワーク仮想アプライアンスにリダイレクトされるようにルート テーブルをアタッチします</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6340,19 +6345,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-udr-overview</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>a3784907-9836-4271-aafc-93535f8ec08b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6368,18 +6368,18 @@
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
+          <t>今後の破壊的変更の前に、ネットワーク送信トラフィックの構成と戦略を評価および確認します。2025 年 9 月 30 日に、新しいデプロイの既定の送信アクセスは廃止され、明示的なアクセス構成のみが許可されます</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
       <c r="E118" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -6390,19 +6390,15 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/ip-services/default-outbound-access</t>
+        </is>
+      </c>
+      <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b034c01e-110b-463a-b36e-e3346e57f225</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6423,13 +6419,13 @@
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
       <c r="E119" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -6440,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6473,7 +6469,7 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
+          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6495,14 +6491,14 @@
       </c>
       <c r="I120" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="25" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M120" s="25" t="n"/>
@@ -6523,7 +6519,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>オンプレミスからプライベート エンドポイントと ExpressRoute プライベート ピアリングを介して Azure PaaS サービスにアクセスします。この方法では、パブリック インターネット経由のトランジットが回避されます。</t>
         </is>
       </c>
       <c r="D121" s="21" t="n"/>
@@ -6545,14 +6541,14 @@
       </c>
       <c r="I121" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="25" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M121" s="25" t="n"/>
@@ -6568,18 +6564,18 @@
       </c>
       <c r="B122" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
+          <t>すべてのサブネットで仮想ネットワーク サービス エンドポイントを既定で有効にしないでください。</t>
         </is>
       </c>
       <c r="D122" s="21" t="n"/>
       <c r="E122" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -6590,15 +6586,19 @@
       <c r="G122" s="21" t="n"/>
       <c r="H122" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
-        </is>
-      </c>
-      <c r="I122" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="25" t="inlineStr">
         <is>
-          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M122" s="25" t="n"/>
@@ -6614,18 +6614,18 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS(パーエス)</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
+          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
       <c r="E123" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -6636,15 +6636,19 @@
       <c r="G123" s="21" t="n"/>
       <c r="H123" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
-        </is>
-      </c>
-      <c r="I123" s="15" t="n"/>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I123" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="25" t="inlineStr">
         <is>
-          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M123" s="25" t="n"/>
@@ -6665,13 +6669,13 @@
       </c>
       <c r="C124" s="21" t="inlineStr">
         <is>
-          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
+          <t>Azure Firewall サブネットに /26 プレフィックスを使用します。</t>
         </is>
       </c>
       <c r="D124" s="21" t="n"/>
       <c r="E124" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -6682,7 +6686,7 @@
       <c r="G124" s="21" t="n"/>
       <c r="H124" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
+          <t>https://learn.microsoft.com/azure/firewall/firewall-faq#why-does-azure-firewall-need-a--26-subnet-size</t>
         </is>
       </c>
       <c r="I124" s="15" t="n"/>
@@ -6690,7 +6694,7 @@
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="25" t="inlineStr">
         <is>
-          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
+          <t>22d6419e-b627-4d95-9e7d-019fa759387f</t>
         </is>
       </c>
       <c r="M124" s="25" t="n"/>
@@ -6711,13 +6715,13 @@
       </c>
       <c r="C125" s="21" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>Gateway サブネットに少なくとも /27 プレフィックスを使用する</t>
         </is>
       </c>
       <c r="D125" s="21" t="n"/>
       <c r="E125" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -6728,19 +6732,15 @@
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I125" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-add-gateway-resource-manager#add-a-gateway</t>
+        </is>
+      </c>
+      <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="25" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>f2aad7e3-bb03-4adc-8606-4123d342a917</t>
         </is>
       </c>
       <c r="M125" s="25" t="n"/>
@@ -6761,7 +6761,7 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>接続を制限するために、VirtualNetwork サービス タグを使用する NSG 受信の既定の規則に依存しないでください。</t>
         </is>
       </c>
       <c r="D126" s="21" t="n"/>
@@ -6778,19 +6778,14 @@
       <c r="G126" s="21" t="n"/>
       <c r="H126" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/service-tags-overview#available-service-tags</t>
         </is>
       </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="25" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>11deb39d-8299-4e47-bbe0-0fb5a36318a8</t>
         </is>
       </c>
       <c r="M126" s="25" t="n"/>
@@ -6811,7 +6806,7 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D127" s="21" t="n"/>
@@ -6826,17 +6821,21 @@
         </is>
       </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="25" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M127" s="25" t="n"/>
@@ -6857,7 +6856,7 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D128" s="21" t="n"/>
@@ -6874,7 +6873,7 @@
       <c r="G128" s="21" t="n"/>
       <c r="H128" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6886,7 +6885,7 @@
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="25" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M128" s="25" t="n"/>
@@ -6907,7 +6906,7 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D129" s="21" t="n"/>
@@ -6922,21 +6921,17 @@
         </is>
       </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
+      <c r="H129" s="15" t="n"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="25" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M129" s="25" t="n"/>
@@ -6952,12 +6947,12 @@
       </c>
       <c r="B130" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -6974,19 +6969,19 @@
       <c r="G130" s="21" t="n"/>
       <c r="H130" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M130" s="25" t="n"/>
@@ -7002,12 +6997,12 @@
       </c>
       <c r="B131" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>VNet フロー ログを有効にして Traffic Analytics にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D131" s="21" t="n"/>
@@ -7024,14 +7019,19 @@
       <c r="G131" s="21" t="n"/>
       <c r="H131" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M131" s="25" t="n"/>
@@ -7052,13 +7052,13 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
       <c r="E132" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -7069,14 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7097,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7115,18 +7120,13 @@
       <c r="H133" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7147,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7164,14 +7164,14 @@
       <c r="G134" s="21" t="n"/>
       <c r="H134" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7209,14 +7209,19 @@
       <c r="G135" s="21" t="n"/>
       <c r="H135" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7237,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7254,14 +7259,14 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7282,7 +7287,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7299,14 +7304,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7327,7 +7332,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7344,14 +7349,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7372,13 +7377,13 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
       <c r="E139" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7389,14 +7394,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7407,23 +7412,23 @@
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B140" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
       <c r="E140" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7434,14 +7439,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7452,23 +7457,23 @@
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B141" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7479,14 +7484,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7507,13 +7512,13 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
       <c r="E142" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7531,7 +7536,7 @@
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7552,7 +7557,7 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
@@ -7569,14 +7574,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7597,7 +7602,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7621,7 +7626,7 @@
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7642,13 +7647,13 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
       <c r="E145" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7659,14 +7664,14 @@
       <c r="G145" s="21" t="n"/>
       <c r="H145" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J145" s="22" t="n"/>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7687,7 +7692,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7711,7 +7716,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7732,17 +7737,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D147" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
-        </is>
-      </c>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+        </is>
+      </c>
+      <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7753,14 +7754,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7781,7 +7782,7 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
@@ -7805,7 +7806,7 @@
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7826,10 +7827,14 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7843,19 +7848,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D150" s="21" t="n"/>
@@ -7893,14 +7893,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,14 +7938,19 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7966,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
+          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7981,12 +7986,16 @@
         </is>
       </c>
       <c r="G152" s="21" t="n"/>
-      <c r="H152" s="15" t="n"/>
+      <c r="H152" s="15" t="inlineStr">
+        <is>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+        </is>
+      </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8002,18 +8011,18 @@
       </c>
       <c r="B153" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
+          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
       <c r="E153" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8024,14 +8033,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8042,17 +8051,17 @@
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B154" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
+          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8067,16 +8076,12 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
-        </is>
-      </c>
+      <c r="H154" s="15" t="n"/>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,13 +8102,13 @@
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>「実績」と「予測」の予算アラートを設定します。</t>
+          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8114,14 +8119,14 @@
       <c r="G155" s="21" t="n"/>
       <c r="H155" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8137,18 +8142,18 @@
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8159,14 +8164,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8177,17 +8182,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>「実績」と「予測」の予算アラートを設定します。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8204,14 +8209,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,18 +8232,18 @@
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8249,14 +8254,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8272,12 +8277,12 @@
       </c>
       <c r="B159" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
@@ -8294,14 +8299,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8317,12 +8322,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8339,19 +8344,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B161" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8387,12 +8387,16 @@
         </is>
       </c>
       <c r="G161" s="21" t="n"/>
-      <c r="H161" s="15" t="n"/>
+      <c r="H161" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+        </is>
+      </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8413,7 +8417,7 @@
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8430,19 +8434,19 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8463,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>ランディング・ゾーンが文書化されていることを確認します。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8478,21 +8482,12 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
-        </is>
-      </c>
+      <c r="H163" s="15" t="n"/>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8513,7 +8508,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
+          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8530,19 +8525,19 @@
       <c r="G164" s="21" t="n"/>
       <c r="H164" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8563,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8580,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8613,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8630,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8663,7 +8658,7 @@
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8680,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8713,13 +8708,13 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
       <c r="E168" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8730,14 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,14 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8803,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8820,14 +8825,14 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8848,7 +8853,7 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
@@ -8865,14 +8870,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8893,7 +8898,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8910,14 +8915,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8938,7 +8943,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8955,14 +8960,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8983,7 +8988,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9000,14 +9005,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9028,7 +9033,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9045,14 +9050,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9073,7 +9078,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9090,14 +9095,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9118,7 +9123,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9135,14 +9140,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9158,12 +9163,12 @@
       </c>
       <c r="B178" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9180,14 +9185,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9203,19 +9208,15 @@
       </c>
       <c r="B179" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="D179" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
+        </is>
+      </c>
+      <c r="D179" s="21" t="n"/>
       <c r="E179" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9229,14 +9230,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9252,12 +9253,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9274,14 +9275,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9297,15 +9298,19 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9319,14 +9324,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,7 +9352,7 @@
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D182" s="21" t="n"/>
@@ -9364,14 +9369,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9387,18 +9392,18 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9409,14 +9414,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9432,18 +9437,18 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護と回復</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9454,14 +9459,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,13 +9487,13 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9499,14 +9504,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9517,23 +9522,23 @@
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9544,14 +9549,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9562,17 +9567,17 @@
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
@@ -9589,14 +9594,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,18 +9617,18 @@
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9634,14 +9639,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9657,12 +9662,12 @@
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9679,14 +9684,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,13 +9712,13 @@
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9724,14 +9729,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9752,7 +9757,7 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
@@ -9769,14 +9774,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9797,7 +9802,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9821,7 +9826,7 @@
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9842,7 +9847,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9866,7 +9871,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9887,7 +9892,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9911,7 +9916,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9932,7 +9937,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9949,14 +9954,14 @@
       <c r="G195" s="21" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J195" s="22" t="n"/>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9977,7 +9982,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10001,7 +10006,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10022,7 +10027,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10039,14 +10044,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10067,7 +10072,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10091,7 +10096,7 @@
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10112,7 +10117,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10129,14 +10134,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10157,7 +10162,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10174,14 +10179,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10197,12 +10202,12 @@
       </c>
       <c r="B201" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10219,14 +10224,14 @@
       <c r="G201" s="21" t="n"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J201" s="22" t="n"/>
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10242,12 +10247,12 @@
       </c>
       <c r="B202" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10264,14 +10269,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,13 +10297,13 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
       <c r="E203" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -10309,14 +10314,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10337,13 +10342,13 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
       <c r="E204" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -10354,14 +10359,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10382,7 +10387,7 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10399,14 +10404,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10427,7 +10432,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10444,14 +10449,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10472,13 +10477,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10489,14 +10494,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10517,13 +10522,13 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
       <c r="E208" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -10534,14 +10539,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10562,7 +10567,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10579,14 +10584,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10607,7 +10612,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10624,14 +10629,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10647,18 +10652,18 @@
       </c>
       <c r="B211" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10669,14 +10674,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10692,18 +10697,18 @@
       </c>
       <c r="B212" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
       <c r="E212" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -10714,14 +10719,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10737,12 +10742,12 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>特権アクセスの保護</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10759,14 +10764,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10782,18 +10787,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10804,14 +10809,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10827,18 +10832,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>特権アクセスの保護</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求の履行方法を計画する</t>
+          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10849,14 +10854,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10867,23 +10872,23 @@
     <row r="216">
       <c r="A216" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10894,14 +10899,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10912,23 +10917,23 @@
     <row r="217">
       <c r="A217" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
+          <t>Azure サービスのサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10939,14 +10944,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10967,13 +10972,13 @@
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10984,14 +10989,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,13 +11017,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11029,14 +11034,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,13 +11062,13 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
+          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11074,14 +11079,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11102,7 +11107,7 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
@@ -11119,14 +11124,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11147,13 +11152,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
+          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11164,14 +11169,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11187,12 +11192,12 @@
       </c>
       <c r="B223" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
@@ -11209,14 +11214,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11232,12 +11237,12 @@
       </c>
       <c r="B224" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11254,14 +11259,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,13 +11287,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11299,14 +11304,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11322,18 +11327,18 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>開発戦略</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11344,14 +11349,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11367,18 +11372,18 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11389,14 +11394,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11405,30 +11410,90 @@
       <c r="P227" s="25" t="n"/>
     </row>
     <row r="228">
-      <c r="A228" s="21" t="n"/>
-      <c r="B228" s="21" t="n"/>
-      <c r="C228" s="21" t="n"/>
+      <c r="A228" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B228" s="21" t="inlineStr">
+        <is>
+          <t>開発戦略</t>
+        </is>
+      </c>
+      <c r="C228" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+        </is>
+      </c>
       <c r="D228" s="21" t="n"/>
-      <c r="E228" s="21" t="n"/>
+      <c r="E228" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G228" s="21" t="n"/>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
-      <c r="L228" s="25" t="n"/>
+      <c r="L228" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M228" s="25" t="n"/>
       <c r="N228" s="25" t="n"/>
       <c r="O228" s="25" t="n"/>
       <c r="P228" s="25" t="n"/>
     </row>
     <row r="229">
-      <c r="A229" s="21" t="n"/>
-      <c r="B229" s="21" t="n"/>
-      <c r="C229" s="21" t="n"/>
+      <c r="A229" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B229" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C229" s="21" t="inlineStr">
+        <is>
+          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+        </is>
+      </c>
       <c r="D229" s="21" t="n"/>
-      <c r="E229" s="21" t="n"/>
+      <c r="E229" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G229" s="21" t="n"/>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
-      <c r="L229" s="25" t="n"/>
+      <c r="L229" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M229" s="25" t="n"/>
       <c r="N229" s="25" t="n"/>
       <c r="O229" s="25" t="n"/>
@@ -12600,7 +12665,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F228" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>部門とアカウントを使用して、組織の構造を登録階層にマップし、課金の分離に役立てることができます。</t>
+          <t>部門とアカウントを使用して、組織の構造を登録階層にマップし、請求の分離に役立てることができます。</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>アカウントの種類が "職場または学校アカウント" に構成されていることを確認します</t>
+          <t>アカウントの種類が "職場または学校アカウント" であることを確認します</t>
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>ロールの割り当てを定期的に監査して、Enterprise Agreement 加入契約にアクセスできるユーザーを確認します</t>
+          <t>ロールの割り当てを定期的に監査して、Enterprise Agreement 加入契約へのアクセス権を持つユーザーを確認します</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>AD Connect VM をデプロイする場合は、高可用性/ディザスター リカバリーのためにステージング サーバーを用意することを検討してください</t>
+          <t>Microsoft Entra Connectを展開する場合は、高可用性/ディザスタリカバリのためにステージングサーバーを活用します</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が提供され、組織はログの収集と保持に関する要件を満たすためのクラウド ネイティブ オプションを利用できます。</t>
+          <t>Microsoft Entra ID ログをプラットフォーム中心の Azure Monitor と統合します。Azure Monitor を使用すると、Azure のログと監視データに関する信頼できる唯一の情報源が得られ、ログの収集と保持に関する要件を満たすクラウド ネイティブ オプションが組織に提供されます。</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>すべてのアカウントの種類には、認証の種類である [職場または学校アカウント] のみを使用します。Microsoft アカウントの使用は避けてください</t>
+          <t>すべてのアカウントの種類で、認証の種類である職場または学校アカウントのみを使用します。Microsoft アカウントの使用は避けてください</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールには、Azure カスタム ロールの使用を検討してください</t>
+          <t>Azure カスタム RBAC ロールを Azure カスタム RBAC ロールとして使用して、ALZ 全体にわたるきめ細かなアクセスを提供します: Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者。これらの役割をビジネス内のチームと責任に合わせます。</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Windows Server に Active Directory をデプロイする場合は、可用性ゾーンのある場所を使用し、これらのゾーンに少なくとも 2 つの VM をデプロイします。使用できない場合は、可用性セットにデプロイします</t>
+          <t>Active Directory を Windows Server にデプロイする場合は、可用性ゾーンのある場所を使用し、これらのゾーンに少なくとも 2 つの VM をデプロイします。使用できない場合は、可用性セットにデプロイします</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>必要に応じて、Microsoft Entra ID アプリケーション プロキシを使用して、内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスをリモート ユーザーに付与します。</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークを使用して ID ネットワークのセグメント化を構成し、ハブにピアリングバックします。アプリケーション ランディング ゾーン (レガシ) 内での認証の提供。</t>
+          <t>仮想ネットワークを使用してアイデンティティ ネットワークのセグメント化を構成し、ハブにピア バックします。アプリケーション ランディング ゾーン (レガシ) 内での認証の提供。</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
+          <t>サブスクリプションがルート管理グループの下に配置されないように強制する</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを実施します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させるプロセスを適用し、レビュー、予算レビュー、ポリシーのコンプライアンスにアクセスし、必要に応じて修復します。</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>複数リージョンのデプロイを検討してください。顧客の規模、場所、ユーザーの存在によっては、複数のリージョンで運用することが、サービスを提供し、より近い場所でアプリケーションを実行するための一般的な選択肢となる場合があります。複数リージョンのデプロイを使用することは、geo ディザスター リカバリー機能を提供し、単一リージョンの容量からの依存関係を排除し、一時的で局所的なリソース容量の制約のリスクを軽減するためにも重要です</t>
+          <t>複数リージョンのデプロイを検討してください。顧客の規模、場所、ユーザーの存在によっては、複数のリージョンで運用することが、サービスを提供し、より近い場所でアプリケーションを実行するための一般的な選択肢となる場合があります。複数リージョンのデプロイを使用することは、geo ディザスター リカバリー機能を提供し、単一リージョンの容量からの依存関係を排除し、一時的および局所的なリソース容量の制約のリスクを軽減するためにも重要です</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択したデプロイ リージョン内で使用可能であることを確認する</t>
+          <t>必要なサービスと機能が、選択したデプロイ リージョン内で利用可能であることを確認する</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>最大限の柔軟性を必要とするネットワーク シナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。</t>
+          <t>従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を、最大限の柔軟性を必要とするネットワーク シナリオに活用します。</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認する</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間が使用されていないことを確認します</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続には WAF とその他のリバース プロキシをデプロイし、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>WAF とその他のリバース プロキシは、受信 HTTP/S 接続に必要であり、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -6619,7 +6619,7 @@
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防止します。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
+          <t>Azure Firewall または NVA の IP アドレスの代わりに FQDN を使用して Azure PaaS サービスへのエグレス トラフィックをフィルター処理し、データ流出を防ぎます。Private Link を使用している場合は、すべての FQDN をブロックし、それ以外の場合は必要な PaaS サービスのみを許可できます。</t>
         </is>
       </c>
       <c r="D123" s="21" t="n"/>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細分化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックを細かくセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D130" s="21" t="n"/>
@@ -7147,7 +7147,7 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境のコントロールを定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>Azure Policy を戦略的に活用し、環境の制御を定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外し、最下位レベルでポリシー割り当てを管理します。</t>
+          <t>必要に応じて、ポリシーの割り当てを最下位レベルで管理し、最下位レベルで除外します。</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション デリバリー サービスからの WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を検討してください</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保持期間の要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
+          <t>Azure Monitor ログは、ログの保持要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation の Update Management を、Windows VM と Linux VM の両方に対する長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8675,12 +8675,12 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
@@ -8703,12 +8703,12 @@
       </c>
       <c r="B168" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8725,19 +8725,19 @@
       <c r="G168" s="21" t="n"/>
       <c r="H168" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J168" s="22" t="n"/>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8758,7 +8758,7 @@
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,13 +8808,13 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当ての組み合わせにより、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
       <c r="E170" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8825,14 +8825,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8853,13 +8858,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8870,14 +8875,14 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8898,7 +8903,7 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure でのリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
@@ -8915,14 +8920,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8943,7 +8948,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8960,14 +8965,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8988,7 +8993,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9005,14 +9010,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9033,7 +9038,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9050,14 +9055,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9078,7 +9083,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9095,14 +9100,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9123,7 +9128,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9140,14 +9145,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9168,7 +9173,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9185,14 +9190,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9213,7 +9218,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>リンクされた Log Analytics ワークスペースと Automation アカウントでサポートされているリージョンを検討する</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9230,14 +9235,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9253,12 +9258,12 @@
       </c>
       <c r="B180" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9275,14 +9280,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,14 +9308,10 @@
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="D181" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+        </is>
+      </c>
+      <c r="D181" s="21" t="n"/>
       <c r="E181" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9324,14 +9325,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9347,15 +9348,19 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
-        </is>
-      </c>
-      <c r="D182" s="21" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="D182" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="E182" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9369,14 +9374,14 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9392,12 +9397,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>保護とリカバリ</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9414,14 +9419,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9437,12 +9442,12 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>保護と回復</t>
+          <t>保護とリカバリ</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
         </is>
       </c>
       <c r="D184" s="21" t="n"/>
@@ -9459,14 +9464,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9482,18 +9487,18 @@
       </c>
       <c r="B185" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護とリカバリ</t>
         </is>
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
       <c r="E185" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9504,14 +9509,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,7 +9537,7 @@
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -9549,14 +9554,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9577,13 +9582,13 @@
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9594,14 +9599,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9612,17 +9617,17 @@
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B188" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
@@ -9639,14 +9644,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9667,7 +9672,7 @@
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
+          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -9684,14 +9689,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,18 +9712,18 @@
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
       <c r="E190" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -9729,14 +9734,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,13 +9762,13 @@
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9774,14 +9779,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,7 +9807,7 @@
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9819,14 +9824,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9847,7 +9852,7 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
@@ -9871,7 +9876,7 @@
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9892,7 +9897,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9916,7 +9921,7 @@
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9937,7 +9942,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9961,7 +9966,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9982,7 +9987,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10006,7 +10011,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10027,7 +10032,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10044,14 +10049,14 @@
       <c r="G197" s="21" t="n"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J197" s="22" t="n"/>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10072,7 +10077,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10089,14 +10094,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10117,7 +10122,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10134,14 +10139,14 @@
       <c r="G199" s="21" t="n"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J199" s="22" t="n"/>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10162,7 +10167,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10179,14 +10184,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10207,7 +10212,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10231,7 +10236,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10252,7 +10257,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10269,14 +10274,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10292,12 +10297,12 @@
       </c>
       <c r="B203" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10314,14 +10319,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10342,7 +10347,7 @@
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10359,14 +10364,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10387,13 +10392,13 @@
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -10404,14 +10409,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10432,7 +10437,7 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
@@ -10449,14 +10454,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10477,7 +10482,7 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -10494,14 +10499,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10522,7 +10527,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10539,14 +10544,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10567,13 +10572,13 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
       <c r="E209" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -10584,14 +10589,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10612,7 +10617,7 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
@@ -10629,14 +10634,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10657,7 +10662,7 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -10674,14 +10679,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10702,7 +10707,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
+          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10719,14 +10724,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10742,18 +10747,18 @@
       </c>
       <c r="B213" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
       <c r="E213" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -10764,14 +10769,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10792,7 +10797,7 @@
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -10809,14 +10814,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10832,12 +10837,12 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>特権アクセスの保護</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -10854,14 +10859,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10877,18 +10882,18 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>特権アクセスの保護</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
       <c r="E216" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -10899,14 +10904,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10927,7 +10932,7 @@
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求の履行方法を計画する</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -10951,7 +10956,7 @@
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10962,23 +10967,23 @@
     <row r="218">
       <c r="A218" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
+          <t>Azure サービスのサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10989,14 +10994,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11017,13 +11022,13 @@
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11034,14 +11039,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11062,7 +11067,7 @@
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としないように機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
@@ -11086,7 +11091,7 @@
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11107,13 +11112,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としない機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11124,14 +11129,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11152,13 +11157,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
+          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11169,14 +11174,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11197,13 +11202,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11221,7 +11226,7 @@
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11242,13 +11247,13 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
       <c r="E224" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -11259,14 +11264,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11282,18 +11287,18 @@
       </c>
       <c r="B225" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
+          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11304,14 +11309,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11332,13 +11337,13 @@
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
       <c r="E226" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -11349,14 +11354,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11377,13 +11382,13 @@
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
       <c r="E227" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -11401,7 +11406,7 @@
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11417,18 +11422,18 @@
       </c>
       <c r="B228" s="21" t="inlineStr">
         <is>
-          <t>開発戦略</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11439,14 +11444,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11462,12 +11467,12 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開発戦略</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -11484,14 +11489,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11500,15 +11505,45 @@
       <c r="P229" s="25" t="n"/>
     </row>
     <row r="230">
-      <c r="A230" s="21" t="n"/>
-      <c r="B230" s="21" t="n"/>
-      <c r="C230" s="21" t="n"/>
+      <c r="A230" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B230" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C230" s="21" t="inlineStr">
+        <is>
+          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+        </is>
+      </c>
       <c r="D230" s="21" t="n"/>
-      <c r="E230" s="21" t="n"/>
+      <c r="E230" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G230" s="21" t="n"/>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
-      <c r="L230" s="25" t="n"/>
+      <c r="L230" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M230" s="25" t="n"/>
       <c r="N230" s="25" t="n"/>
       <c r="O230" s="25" t="n"/>
@@ -12665,7 +12700,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F230" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F231" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -7047,12 +7047,12 @@
       </c>
       <c r="B132" s="21" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
+          <t>NSG あたりの NSG ルールの制限 (1000) を検討します。</t>
         </is>
       </c>
       <c r="D132" s="21" t="n"/>
@@ -7069,19 +7069,19 @@
       <c r="G132" s="21" t="n"/>
       <c r="H132" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="25" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>0390417d-53dc-44d9-b3f4-c8832f359b41</t>
         </is>
       </c>
       <c r="M132" s="25" t="n"/>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します</t>
         </is>
       </c>
       <c r="D133" s="21" t="n"/>
@@ -7119,14 +7119,19 @@
       <c r="G133" s="21" t="n"/>
       <c r="H133" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="25" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M133" s="25" t="n"/>
@@ -7147,13 +7152,13 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします</t>
+          <t>Azure リージョンごとに Virtual WAN ハブを使用して、共通のグローバル Azure Virtual WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D134" s="21" t="n"/>
       <c r="E134" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -7171,7 +7176,7 @@
       <c r="K134" s="22" t="n"/>
       <c r="L134" s="25" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M134" s="25" t="n"/>
@@ -7192,13 +7197,13 @@
       </c>
       <c r="C135" s="21" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします</t>
         </is>
       </c>
       <c r="D135" s="21" t="n"/>
       <c r="E135" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -7210,18 +7215,13 @@
       <c r="H135" s="15" t="inlineStr">
         <is>
           <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="25" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M135" s="25" t="n"/>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、セキュリティで保護されたハブに Azure Firewall をデプロイします</t>
         </is>
       </c>
       <c r="D136" s="21" t="n"/>
@@ -7259,14 +7259,19 @@
       <c r="G136" s="21" t="n"/>
       <c r="H136" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="25" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M136" s="25" t="n"/>
@@ -7287,7 +7292,7 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
+          <t>ネットワーク アーキテクチャが Azure Virtual WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D137" s="21" t="n"/>
@@ -7304,14 +7309,14 @@
       <c r="G137" s="21" t="n"/>
       <c r="H137" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="25" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M137" s="25" t="n"/>
@@ -7332,7 +7337,7 @@
       </c>
       <c r="C138" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、Virtual WAN のエンドツーエンドのトポロジ、状態、主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D138" s="21" t="n"/>
@@ -7349,14 +7354,14 @@
       <c r="G138" s="21" t="n"/>
       <c r="H138" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J138" s="22" t="n"/>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="25" t="inlineStr">
         <is>
-          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M138" s="25" t="n"/>
@@ -7377,7 +7382,7 @@
       </c>
       <c r="C139" s="21" t="inlineStr">
         <is>
-          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
+          <t>IaC デプロイで、これらのフローを明示的にブロックする必要がない限り、Virtual WAN のブランチ間トラフィックが無効にならないようにしてください。</t>
         </is>
       </c>
       <c r="D139" s="21" t="n"/>
@@ -7394,14 +7399,14 @@
       <c r="G139" s="21" t="n"/>
       <c r="H139" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#is-branch-to-branch-connectivity-allowed-in-virtual-wan</t>
         </is>
       </c>
       <c r="J139" s="22" t="n"/>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="25" t="inlineStr">
         <is>
-          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
+          <t>727c77e1-b9aa-4a37-a024-129d042422c1</t>
         </is>
       </c>
       <c r="M139" s="25" t="n"/>
@@ -7422,7 +7427,7 @@
       </c>
       <c r="C140" s="21" t="inlineStr">
         <is>
-          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
+          <t>AS-Path は ExpressRoute や VPN よりも柔軟性が高いため、ハブ ルーティングの基本設定として使用します。</t>
         </is>
       </c>
       <c r="D140" s="21" t="n"/>
@@ -7439,14 +7444,14 @@
       <c r="G140" s="21" t="n"/>
       <c r="H140" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing-preference</t>
         </is>
       </c>
       <c r="J140" s="22" t="n"/>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="25" t="inlineStr">
         <is>
-          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
+          <t>d49ac006-6670-4bc9-9948-d3e0a3a94f4d</t>
         </is>
       </c>
       <c r="M140" s="25" t="n"/>
@@ -7467,13 +7472,13 @@
       </c>
       <c r="C141" s="21" t="inlineStr">
         <is>
-          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
+          <t>IaC デプロイで Virtual WAN でラベルベースの伝達が構成されていることを確認すると、仮想ハブ間の接続が損なわれます。</t>
         </is>
       </c>
       <c r="D141" s="21" t="n"/>
       <c r="E141" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7484,14 +7489,14 @@
       <c r="G141" s="21" t="n"/>
       <c r="H141" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/about-virtual-hub-routing#labels</t>
         </is>
       </c>
       <c r="J141" s="22" t="n"/>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="25" t="inlineStr">
         <is>
-          <t>9c75dfef-573c-461c-a698-68598595581a</t>
+          <t>2586b854-237e-47f1-84a1-d45d4cd2310d</t>
         </is>
       </c>
       <c r="M141" s="25" t="n"/>
@@ -7502,17 +7507,17 @@
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>ネットワークトポロジと接続性</t>
         </is>
       </c>
       <c r="B142" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C142" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を戦略的に活用し、環境の制御を定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
+          <t>仮想ハブに十分な IP 空間 (理想的には /23 プレフィックス) を割り当てます。</t>
         </is>
       </c>
       <c r="D142" s="21" t="n"/>
@@ -7529,14 +7534,14 @@
       <c r="G142" s="21" t="n"/>
       <c r="H142" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-faq#what-is-the-recommended-hub-address-space-during-hub-creation</t>
         </is>
       </c>
       <c r="J142" s="22" t="n"/>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="25" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>9c75dfef-573c-461c-a698-68598595581a</t>
         </is>
       </c>
       <c r="M142" s="25" t="n"/>
@@ -7557,13 +7562,13 @@
       </c>
       <c r="C143" s="21" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
+          <t>Azure Policy を戦略的に活用し、環境の制御を定義し、ポリシー イニシアチブを使用して関連するポリシーをグループ化します。</t>
         </is>
       </c>
       <c r="D143" s="21" t="n"/>
       <c r="E143" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7574,14 +7579,14 @@
       <c r="G143" s="21" t="n"/>
       <c r="H143" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J143" s="22" t="n"/>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="25" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M143" s="25" t="n"/>
@@ -7602,7 +7607,7 @@
       </c>
       <c r="C144" s="21" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
+          <t>必要な Azure タグを特定し、"追加" ポリシー モードを使用して、Azure Policy を介して使用を強制します。</t>
         </is>
       </c>
       <c r="D144" s="21" t="n"/>
@@ -7619,14 +7624,14 @@
       <c r="G144" s="21" t="n"/>
       <c r="H144" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J144" s="22" t="n"/>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="25" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M144" s="25" t="n"/>
@@ -7647,7 +7652,7 @@
       </c>
       <c r="C145" s="21" t="inlineStr">
         <is>
-          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>規制とコンプライアンスの要件を Azure Policy の定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D145" s="21" t="n"/>
@@ -7671,7 +7676,7 @@
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="25" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M145" s="25" t="n"/>
@@ -7692,7 +7697,7 @@
       </c>
       <c r="C146" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシーの割り当てを最下位レベルで管理し、最下位レベルで除外します。</t>
+          <t>中間ルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D146" s="21" t="n"/>
@@ -7716,7 +7721,7 @@
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="25" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M146" s="25" t="n"/>
@@ -7737,13 +7742,13 @@
       </c>
       <c r="C147" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
+          <t>必要に応じて、ポリシーの割り当てを最下位レベルで管理し、最下位レベルで除外します。</t>
         </is>
       </c>
       <c r="D147" s="21" t="n"/>
       <c r="E147" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -7754,14 +7759,14 @@
       <c r="G147" s="21" t="n"/>
       <c r="H147" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J147" s="22" t="n"/>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="25" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M147" s="25" t="n"/>
@@ -7782,13 +7787,13 @@
       </c>
       <c r="C148" s="21" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>Azure Policy を使用して、ユーザーがサブスクリプション/管理グループ レベルでプロビジョニングできるサービスを制御する</t>
         </is>
       </c>
       <c r="D148" s="21" t="n"/>
       <c r="E148" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7799,14 +7804,14 @@
       <c r="G148" s="21" t="n"/>
       <c r="H148" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/mcsb-asset-management#am-2-use-only-approved-services</t>
         </is>
       </c>
       <c r="J148" s="22" t="n"/>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="25" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M148" s="25" t="n"/>
@@ -7827,14 +7832,10 @@
       </c>
       <c r="C149" s="21" t="inlineStr">
         <is>
-          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
-        </is>
-      </c>
-      <c r="D149" s="21" t="inlineStr">
-        <is>
-          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
-        </is>
-      </c>
+          <t>可能な場合は組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+        </is>
+      </c>
+      <c r="D149" s="21" t="n"/>
       <c r="E149" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7848,14 +7849,14 @@
       <c r="G149" s="21" t="n"/>
       <c r="H149" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J149" s="22" t="n"/>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="25" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M149" s="25" t="n"/>
@@ -7876,10 +7877,14 @@
       </c>
       <c r="C150" s="21" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
-        </is>
-      </c>
-      <c r="D150" s="21" t="n"/>
+          <t>組み込みのリソース ポリシー共同作成者ロールを特定のスコープで割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+        </is>
+      </c>
+      <c r="D150" s="21" t="inlineStr">
+        <is>
+          <t>リソース ポリシー共同作成者ロールを特定のスコープに割り当てると、ポリシー管理を関連するチームに委任できます。たとえば、中央の IT チームが管理グループ レベルのポリシーを監督し、アプリケーション チームがサブスクリプションのポリシーを処理することで、組織の標準に準拠した分散ガバナンスが可能になります。</t>
+        </is>
+      </c>
       <c r="E150" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -7893,14 +7898,14 @@
       <c r="G150" s="21" t="n"/>
       <c r="H150" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview#azure-rbac-permissions-in-azure-policy</t>
         </is>
       </c>
       <c r="J150" s="22" t="n"/>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="25" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M150" s="25" t="n"/>
@@ -7921,7 +7926,7 @@
       </c>
       <c r="C151" s="21" t="inlineStr">
         <is>
-          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D151" s="21" t="n"/>
@@ -7938,19 +7943,14 @@
       <c r="G151" s="21" t="n"/>
       <c r="H151" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J151" s="22" t="n"/>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="25" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M151" s="25" t="n"/>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="C152" s="21" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D152" s="21" t="n"/>
@@ -7988,14 +7988,19 @@
       <c r="G152" s="21" t="n"/>
       <c r="H152" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J152" s="22" t="n"/>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="25" t="inlineStr">
         <is>
-          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M152" s="25" t="n"/>
@@ -8016,7 +8021,7 @@
       </c>
       <c r="C153" s="21" t="inlineStr">
         <is>
-          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
+          <t>ソブリン・ランディング・ゾーンの場合、主権ポリシー・ベースラインのポリシー・イニシアチブがデプロイされ、正しいMGレベルで割り当てられます。</t>
         </is>
       </c>
       <c r="D153" s="21" t="n"/>
@@ -8033,14 +8038,14 @@
       <c r="G153" s="21" t="n"/>
       <c r="H153" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+          <t>https://github.com/Azure/sovereign-landing-zone/blob/main/docs/scenarios/Sovereignty-Policy-Baseline.md</t>
         </is>
       </c>
       <c r="J153" s="22" t="n"/>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="25" t="inlineStr">
         <is>
-          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
+          <t>78b22132-b41c-460b-a4d3-df8f73a67dc2</t>
         </is>
       </c>
       <c r="M153" s="25" t="n"/>
@@ -8061,7 +8066,7 @@
       </c>
       <c r="C154" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
+          <t>ソブリン・ランディング・ゾーンについては、ソブリン制御の目標とポリシー・マッピングが文書化されています。</t>
         </is>
       </c>
       <c r="D154" s="21" t="n"/>
@@ -8076,12 +8081,16 @@
         </is>
       </c>
       <c r="G154" s="21" t="n"/>
-      <c r="H154" s="15" t="n"/>
+      <c r="H154" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/policy-portfolio-baseline</t>
+        </is>
+      </c>
       <c r="J154" s="22" t="n"/>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="25" t="inlineStr">
         <is>
-          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
+          <t>caeea0e9-1024-41df-a52e-d99c3f22a6f4</t>
         </is>
       </c>
       <c r="M154" s="25" t="n"/>
@@ -8097,18 +8106,18 @@
       </c>
       <c r="B155" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C155" s="21" t="inlineStr">
         <is>
-          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
+          <t>ソブリン ランディング ゾーンでは、"ソブリン制御の目標からポリシー マッピング" の CRUD のプロセスが導入されています。</t>
         </is>
       </c>
       <c r="D155" s="21" t="n"/>
       <c r="E155" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8117,16 +8126,12 @@
         </is>
       </c>
       <c r="G155" s="21" t="n"/>
-      <c r="H155" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
-        </is>
-      </c>
+      <c r="H155" s="15" t="n"/>
       <c r="J155" s="22" t="n"/>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="25" t="inlineStr">
         <is>
-          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
+          <t>9b461617-db7b-4399-8ac6-d4eb7153893a</t>
         </is>
       </c>
       <c r="M155" s="25" t="n"/>
@@ -8137,23 +8142,23 @@
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B156" s="21" t="inlineStr">
         <is>
-          <t>拡張性</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C156" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
+          <t>コストを節約するために、環境内の VM を開始/停止するために、自動化タグの使用を検討してください。</t>
         </is>
       </c>
       <c r="D156" s="21" t="n"/>
       <c r="E156" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8164,14 +8169,14 @@
       <c r="G156" s="21" t="n"/>
       <c r="H156" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/automation-solution-vm-management-config</t>
         </is>
       </c>
       <c r="J156" s="22" t="n"/>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="25" t="inlineStr">
         <is>
-          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
+          <t>9b5e2a28-9823-4faf-ab7e-afa5f6c57221</t>
         </is>
       </c>
       <c r="M156" s="25" t="n"/>
@@ -8182,17 +8187,17 @@
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="21" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B157" s="21" t="inlineStr">
         <is>
-          <t>クラウドへの投資を最適化</t>
+          <t>拡張性</t>
         </is>
       </c>
       <c r="C157" s="21" t="inlineStr">
         <is>
-          <t>「実績」と「予測」の予算アラートを設定します。</t>
+          <t>Azure Virtual Machine スケール セットを活用して、負荷に基づいてスケールインおよびスケールアウトします。</t>
         </is>
       </c>
       <c r="D157" s="21" t="n"/>
@@ -8209,14 +8214,14 @@
       <c r="G157" s="21" t="n"/>
       <c r="H157" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
+          <t>https://learn.microsoft.com/azure/virtual-machine-scale-sets/overview</t>
         </is>
       </c>
       <c r="J157" s="22" t="n"/>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="25" t="inlineStr">
         <is>
-          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
+          <t>ecdc7506-6f37-4ea9-be87-fc5d3df08a64</t>
         </is>
       </c>
       <c r="M157" s="25" t="n"/>
@@ -8227,23 +8232,23 @@
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="21" t="inlineStr">
         <is>
-          <t>管理</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="B158" s="21" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>クラウドへの投資を最適化</t>
         </is>
       </c>
       <c r="C158" s="21" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>「実績」と「予測」の予算アラートを設定します。</t>
         </is>
       </c>
       <c r="D158" s="21" t="n"/>
       <c r="E158" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8254,14 +8259,14 @@
       <c r="G158" s="21" t="n"/>
       <c r="H158" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/costs/tutorial-acm-create-budgets?bc=%2Fazure%2Fcloud-adoption-framework%2F_bread%2Ftoc.json&amp;toc=%2Fazure%2Fcloud-adoption-framework%2Ftoc.json</t>
         </is>
       </c>
       <c r="J158" s="22" t="n"/>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="25" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>29fd366b-a180-452b-9bd7-954b7700c667</t>
         </is>
       </c>
       <c r="M158" s="25" t="n"/>
@@ -8282,13 +8287,13 @@
       </c>
       <c r="C159" s="21" t="inlineStr">
         <is>
-          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
+          <t>診断設定を追加して、Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから WAF ログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
         </is>
       </c>
       <c r="D159" s="21" t="n"/>
       <c r="E159" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8299,14 +8304,14 @@
       <c r="G159" s="21" t="n"/>
       <c r="H159" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
         </is>
       </c>
       <c r="J159" s="22" t="n"/>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="25" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M159" s="25" t="n"/>
@@ -8322,12 +8327,12 @@
       </c>
       <c r="B160" s="21" t="inlineStr">
         <is>
-          <t>データ保護</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C160" s="21" t="inlineStr">
         <is>
-          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
+          <t>Azure Front Door や Azure Application Gateway などのアプリケーション配信サービスから Microsoft Sentinel に WAF ログを送信します。攻撃を検出し、WAF テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D160" s="21" t="n"/>
@@ -8344,14 +8349,14 @@
       <c r="G160" s="21" t="n"/>
       <c r="H160" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J160" s="22" t="n"/>
       <c r="K160" s="23" t="n"/>
       <c r="L160" s="25" t="inlineStr">
         <is>
-          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M160" s="25" t="n"/>
@@ -8372,7 +8377,7 @@
       </c>
       <c r="C161" s="21" t="inlineStr">
         <is>
-          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
+          <t>ペアのリージョンを持つ BCDR の Azure でのリージョン間レプリケーションを検討する</t>
         </is>
       </c>
       <c r="D161" s="21" t="n"/>
@@ -8389,14 +8394,14 @@
       <c r="G161" s="21" t="n"/>
       <c r="H161" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
+          <t>https://learn.microsoft.com/azure/reliability/cross-region-replication-azure</t>
         </is>
       </c>
       <c r="J161" s="22" t="n"/>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="25" t="inlineStr">
         <is>
-          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
+          <t>7ea02e1c-7166-45a3-bdf5-098891367fcb</t>
         </is>
       </c>
       <c r="M161" s="25" t="n"/>
@@ -8412,12 +8417,12 @@
       </c>
       <c r="B162" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>データ保護</t>
         </is>
       </c>
       <c r="C162" s="21" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>Azure Backup を使用する場合は、既定の設定が GRS であるため、さまざまなバックアップの種類 (GRS、ZRS、LRS) を考慮してください</t>
         </is>
       </c>
       <c r="D162" s="21" t="n"/>
@@ -8434,19 +8439,14 @@
       <c r="G162" s="21" t="n"/>
       <c r="H162" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-redundancy</t>
         </is>
       </c>
       <c r="J162" s="22" t="n"/>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="25" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>eba8cf22-45c6-4dc1-9b57-2cceb3b97ce5</t>
         </is>
       </c>
       <c r="M162" s="25" t="n"/>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="C163" s="21" t="inlineStr">
         <is>
-          <t>ランディング・ゾーンが文書化されていることを確認します。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D163" s="21" t="n"/>
@@ -8482,12 +8482,21 @@
         </is>
       </c>
       <c r="G163" s="21" t="n"/>
-      <c r="H163" s="15" t="n"/>
+      <c r="H163" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J163" s="22" t="n"/>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="25" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M163" s="25" t="n"/>
@@ -8508,7 +8517,7 @@
       </c>
       <c r="C164" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログは、ログの保持要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
+          <t>ランディング・ゾーンが文書化されていることを確認します。</t>
         </is>
       </c>
       <c r="D164" s="21" t="n"/>
@@ -8523,21 +8532,12 @@
         </is>
       </c>
       <c r="G164" s="21" t="n"/>
-      <c r="H164" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H164" s="15" t="n"/>
       <c r="J164" s="22" t="n"/>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="25" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M164" s="25" t="n"/>
@@ -8558,7 +8558,7 @@
       </c>
       <c r="C165" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
+          <t>Azure Monitor ログは、ログの保持要件が 2 年を超える場合に使用します。現在、データをアーカイブ状態に保持できる期間は最大 7 年間です。</t>
         </is>
       </c>
       <c r="D165" s="21" t="n"/>
@@ -8575,19 +8575,19 @@
       <c r="G165" s="21" t="n"/>
       <c r="H165" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/data-retention-archive?tabs=portal-1%2Cportal-2#how-retention-and-archiving-work</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J165" s="22" t="n"/>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="25" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M165" s="25" t="n"/>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="C166" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、一貫したポリシーの遵守と迅速な違反検出を保証するために、組織全体の設定を適用する機能が用意されています。</t>
         </is>
       </c>
       <c r="D166" s="21" t="n"/>
@@ -8625,19 +8625,19 @@
       <c r="G166" s="21" t="n"/>
       <c r="H166" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/govern/policy-compliance/regulatory-compliance</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/en-us/azure/governance/policy/concepts/effects</t>
         </is>
       </c>
       <c r="J166" s="22" t="n"/>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="25" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M166" s="25" t="n"/>
@@ -8653,12 +8653,12 @@
       </c>
       <c r="B167" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C167" s="21" t="inlineStr">
         <is>
-          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure Policy を使用して、ゲスト内の仮想マシン (VM) の構成のずれを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、ほとんど労力をかけずに機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D167" s="21" t="n"/>
@@ -8675,19 +8675,19 @@
       <c r="G167" s="21" t="n"/>
       <c r="H167" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J167" s="22" t="n"/>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="25" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M167" s="25" t="n"/>
@@ -8708,7 +8708,7 @@
       </c>
       <c r="C168" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
+          <t>Azure Update Manager を、Azure の Windows および Linux VM の修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D168" s="21" t="n"/>
@@ -8737,7 +8737,7 @@
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="25" t="inlineStr">
         <is>
-          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M168" s="25" t="n"/>
@@ -8753,12 +8753,12 @@
       </c>
       <c r="B169" s="21" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C169" s="21" t="inlineStr">
         <is>
-          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>Azure Arc を使用して、Azure の外部にある Windows および Linux VM の修正プログラムの適用メカニズムとして Azure Update Manager を使用します。</t>
         </is>
       </c>
       <c r="D169" s="21" t="n"/>
@@ -8775,19 +8775,19 @@
       <c r="G169" s="21" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t xml:space="preserve">https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#update-management-considerations </t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/azure/update-manager/overview?tabs=azure-vms</t>
         </is>
       </c>
       <c r="J169" s="22" t="n"/>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="25" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>c806c048-26b7-4ddf-b4c2-b4f0c476925d</t>
         </is>
       </c>
       <c r="M169" s="25" t="n"/>
@@ -8808,7 +8808,7 @@
       </c>
       <c r="C170" s="21" t="inlineStr">
         <is>
-          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>Network Watcher を使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D170" s="21" t="n"/>
@@ -8825,19 +8825,19 @@
       <c r="G170" s="21" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J170" s="22" t="n"/>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="25" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M170" s="25" t="n"/>
@@ -8858,13 +8858,13 @@
       </c>
       <c r="C171" s="21" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>リソースロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D171" s="21" t="n"/>
       <c r="E171" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -8875,14 +8875,19 @@
       <c r="G171" s="21" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J171" s="22" t="n"/>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="25" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M171" s="25" t="n"/>
@@ -8903,13 +8908,13 @@
       </c>
       <c r="C172" s="21" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure でのリソース管理の重要なコンポーネントです。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D172" s="21" t="n"/>
       <c r="E172" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -8920,14 +8925,14 @@
       <c r="G172" s="21" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="22" t="n"/>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="25" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M172" s="25" t="n"/>
@@ -8948,7 +8953,7 @@
       </c>
       <c r="C173" s="21" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム全体の監視ソリューションの一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure でのリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D173" s="21" t="n"/>
@@ -8965,14 +8970,14 @@
       <c r="G173" s="21" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J173" s="22" t="n"/>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="25" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M173" s="25" t="n"/>
@@ -8993,7 +8998,7 @@
       </c>
       <c r="C174" s="21" t="inlineStr">
         <is>
-          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含め、アラートまたは問題に確実に対処できるようにします</t>
         </is>
       </c>
       <c r="D174" s="21" t="n"/>
@@ -9010,14 +9015,14 @@
       <c r="G174" s="21" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J174" s="22" t="n"/>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="25" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M174" s="25" t="n"/>
@@ -9038,7 +9043,7 @@
       </c>
       <c r="C175" s="21" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>未加工のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D175" s="21" t="n"/>
@@ -9055,14 +9060,14 @@
       <c r="G175" s="21" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J175" s="22" t="n"/>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="25" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M175" s="25" t="n"/>
@@ -9083,7 +9088,7 @@
       </c>
       <c r="C176" s="21" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D176" s="21" t="n"/>
@@ -9100,14 +9105,14 @@
       <c r="G176" s="21" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J176" s="22" t="n"/>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="25" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M176" s="25" t="n"/>
@@ -9128,7 +9133,7 @@
       </c>
       <c r="C177" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D177" s="21" t="n"/>
@@ -9145,14 +9150,14 @@
       <c r="G177" s="21" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J177" s="22" t="n"/>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="25" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M177" s="25" t="n"/>
@@ -9173,7 +9178,7 @@
       </c>
       <c r="C178" s="21" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能のログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D178" s="21" t="n"/>
@@ -9190,14 +9195,14 @@
       <c r="G178" s="21" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J178" s="22" t="n"/>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="25" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M178" s="25" t="n"/>
@@ -9218,7 +9223,7 @@
       </c>
       <c r="C179" s="21" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D179" s="21" t="n"/>
@@ -9235,14 +9240,14 @@
       <c r="G179" s="21" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J179" s="22" t="n"/>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="25" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M179" s="25" t="n"/>
@@ -9263,7 +9268,7 @@
       </c>
       <c r="C180" s="21" t="inlineStr">
         <is>
-          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D180" s="21" t="n"/>
@@ -9280,14 +9285,14 @@
       <c r="G180" s="21" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J180" s="22" t="n"/>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="25" t="inlineStr">
         <is>
-          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M180" s="25" t="n"/>
@@ -9303,12 +9308,12 @@
       </c>
       <c r="B181" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C181" s="21" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure Automation アカウントを介して変更とインベントリの追跡を使用する場合は、Log Analytics ワークスペースと Automation アカウントをリンクするためにサポートされているリージョンを選択していることを確認してください。</t>
         </is>
       </c>
       <c r="D181" s="21" t="n"/>
@@ -9325,14 +9330,14 @@
       <c r="G181" s="21" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/automation/how-to/region-mappings</t>
         </is>
       </c>
       <c r="J181" s="22" t="n"/>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="25" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>fed3c55f-a67e-4875-aadd-3aba3f9fde31</t>
         </is>
       </c>
       <c r="M181" s="25" t="n"/>
@@ -9348,19 +9353,15 @@
       </c>
       <c r="B182" s="21" t="inlineStr">
         <is>
-          <t>運用コンプライアンス</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C182" s="21" t="inlineStr">
         <is>
-          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
-        </is>
-      </c>
-      <c r="D182" s="21" t="inlineStr">
-        <is>
-          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
-        </is>
-      </c>
+          <t>ランディング ゾーンのプラットフォーム コンポーネントの監視を確立する AMBA は、使用可能なフレームワーク ソリューションであり、Azure Policy を使用してアラートをスケーリングする簡単な方法を提供します</t>
+        </is>
+      </c>
+      <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9374,14 +9375,19 @@
       <c r="G182" s="21" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/en-us/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-monitor</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://azure.github.io/azure-monitor-baseline-alerts/patterns/alz/</t>
         </is>
       </c>
       <c r="J182" s="22" t="n"/>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="25" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>aa45be6a-8f2d-4896-b0e3-775e6e94e610</t>
         </is>
       </c>
       <c r="M182" s="25" t="n"/>
@@ -9397,12 +9403,12 @@
       </c>
       <c r="B183" s="21" t="inlineStr">
         <is>
-          <t>保護とリカバリ</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C183" s="21" t="inlineStr">
         <is>
-          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D183" s="21" t="n"/>
@@ -9419,14 +9425,14 @@
       <c r="G183" s="21" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J183" s="22" t="n"/>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="25" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M183" s="25" t="n"/>
@@ -9442,15 +9448,19 @@
       </c>
       <c r="B184" s="21" t="inlineStr">
         <is>
-          <t>保護とリカバリ</t>
+          <t>運用コンプライアンス</t>
         </is>
       </c>
       <c r="C184" s="21" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
-        </is>
-      </c>
-      <c r="D184" s="21" t="n"/>
+          <t>VM のセキュリティ構成のドリフトを Azure Policy で監視します。</t>
+        </is>
+      </c>
+      <c r="D184" s="21" t="inlineStr">
+        <is>
+          <t>Azure Policy のゲスト構成機能では、マシンの設定 (OS、アプリケーション、環境など) を監査して修復し、リソースが想定される構成と一致していることを確認できます。</t>
+        </is>
+      </c>
       <c r="E184" s="21" t="inlineStr">
         <is>
           <t>中程度</t>
@@ -9464,14 +9474,14 @@
       <c r="G184" s="21" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J184" s="22" t="n"/>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="25" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M184" s="25" t="n"/>
@@ -9492,7 +9502,7 @@
       </c>
       <c r="C185" s="21" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
+          <t>Azure から Azure Virtual Machines へのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D185" s="21" t="n"/>
@@ -9509,14 +9519,14 @@
       <c r="G185" s="21" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J185" s="22" t="n"/>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="25" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M185" s="25" t="n"/>
@@ -9532,18 +9542,18 @@
       </c>
       <c r="B186" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護とリカバリ</t>
         </is>
       </c>
       <c r="C186" s="21" t="inlineStr">
         <is>
-          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用し、テストしてください。</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
       <c r="E186" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -9554,14 +9564,14 @@
       <c r="G186" s="21" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J186" s="22" t="n"/>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="25" t="inlineStr">
         <is>
-          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M186" s="25" t="n"/>
@@ -9577,18 +9587,18 @@
       </c>
       <c r="B187" s="21" t="inlineStr">
         <is>
-          <t>フォールトトレランス</t>
+          <t>保護とリカバリ</t>
         </is>
       </c>
       <c r="C187" s="21" t="inlineStr">
         <is>
-          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
+          <t>Azure ネイティブのバックアップ機能、または Azure 互換のサード パーティのバックアップ ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9599,14 +9609,14 @@
       <c r="G187" s="21" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J187" s="22" t="n"/>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="25" t="inlineStr">
         <is>
-          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M187" s="25" t="n"/>
@@ -9627,13 +9637,13 @@
       </c>
       <c r="C188" s="21" t="inlineStr">
         <is>
-          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
+          <t>Availability Zones は、サポートされているリージョンの VM に活用します。</t>
         </is>
       </c>
       <c r="D188" s="21" t="n"/>
       <c r="E188" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9644,14 +9654,14 @@
       <c r="G188" s="21" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
+          <t>https://learn.microsoft.com/azure/reliability/availability-zones-overview</t>
         </is>
       </c>
       <c r="J188" s="22" t="n"/>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="25" t="inlineStr">
         <is>
-          <t>84101f59-1941-4195-a270-e28034290e3a</t>
+          <t>826c5c45-bb79-4951-a812-e3bfbfd7326b</t>
         </is>
       </c>
       <c r="M188" s="25" t="n"/>
@@ -9662,23 +9672,23 @@
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B189" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C189" s="21" t="inlineStr">
         <is>
-          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>運用ワークロードを 1 つの VM で実行することは避けてください。</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
       <c r="E189" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -9689,14 +9699,14 @@
       <c r="G189" s="21" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/availability</t>
         </is>
       </c>
       <c r="J189" s="22" t="n"/>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="25" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>7ccb7c06-5511-42df-8177-d97f08d0337d</t>
         </is>
       </c>
       <c r="M189" s="25" t="n"/>
@@ -9707,17 +9717,17 @@
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>管理</t>
         </is>
       </c>
       <c r="B190" s="21" t="inlineStr">
         <is>
-          <t>アクセス制御</t>
+          <t>フォールトトレランス</t>
         </is>
       </c>
       <c r="C190" s="21" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
+          <t>Azure Load Balancer と Application Gateway は、受信ネットワーク トラフィックを複数のリソースに分散します。</t>
         </is>
       </c>
       <c r="D190" s="21" t="n"/>
@@ -9734,14 +9744,14 @@
       <c r="G190" s="21" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/load-balancer/load-balancer-overview</t>
         </is>
       </c>
       <c r="J190" s="22" t="n"/>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="25" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>84101f59-1941-4195-a270-e28034290e3a</t>
         </is>
       </c>
       <c r="M190" s="25" t="n"/>
@@ -9757,18 +9767,18 @@
       </c>
       <c r="B191" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C191" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>運用環境に導入する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D191" s="21" t="n"/>
       <c r="E191" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -9779,14 +9789,14 @@
       <c r="G191" s="21" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="22" t="n"/>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="25" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="25" t="n"/>
@@ -9802,12 +9812,12 @@
       </c>
       <c r="B192" s="21" t="inlineStr">
         <is>
-          <t>暗号化とキー</t>
+          <t>アクセス制御</t>
         </is>
       </c>
       <c r="C192" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>必要に応じて、Azure プラットフォームへのアクセスにゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D192" s="21" t="n"/>
@@ -9824,14 +9834,14 @@
       <c r="G192" s="21" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="22" t="n"/>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="25" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="25" t="n"/>
@@ -9852,13 +9862,13 @@
       </c>
       <c r="C193" s="21" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D193" s="21" t="n"/>
       <c r="E193" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -9869,14 +9879,14 @@
       <c r="G193" s="21" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J193" s="22" t="n"/>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="25" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M193" s="25" t="n"/>
@@ -9897,7 +9907,7 @@
       </c>
       <c r="C194" s="21" t="inlineStr">
         <is>
-          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクションのスケール制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D194" s="21" t="n"/>
@@ -9914,14 +9924,14 @@
       <c r="G194" s="21" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J194" s="22" t="n"/>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="25" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M194" s="25" t="n"/>
@@ -9942,7 +9952,7 @@
       </c>
       <c r="C195" s="21" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D195" s="21" t="n"/>
@@ -9966,7 +9976,7 @@
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="25" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M195" s="25" t="n"/>
@@ -9987,7 +9997,7 @@
       </c>
       <c r="C196" s="21" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>最小特権モデルに従って、キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Microsoft Entra ID ロールに制限します。</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -10011,7 +10021,7 @@
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="25" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M196" s="25" t="n"/>
@@ -10032,7 +10042,7 @@
       </c>
       <c r="C197" s="21" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D197" s="21" t="n"/>
@@ -10056,7 +10066,7 @@
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="25" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M197" s="25" t="n"/>
@@ -10077,7 +10087,7 @@
       </c>
       <c r="C198" s="21" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -10094,14 +10104,14 @@
       <c r="G198" s="21" t="n"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J198" s="22" t="n"/>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="25" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M198" s="25" t="n"/>
@@ -10122,7 +10132,7 @@
       </c>
       <c r="C199" s="21" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -10146,7 +10156,7 @@
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="25" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M199" s="25" t="n"/>
@@ -10167,7 +10177,7 @@
       </c>
       <c r="C200" s="21" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D200" s="21" t="n"/>
@@ -10184,14 +10194,14 @@
       <c r="G200" s="21" t="n"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J200" s="22" t="n"/>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="25" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M200" s="25" t="n"/>
@@ -10212,7 +10222,7 @@
       </c>
       <c r="C201" s="21" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D201" s="21" t="n"/>
@@ -10236,7 +10246,7 @@
       <c r="K201" s="22" t="n"/>
       <c r="L201" s="25" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M201" s="25" t="n"/>
@@ -10257,7 +10267,7 @@
       </c>
       <c r="C202" s="21" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D202" s="21" t="n"/>
@@ -10274,14 +10284,14 @@
       <c r="G202" s="21" t="n"/>
       <c r="H202" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J202" s="22" t="n"/>
       <c r="K202" s="22" t="n"/>
       <c r="L202" s="25" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M202" s="25" t="n"/>
@@ -10302,7 +10312,7 @@
       </c>
       <c r="C203" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
+          <t>Azure Key Vault は、アプリケーションごと、環境ごと、リージョンごとに使用します。</t>
         </is>
       </c>
       <c r="D203" s="21" t="n"/>
@@ -10319,14 +10329,14 @@
       <c r="G203" s="21" t="n"/>
       <c r="H203" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J203" s="22" t="n"/>
       <c r="K203" s="22" t="n"/>
       <c r="L203" s="25" t="inlineStr">
         <is>
-          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M203" s="25" t="n"/>
@@ -10342,12 +10352,12 @@
       </c>
       <c r="B204" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C204" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されているすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D204" s="21" t="n"/>
@@ -10364,14 +10374,14 @@
       <c r="G204" s="21" t="n"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J204" s="22" t="n"/>
       <c r="K204" s="22" t="n"/>
       <c r="L204" s="25" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M204" s="25" t="n"/>
@@ -10387,12 +10397,12 @@
       </c>
       <c r="B205" s="21" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>暗号化とキー</t>
         </is>
       </c>
       <c r="C205" s="21" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
+          <t>ソブリン ランディング ゾーンの場合は、Azure Key Vault マネージド HSM を使用してシークレットと資格情報を格納します。</t>
         </is>
       </c>
       <c r="D205" s="21" t="n"/>
@@ -10409,14 +10419,14 @@
       <c r="G205" s="21" t="n"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/key-management</t>
         </is>
       </c>
       <c r="J205" s="22" t="n"/>
       <c r="K205" s="22" t="n"/>
       <c r="L205" s="25" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4ac6b67c-b3a4-4ff9-8e87-b07a7ce7bbdb</t>
         </is>
       </c>
       <c r="M205" s="25" t="n"/>
@@ -10437,13 +10447,13 @@
       </c>
       <c r="C206" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
+          <t>Microsoft Entra ID レポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -10454,14 +10464,14 @@
       <c r="G206" s="21" t="n"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J206" s="22" t="n"/>
       <c r="K206" s="22" t="n"/>
       <c r="L206" s="25" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M206" s="25" t="n"/>
@@ -10482,13 +10492,13 @@
       </c>
       <c r="C207" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、データを長期間保持します。必要に応じて、2 年を超える長期保存のために Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
       <c r="E207" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -10499,14 +10509,14 @@
       <c r="G207" s="21" t="n"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J207" s="22" t="n"/>
       <c r="K207" s="22" t="n"/>
       <c r="L207" s="25" t="inlineStr">
         <is>
-          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M207" s="25" t="n"/>
@@ -10527,7 +10537,7 @@
       </c>
       <c r="C208" s="21" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
+          <t>すべてのサブスクリプションに対して Defender Cloud Security Posture Management を有効にします。</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -10544,14 +10554,14 @@
       <c r="G208" s="21" t="n"/>
       <c r="H208" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/concept-cloud-security-posture-management</t>
         </is>
       </c>
       <c r="J208" s="22" t="n"/>
       <c r="K208" s="22" t="n"/>
       <c r="L208" s="25" t="inlineStr">
         <is>
-          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M208" s="25" t="n"/>
@@ -10572,7 +10582,7 @@
       </c>
       <c r="C209" s="21" t="inlineStr">
         <is>
-          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
+          <t>すべてのサブスクリプションでサーバーに対して Defender Cloud ワークロード保護プランを有効にします。</t>
         </is>
       </c>
       <c r="D209" s="21" t="n"/>
@@ -10589,14 +10599,14 @@
       <c r="G209" s="21" t="n"/>
       <c r="H209" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/plan-defender-for-servers-select-plan</t>
         </is>
       </c>
       <c r="J209" s="22" t="n"/>
       <c r="K209" s="22" t="n"/>
       <c r="L209" s="25" t="inlineStr">
         <is>
-          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
+          <t>36a72a48-fffe-4c40-9747-0ab5064355ba</t>
         </is>
       </c>
       <c r="M209" s="25" t="n"/>
@@ -10617,13 +10627,13 @@
       </c>
       <c r="C210" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
+          <t>すべてのサブスクリプションで Azure リソースの Defender Cloud Workload Protection プランを有効にします。</t>
         </is>
       </c>
       <c r="D210" s="21" t="n"/>
       <c r="E210" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -10634,14 +10644,14 @@
       <c r="G210" s="21" t="n"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/</t>
+          <t>https://www.microsoft.com/en-gb/security/business/solutions/cloud-workload-protection</t>
         </is>
       </c>
       <c r="J210" s="22" t="n"/>
       <c r="K210" s="22" t="n"/>
       <c r="L210" s="25" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>77425f48-ecba-43a0-aeac-a3ac733ccc6a</t>
         </is>
       </c>
       <c r="M210" s="25" t="n"/>
@@ -10662,13 +10672,13 @@
       </c>
       <c r="C211" s="21" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>IaaS サーバーで Endpoint Protection を有効にします。</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
       <c r="E211" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -10679,14 +10689,14 @@
       <c r="G211" s="21" t="n"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/mem/configmgr/protect/deploy-use/endpoint-protection</t>
         </is>
       </c>
       <c r="J211" s="22" t="n"/>
       <c r="K211" s="22" t="n"/>
       <c r="L211" s="25" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>24d96b30-61ee-4436-a1cc-d6ef08bc574b</t>
         </is>
       </c>
       <c r="M211" s="25" t="n"/>
@@ -10707,7 +10717,7 @@
       </c>
       <c r="C212" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用誤差を監視します。</t>
         </is>
       </c>
       <c r="D212" s="21" t="n"/>
@@ -10724,14 +10734,14 @@
       <c r="G212" s="21" t="n"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J212" s="22" t="n"/>
       <c r="K212" s="22" t="n"/>
       <c r="L212" s="25" t="inlineStr">
         <is>
-          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M212" s="25" t="n"/>
@@ -10752,7 +10762,7 @@
       </c>
       <c r="C213" s="21" t="inlineStr">
         <is>
-          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -10769,14 +10779,14 @@
       <c r="G213" s="21" t="n"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J213" s="22" t="n"/>
       <c r="K213" s="22" t="n"/>
       <c r="L213" s="25" t="inlineStr">
         <is>
-          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M213" s="25" t="n"/>
@@ -10792,18 +10802,18 @@
       </c>
       <c r="B214" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C214" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
+          <t>ソブリン ランディング ゾーンの場合、透過性ログは Entra ID テナントで有効になっています。</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
       <c r="E214" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -10814,14 +10824,14 @@
       <c r="G214" s="21" t="n"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
+          <t>https://learn.microsoft.com/en-us/industry/sovereignty/transparency-logs</t>
         </is>
       </c>
       <c r="J214" s="22" t="n"/>
       <c r="K214" s="22" t="n"/>
       <c r="L214" s="25" t="inlineStr">
         <is>
-          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
+          <t>1761e147-f65e-4d09-bbc2-f464f23e2eba</t>
         </is>
       </c>
       <c r="M214" s="25" t="n"/>
@@ -10837,18 +10847,18 @@
       </c>
       <c r="B215" s="21" t="inlineStr">
         <is>
-          <t>概要</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="C215" s="21" t="inlineStr">
         <is>
-          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
+          <t>ソブリン ランディング ゾーンの場合、Entra ID テナントでカスタマー ロックボックスが有効になっています。</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
       <c r="E215" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -10859,14 +10869,14 @@
       <c r="G215" s="21" t="n"/>
       <c r="H215" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
+          <t>https://learn.microsoft.com/en-us/azure/security/fundamentals/customer-lockbox-overview</t>
         </is>
       </c>
       <c r="J215" s="22" t="n"/>
       <c r="K215" s="22" t="n"/>
       <c r="L215" s="25" t="inlineStr">
         <is>
-          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
+          <t>d21a922d-5ca7-427a-82a6-35f7b21f1bfc</t>
         </is>
       </c>
       <c r="M215" s="25" t="n"/>
@@ -10882,12 +10892,12 @@
       </c>
       <c r="B216" s="21" t="inlineStr">
         <is>
-          <t>特権アクセスの保護</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C216" s="21" t="inlineStr">
         <is>
-          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
+          <t>ストレージ アカウントへの安全な転送を有効にする必要がある</t>
         </is>
       </c>
       <c r="D216" s="21" t="n"/>
@@ -10904,14 +10914,14 @@
       <c r="G216" s="21" t="n"/>
       <c r="H216" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
+          <t>https://learn.microsoft.com/azure/storage/common/storage-require-secure-transfer</t>
         </is>
       </c>
       <c r="J216" s="22" t="n"/>
       <c r="K216" s="22" t="n"/>
       <c r="L216" s="25" t="inlineStr">
         <is>
-          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
+          <t>b03ed428-4617-4067-a787-85468b9ccf3f</t>
         </is>
       </c>
       <c r="M216" s="25" t="n"/>
@@ -10927,18 +10937,18 @@
       </c>
       <c r="B217" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>概要</t>
         </is>
       </c>
       <c r="C217" s="21" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>ストレージ アカウントのコンテナーの論理的な削除を有効にして、削除されたコンテナーとその内容を回復します。</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
       <c r="E217" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -10949,14 +10959,14 @@
       <c r="G217" s="21" t="n"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/storage/blobs/data-protection-overview#recommendations-for-basic-data-protection</t>
         </is>
       </c>
       <c r="J217" s="22" t="n"/>
       <c r="K217" s="22" t="n"/>
       <c r="L217" s="25" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>159aac9f-863f-4f48-82cf-00c28fa97a0e</t>
         </is>
       </c>
       <c r="M217" s="25" t="n"/>
@@ -10972,18 +10982,18 @@
       </c>
       <c r="B218" s="21" t="inlineStr">
         <is>
-          <t>サービス有効化フレームワーク</t>
+          <t>特権アクセスの保護</t>
         </is>
       </c>
       <c r="C218" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求の履行方法を計画する</t>
+          <t>Azure 管理タスク用に特権管理者アカウントを分離します。</t>
         </is>
       </c>
       <c r="D218" s="21" t="n"/>
       <c r="E218" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -10994,14 +11004,14 @@
       <c r="G218" s="21" t="n"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning</t>
         </is>
       </c>
       <c r="J218" s="22" t="n"/>
       <c r="K218" s="22" t="n"/>
       <c r="L218" s="25" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>6f704104-85c1-441f-96d3-c9819911645e</t>
         </is>
       </c>
       <c r="M218" s="25" t="n"/>
@@ -11012,23 +11022,23 @@
     <row r="219">
       <c r="A219" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B219" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C219" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D219" s="21" t="n"/>
       <c r="E219" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -11039,14 +11049,14 @@
       <c r="G219" s="21" t="n"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J219" s="22" t="n"/>
       <c r="K219" s="22" t="n"/>
       <c r="L219" s="25" t="inlineStr">
         <is>
-          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M219" s="25" t="n"/>
@@ -11057,23 +11067,23 @@
     <row r="220">
       <c r="A220" s="21" t="inlineStr">
         <is>
-          <t>プラットフォームの自動化とDevOps</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="B220" s="21" t="inlineStr">
         <is>
-          <t>DevOps チーム トポロジ</t>
+          <t>サービス有効化フレームワーク</t>
         </is>
       </c>
       <c r="C220" s="21" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
+          <t>Azure サービスのサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D220" s="21" t="n"/>
       <c r="E220" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -11084,14 +11094,14 @@
       <c r="G220" s="21" t="n"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/service-enablement-framework</t>
         </is>
       </c>
       <c r="J220" s="22" t="n"/>
       <c r="K220" s="22" t="n"/>
       <c r="L220" s="25" t="inlineStr">
         <is>
-          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M220" s="25" t="n"/>
@@ -11112,13 +11122,13 @@
       </c>
       <c r="C221" s="21" t="inlineStr">
         <is>
-          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としない機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
+          <t>Azure ランディング ゾーン アーキテクチャを構築、管理、保守するための機能横断的な DevOps プラットフォーム チームがあることを確認します。</t>
         </is>
       </c>
       <c r="D221" s="21" t="n"/>
       <c r="E221" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -11129,14 +11139,14 @@
       <c r="G221" s="21" t="n"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/platform-automation-devops</t>
         </is>
       </c>
       <c r="J221" s="22" t="n"/>
       <c r="K221" s="22" t="n"/>
       <c r="L221" s="25" t="inlineStr">
         <is>
-          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
+          <t>e85f4226-bf06-4e35-8a8b-7aee4d2d633a</t>
         </is>
       </c>
       <c r="M221" s="25" t="n"/>
@@ -11157,13 +11167,13 @@
       </c>
       <c r="C222" s="21" t="inlineStr">
         <is>
-          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
+          <t>Azure ランディング ゾーン プラットフォーム チームの関数を定義することを目指します。</t>
         </is>
       </c>
       <c r="D222" s="21" t="n"/>
       <c r="E222" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -11174,14 +11184,14 @@
       <c r="G222" s="21" t="n"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J222" s="22" t="n"/>
       <c r="K222" s="22" t="n"/>
       <c r="L222" s="25" t="inlineStr">
         <is>
-          <t>165eb5e9-b434-448a-9e24-178632186212</t>
+          <t>634146bf-7085-4419-a7b5-f96d2726f6da</t>
         </is>
       </c>
       <c r="M222" s="25" t="n"/>
@@ -11202,13 +11212,13 @@
       </c>
       <c r="C223" s="21" t="inlineStr">
         <is>
-          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
+          <t>アプリケーション ワークロード チームが自己完結し、DevOps プラットフォーム チームのサポートを必要としない機能を定義することを目指します。これは、カスタム RBAC ロールを使用して実現します。</t>
         </is>
       </c>
       <c r="D223" s="21" t="n"/>
       <c r="E223" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -11219,14 +11229,14 @@
       <c r="G223" s="21" t="n"/>
       <c r="H223" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/devops-teams-topologies#design-recommendations</t>
         </is>
       </c>
       <c r="J223" s="22" t="n"/>
       <c r="K223" s="22" t="n"/>
       <c r="L223" s="25" t="inlineStr">
         <is>
-          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
+          <t>a9e65070-c59e-4112-8bf6-c11364d4a2a5</t>
         </is>
       </c>
       <c r="M223" s="25" t="n"/>
@@ -11247,7 +11257,7 @@
       </c>
       <c r="C224" s="21" t="inlineStr">
         <is>
-          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
+          <t>CI/CD パイプラインを使用して IaC 成果物をデプロイし、デプロイと Azure 環境の品質を確保します。</t>
         </is>
       </c>
       <c r="D224" s="21" t="n"/>
@@ -11264,14 +11274,14 @@
       <c r="G224" s="21" t="n"/>
       <c r="H224" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J224" s="22" t="n"/>
       <c r="K224" s="22" t="n"/>
       <c r="L224" s="25" t="inlineStr">
         <is>
-          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
+          <t>165eb5e9-b434-448a-9e24-178632186212</t>
         </is>
       </c>
       <c r="M224" s="25" t="n"/>
@@ -11292,13 +11302,13 @@
       </c>
       <c r="C225" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
+          <t>ビルド プロセスの一部として、IaC とアプリケーション コードの単体テストを含めます。</t>
         </is>
       </c>
       <c r="D225" s="21" t="n"/>
       <c r="E225" s="21" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -11309,14 +11319,14 @@
       <c r="G225" s="21" t="n"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J225" s="22" t="n"/>
       <c r="K225" s="22" t="n"/>
       <c r="L225" s="25" t="inlineStr">
         <is>
-          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
+          <t>0cadb8c7-8fa5-4fbf-8f39-d1fadb3b0460</t>
         </is>
       </c>
       <c r="M225" s="25" t="n"/>
@@ -11332,12 +11342,12 @@
       </c>
       <c r="B226" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C226" s="21" t="inlineStr">
         <is>
-          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
+          <t>Key Vault シークレットを使用して、資格情報 (仮想マシン、ユーザー パスワード)、証明書、キーなどの機密情報をハードコーディングしないようにします。</t>
         </is>
       </c>
       <c r="D226" s="21" t="n"/>
@@ -11354,14 +11364,14 @@
       <c r="G226" s="21" t="n"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle#automated-builds</t>
         </is>
       </c>
       <c r="J226" s="22" t="n"/>
       <c r="K226" s="22" t="n"/>
       <c r="L226" s="25" t="inlineStr">
         <is>
-          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
+          <t>108d5099-a11d-4445-bd8b-e12a5e95412e</t>
         </is>
       </c>
       <c r="M226" s="25" t="n"/>
@@ -11377,12 +11387,12 @@
       </c>
       <c r="B227" s="21" t="inlineStr">
         <is>
-          <t>開発ライフサイクル</t>
+          <t>DevOps チーム トポロジ</t>
         </is>
       </c>
       <c r="C227" s="21" t="inlineStr">
         <is>
-          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
+          <t>アプリケーションとワークロードの File &gt; New &gt; ランディング ゾーンの自動化を実装します。</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -11399,14 +11409,14 @@
       <c r="G227" s="21" t="n"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/subscription-vending</t>
         </is>
       </c>
       <c r="J227" s="22" t="n"/>
       <c r="K227" s="22" t="n"/>
       <c r="L227" s="25" t="inlineStr">
         <is>
-          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
+          <t>a52e0c98-76b9-4a09-a1c9-6b2babf22ac4</t>
         </is>
       </c>
       <c r="M227" s="25" t="n"/>
@@ -11427,13 +11437,13 @@
       </c>
       <c r="C228" s="21" t="inlineStr">
         <is>
-          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
+          <t>アプリケーションや IaC のソース コードにバージョン管理システムが使用されていることを確認します。Microsoft では Git を推奨しています。</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
       <c r="E228" s="21" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -11444,14 +11454,14 @@
       <c r="G228" s="21" t="n"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
         </is>
       </c>
       <c r="J228" s="22" t="n"/>
       <c r="K228" s="22" t="n"/>
       <c r="L228" s="25" t="inlineStr">
         <is>
-          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
+          <t>cfe363b5-f579-4284-bc56-a42153e4c10b</t>
         </is>
       </c>
       <c r="M228" s="25" t="n"/>
@@ -11467,18 +11477,18 @@
       </c>
       <c r="B229" s="21" t="inlineStr">
         <is>
-          <t>開発戦略</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C229" s="21" t="inlineStr">
         <is>
-          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+          <t>分岐戦略に従って、チームのコラボレーションを改善し、IaC とアプリケーション コードのバージョン管理を効率的に管理できるようにします。Github Flow などのオプションを確認します。</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
       <c r="E229" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -11489,14 +11499,14 @@
       <c r="G229" s="21" t="n"/>
       <c r="H229" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J229" s="22" t="n"/>
       <c r="K229" s="22" t="n"/>
       <c r="L229" s="25" t="inlineStr">
         <is>
-          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+          <t>c7245dd4-af8a-403a-8bb7-890c1a7cfa9d</t>
         </is>
       </c>
       <c r="M229" s="25" t="n"/>
@@ -11512,18 +11522,18 @@
       </c>
       <c r="B230" s="21" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>開発ライフサイクル</t>
         </is>
       </c>
       <c r="C230" s="21" t="inlineStr">
         <is>
-          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+          <t>プル要求戦略を採用して、ブランチにマージされたコード変更を制御し続けるのに役立ちます。</t>
         </is>
       </c>
       <c r="D230" s="21" t="n"/>
       <c r="E230" s="21" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -11534,14 +11544,14 @@
       <c r="G230" s="21" t="n"/>
       <c r="H230" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/development-strategy-development-lifecycle</t>
         </is>
       </c>
       <c r="J230" s="22" t="n"/>
       <c r="K230" s="22" t="n"/>
       <c r="L230" s="25" t="inlineStr">
         <is>
-          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+          <t>12aeea20-9165-4b3e-bdf2-6795fcd3cdbe</t>
         </is>
       </c>
       <c r="M230" s="25" t="n"/>
@@ -11550,30 +11560,90 @@
       <c r="P230" s="25" t="n"/>
     </row>
     <row r="231">
-      <c r="A231" s="21" t="n"/>
-      <c r="B231" s="21" t="n"/>
-      <c r="C231" s="21" t="n"/>
+      <c r="A231" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B231" s="21" t="inlineStr">
+        <is>
+          <t>開発戦略</t>
+        </is>
+      </c>
+      <c r="C231" s="21" t="inlineStr">
+        <is>
+          <t>Azure Bicep、ARM テンプレート、Terraform などの宣言型インフラストラクチャ as Code ツールを活用して、Azure ランディング ゾーン アーキテクチャを構築および維持します。プラットフォームとアプリケーションのワークロードの両方の観点から。</t>
+        </is>
+      </c>
       <c r="D231" s="21" t="n"/>
-      <c r="E231" s="21" t="n"/>
+      <c r="E231" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G231" s="21" t="n"/>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/infrastructure-as-code</t>
+        </is>
+      </c>
       <c r="J231" s="22" t="n"/>
       <c r="K231" s="22" t="n"/>
-      <c r="L231" s="25" t="n"/>
+      <c r="L231" s="25" t="inlineStr">
+        <is>
+          <t>2cdc9d99-dbcc-4ad4-97f5-e7d358bdfa73</t>
+        </is>
+      </c>
       <c r="M231" s="25" t="n"/>
       <c r="N231" s="25" t="n"/>
       <c r="O231" s="25" t="n"/>
       <c r="P231" s="25" t="n"/>
     </row>
     <row r="232">
-      <c r="A232" s="21" t="n"/>
-      <c r="B232" s="21" t="n"/>
-      <c r="C232" s="21" t="n"/>
+      <c r="A232" s="21" t="inlineStr">
+        <is>
+          <t>プラットフォームの自動化とDevOps</t>
+        </is>
+      </c>
+      <c r="B232" s="21" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C232" s="21" t="inlineStr">
+        <is>
+          <t>DevOpsの開発と運用のすでに組み合わされているプロセスにセキュリティを統合して、イノベーションプロセスのリスクを軽減します。</t>
+        </is>
+      </c>
       <c r="D232" s="21" t="n"/>
-      <c r="E232" s="21" t="n"/>
+      <c r="E232" s="21" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G232" s="21" t="n"/>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/considerations/landing-zone-security#secure</t>
+        </is>
+      </c>
       <c r="J232" s="22" t="n"/>
       <c r="K232" s="22" t="n"/>
-      <c r="L232" s="25" t="n"/>
+      <c r="L232" s="25" t="inlineStr">
+        <is>
+          <t>cc87a3bc-c572-4ad2-92ed-8cabab66160f</t>
+        </is>
+      </c>
       <c r="M232" s="25" t="n"/>
       <c r="N232" s="25" t="n"/>
       <c r="O232" s="25" t="n"/>
@@ -12700,7 +12770,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F231" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F233" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/alz_checklist.ja.xlsx
+++ b/spreadsheet/macrofree/alz_checklist.ja.xlsx
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Azure サービスに対する認証にサービス プリンシパルの代わりにマネージド ID を使用するUse managed identity instead of service principals for authentication to Azure services</t>
+          <t>Azure サービスへの認証には、サービス プリンシパルの代わりにマネージド ID を使用します。既存のサービス プリンシパルは、Entra ID &gt; サインイン ログ &gt; サービス プリンシパル ログインを使用して確認できます。</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -3874,7 +3874,7 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/expressroute-howto-macsec</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
@@ -6414,12 +6414,12 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスのコントロール プレーン通信が、たとえば、コントロール プレーンのトラフィックをブロックする 0.0.0.0/0 ルートや NSG ルールによって切断されていないことを確認します。</t>
+          <t>診断設定を追加して、保護されているすべてのパブリック IP アドレス (DDoS IP またはネットワーク保護) の DDoS 関連ログを保存します。</t>
         </is>
       </c>
       <c r="D119" s="21" t="n"/>
@@ -6436,19 +6436,19 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>b1c82a3f-2320-4dfa-8972-7ae4823c8930</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6464,12 +6464,12 @@
       </c>
       <c r="B120" s="21" t="inlineStr">
         <is>
-          <t>PaaS(パーエス)</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、使用可能な場合は Private Link を使用します。</t>
+          <t>すべての Azure Firewall デプロイのログを保存するための診断設定を、リソース固有の宛先テーブルに追加します。</t>
         </is>
       </c>
       <c r="D120" s="21" t="n"/>
@@ -6486,19 +6486,19 @@
       <c r="G120" s="21"